--- a/data/imf_FR_all_exports_2021A.xlsx
+++ b/data/imf_FR_all_exports_2021A.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F695"/>
+  <dimension ref="A1:G695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,10 +380,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>value</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -411,9 +416,12 @@
         </is>
       </c>
       <c r="E2">
+        <v>2020</v>
+      </c>
+      <c r="F2">
         <v>70595582</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2020</v>
       </c>
     </row>
@@ -439,9 +447,12 @@
         </is>
       </c>
       <c r="E3">
+        <v>2021</v>
+      </c>
+      <c r="F3">
         <v>102939956</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2021</v>
       </c>
     </row>
@@ -467,9 +478,12 @@
         </is>
       </c>
       <c r="E4">
+        <v>2022</v>
+      </c>
+      <c r="F4">
         <v>82482185</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2022</v>
       </c>
     </row>
@@ -495,9 +509,12 @@
         </is>
       </c>
       <c r="E5">
+        <v>2020</v>
+      </c>
+      <c r="F5">
         <v>37401932873</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2020</v>
       </c>
     </row>
@@ -523,9 +540,12 @@
         </is>
       </c>
       <c r="E6">
+        <v>2021</v>
+      </c>
+      <c r="F6">
         <v>41515372380</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2021</v>
       </c>
     </row>
@@ -551,9 +571,12 @@
         </is>
       </c>
       <c r="E7">
+        <v>2022</v>
+      </c>
+      <c r="F7">
         <v>49104682102</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2022</v>
       </c>
     </row>
@@ -579,9 +602,12 @@
         </is>
       </c>
       <c r="E8">
+        <v>2020</v>
+      </c>
+      <c r="F8">
         <v>3178618</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2020</v>
       </c>
     </row>
@@ -607,9 +633,12 @@
         </is>
       </c>
       <c r="E9">
+        <v>2021</v>
+      </c>
+      <c r="F9">
         <v>2504185</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2021</v>
       </c>
     </row>
@@ -635,9 +664,12 @@
         </is>
       </c>
       <c r="E10">
+        <v>2022</v>
+      </c>
+      <c r="F10">
         <v>5094159</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2022</v>
       </c>
     </row>
@@ -663,9 +695,12 @@
         </is>
       </c>
       <c r="E11">
+        <v>2020</v>
+      </c>
+      <c r="F11">
         <v>376156841</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2020</v>
       </c>
     </row>
@@ -691,9 +726,12 @@
         </is>
       </c>
       <c r="E12">
+        <v>2021</v>
+      </c>
+      <c r="F12">
         <v>386869602</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2021</v>
       </c>
     </row>
@@ -719,9 +757,12 @@
         </is>
       </c>
       <c r="E13">
+        <v>2022</v>
+      </c>
+      <c r="F13">
         <v>441375584</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2022</v>
       </c>
     </row>
@@ -747,9 +788,12 @@
         </is>
       </c>
       <c r="E14">
+        <v>2020</v>
+      </c>
+      <c r="F14">
         <v>85074982</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2020</v>
       </c>
     </row>
@@ -775,9 +819,12 @@
         </is>
       </c>
       <c r="E15">
+        <v>2021</v>
+      </c>
+      <c r="F15">
         <v>37690697</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2021</v>
       </c>
     </row>
@@ -803,9 +850,12 @@
         </is>
       </c>
       <c r="E16">
+        <v>2022</v>
+      </c>
+      <c r="F16">
         <v>36129334</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2022</v>
       </c>
     </row>
@@ -831,9 +881,12 @@
         </is>
       </c>
       <c r="E17">
+        <v>2020</v>
+      </c>
+      <c r="F17">
         <v>21285482</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2020</v>
       </c>
     </row>
@@ -859,9 +912,12 @@
         </is>
       </c>
       <c r="E18">
+        <v>2021</v>
+      </c>
+      <c r="F18">
         <v>13730013</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2021</v>
       </c>
     </row>
@@ -887,9 +943,12 @@
         </is>
       </c>
       <c r="E19">
+        <v>2022</v>
+      </c>
+      <c r="F19">
         <v>14421733</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2022</v>
       </c>
     </row>
@@ -915,9 +974,12 @@
         </is>
       </c>
       <c r="E20">
+        <v>2020</v>
+      </c>
+      <c r="F20">
         <v>488636774134</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2020</v>
       </c>
     </row>
@@ -943,9 +1005,12 @@
         </is>
       </c>
       <c r="E21">
+        <v>2021</v>
+      </c>
+      <c r="F21">
         <v>585020854161</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2021</v>
       </c>
     </row>
@@ -971,9 +1036,12 @@
         </is>
       </c>
       <c r="E22">
+        <v>2022</v>
+      </c>
+      <c r="F22">
         <v>618152685111</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2022</v>
       </c>
     </row>
@@ -999,9 +1067,12 @@
         </is>
       </c>
       <c r="E23">
+        <v>2020</v>
+      </c>
+      <c r="F23">
         <v>16460761715</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2020</v>
       </c>
     </row>
@@ -1027,9 +1098,12 @@
         </is>
       </c>
       <c r="E24">
+        <v>2021</v>
+      </c>
+      <c r="F24">
         <v>20144923674</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2021</v>
       </c>
     </row>
@@ -1055,9 +1129,12 @@
         </is>
       </c>
       <c r="E25">
+        <v>2022</v>
+      </c>
+      <c r="F25">
         <v>21666704853</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>2022</v>
       </c>
     </row>
@@ -1083,9 +1160,12 @@
         </is>
       </c>
       <c r="E26">
+        <v>2020</v>
+      </c>
+      <c r="F26">
         <v>2236441</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2020</v>
       </c>
     </row>
@@ -1111,9 +1191,12 @@
         </is>
       </c>
       <c r="E27">
+        <v>2021</v>
+      </c>
+      <c r="F27">
         <v>4341199</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2021</v>
       </c>
     </row>
@@ -1139,9 +1222,12 @@
         </is>
       </c>
       <c r="E28">
+        <v>2022</v>
+      </c>
+      <c r="F28">
         <v>2678222</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2022</v>
       </c>
     </row>
@@ -1167,9 +1253,12 @@
         </is>
       </c>
       <c r="E29">
+        <v>2020</v>
+      </c>
+      <c r="F29">
         <v>31261362442</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2020</v>
       </c>
     </row>
@@ -1195,9 +1284,12 @@
         </is>
       </c>
       <c r="E30">
+        <v>2021</v>
+      </c>
+      <c r="F30">
         <v>33610715356</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2021</v>
       </c>
     </row>
@@ -1223,9 +1315,12 @@
         </is>
       </c>
       <c r="E31">
+        <v>2022</v>
+      </c>
+      <c r="F31">
         <v>35204708597</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2022</v>
       </c>
     </row>
@@ -1251,9 +1346,12 @@
         </is>
       </c>
       <c r="E32">
+        <v>2020</v>
+      </c>
+      <c r="F32">
         <v>422686385</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2020</v>
       </c>
     </row>
@@ -1279,9 +1377,12 @@
         </is>
       </c>
       <c r="E33">
+        <v>2021</v>
+      </c>
+      <c r="F33">
         <v>594126609</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>2021</v>
       </c>
     </row>
@@ -1307,9 +1408,12 @@
         </is>
       </c>
       <c r="E34">
+        <v>2022</v>
+      </c>
+      <c r="F34">
         <v>367865581</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>2022</v>
       </c>
     </row>
@@ -1335,9 +1439,12 @@
         </is>
       </c>
       <c r="E35">
+        <v>2020</v>
+      </c>
+      <c r="F35">
         <v>208454462</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2020</v>
       </c>
     </row>
@@ -1363,9 +1470,12 @@
         </is>
       </c>
       <c r="E36">
+        <v>2021</v>
+      </c>
+      <c r="F36">
         <v>246543125</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>2021</v>
       </c>
     </row>
@@ -1391,9 +1501,12 @@
         </is>
       </c>
       <c r="E37">
+        <v>2022</v>
+      </c>
+      <c r="F37">
         <v>367831333</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>2022</v>
       </c>
     </row>
@@ -1419,9 +1532,12 @@
         </is>
       </c>
       <c r="E38">
+        <v>2020</v>
+      </c>
+      <c r="F38">
         <v>2611093</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2020</v>
       </c>
     </row>
@@ -1447,9 +1563,12 @@
         </is>
       </c>
       <c r="E39">
+        <v>2021</v>
+      </c>
+      <c r="F39">
         <v>1901231</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>2021</v>
       </c>
     </row>
@@ -1475,9 +1594,12 @@
         </is>
       </c>
       <c r="E40">
+        <v>2022</v>
+      </c>
+      <c r="F40">
         <v>3209918</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>2022</v>
       </c>
     </row>
@@ -1503,9 +1625,12 @@
         </is>
       </c>
       <c r="E41">
+        <v>2020</v>
+      </c>
+      <c r="F41">
         <v>26121348947</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>2020</v>
       </c>
     </row>
@@ -1531,9 +1656,12 @@
         </is>
       </c>
       <c r="E42">
+        <v>2021</v>
+      </c>
+      <c r="F42">
         <v>28636004326</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>2021</v>
       </c>
     </row>
@@ -1559,9 +1687,12 @@
         </is>
       </c>
       <c r="E43">
+        <v>2022</v>
+      </c>
+      <c r="F43">
         <v>23602183958</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>2022</v>
       </c>
     </row>
@@ -1587,9 +1718,12 @@
         </is>
       </c>
       <c r="E44">
+        <v>2020</v>
+      </c>
+      <c r="F44">
         <v>171397399</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>2020</v>
       </c>
     </row>
@@ -1615,9 +1749,12 @@
         </is>
       </c>
       <c r="E45">
+        <v>2021</v>
+      </c>
+      <c r="F45">
         <v>185714928</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>2021</v>
       </c>
     </row>
@@ -1643,9 +1780,12 @@
         </is>
       </c>
       <c r="E46">
+        <v>2022</v>
+      </c>
+      <c r="F46">
         <v>179663133</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>2022</v>
       </c>
     </row>
@@ -1671,9 +1811,12 @@
         </is>
       </c>
       <c r="E47">
+        <v>2020</v>
+      </c>
+      <c r="F47">
         <v>317276</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>2020</v>
       </c>
     </row>
@@ -1699,9 +1842,12 @@
         </is>
       </c>
       <c r="E48">
+        <v>2021</v>
+      </c>
+      <c r="F48">
         <v>6058</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2021</v>
       </c>
     </row>
@@ -1727,9 +1873,12 @@
         </is>
       </c>
       <c r="E49">
+        <v>2022</v>
+      </c>
+      <c r="F49">
         <v>299356</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>2022</v>
       </c>
     </row>
@@ -1755,9 +1904,12 @@
         </is>
       </c>
       <c r="E50">
+        <v>2020</v>
+      </c>
+      <c r="F50">
         <v>41617640</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>2020</v>
       </c>
     </row>
@@ -1783,9 +1935,12 @@
         </is>
       </c>
       <c r="E51">
+        <v>2021</v>
+      </c>
+      <c r="F51">
         <v>41552079</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>2021</v>
       </c>
     </row>
@@ -1811,9 +1966,12 @@
         </is>
       </c>
       <c r="E52">
+        <v>2022</v>
+      </c>
+      <c r="F52">
         <v>36736304</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>2022</v>
       </c>
     </row>
@@ -1839,9 +1997,12 @@
         </is>
       </c>
       <c r="E53">
+        <v>2020</v>
+      </c>
+      <c r="F53">
         <v>12560349</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>2020</v>
       </c>
     </row>
@@ -1867,9 +2028,12 @@
         </is>
       </c>
       <c r="E54">
+        <v>2021</v>
+      </c>
+      <c r="F54">
         <v>89043677</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>2021</v>
       </c>
     </row>
@@ -1895,9 +2059,12 @@
         </is>
       </c>
       <c r="E55">
+        <v>2022</v>
+      </c>
+      <c r="F55">
         <v>12382100</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>2022</v>
       </c>
     </row>
@@ -1923,9 +2090,12 @@
         </is>
       </c>
       <c r="E56">
+        <v>2020</v>
+      </c>
+      <c r="F56">
         <v>11860351</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>2020</v>
       </c>
     </row>
@@ -1951,9 +2121,12 @@
         </is>
       </c>
       <c r="E57">
+        <v>2021</v>
+      </c>
+      <c r="F57">
         <v>19855599</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>2021</v>
       </c>
     </row>
@@ -1979,9 +2152,12 @@
         </is>
       </c>
       <c r="E58">
+        <v>2022</v>
+      </c>
+      <c r="F58">
         <v>14971042</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>2022</v>
       </c>
     </row>
@@ -2007,9 +2183,12 @@
         </is>
       </c>
       <c r="E59">
+        <v>2020</v>
+      </c>
+      <c r="F59">
         <v>31756893</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>2020</v>
       </c>
     </row>
@@ -2035,9 +2214,12 @@
         </is>
       </c>
       <c r="E60">
+        <v>2021</v>
+      </c>
+      <c r="F60">
         <v>10789509</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>2021</v>
       </c>
     </row>
@@ -2063,9 +2245,12 @@
         </is>
       </c>
       <c r="E61">
+        <v>2022</v>
+      </c>
+      <c r="F61">
         <v>21962192</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>2022</v>
       </c>
     </row>
@@ -2091,9 +2276,12 @@
         </is>
       </c>
       <c r="E62">
+        <v>2020</v>
+      </c>
+      <c r="F62">
         <v>8572160</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>2020</v>
       </c>
     </row>
@@ -2119,9 +2307,12 @@
         </is>
       </c>
       <c r="E63">
+        <v>2021</v>
+      </c>
+      <c r="F63">
         <v>10159470</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>2021</v>
       </c>
     </row>
@@ -2147,9 +2338,12 @@
         </is>
       </c>
       <c r="E64">
+        <v>2022</v>
+      </c>
+      <c r="F64">
         <v>9712572</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>2022</v>
       </c>
     </row>
@@ -2175,9 +2369,12 @@
         </is>
       </c>
       <c r="E65">
+        <v>2020</v>
+      </c>
+      <c r="F65">
         <v>272576576</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>2020</v>
       </c>
     </row>
@@ -2203,9 +2400,12 @@
         </is>
       </c>
       <c r="E66">
+        <v>2021</v>
+      </c>
+      <c r="F66">
         <v>209736093</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>2021</v>
       </c>
     </row>
@@ -2231,9 +2431,12 @@
         </is>
       </c>
       <c r="E67">
+        <v>2022</v>
+      </c>
+      <c r="F67">
         <v>229526945</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>2022</v>
       </c>
     </row>
@@ -2259,9 +2462,12 @@
         </is>
       </c>
       <c r="E68">
+        <v>2020</v>
+      </c>
+      <c r="F68">
         <v>9382650</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>2020</v>
       </c>
     </row>
@@ -2287,9 +2493,12 @@
         </is>
       </c>
       <c r="E69">
+        <v>2021</v>
+      </c>
+      <c r="F69">
         <v>8547025</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>2021</v>
       </c>
     </row>
@@ -2315,9 +2524,12 @@
         </is>
       </c>
       <c r="E70">
+        <v>2022</v>
+      </c>
+      <c r="F70">
         <v>7021530</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>2022</v>
       </c>
     </row>
@@ -2343,9 +2555,12 @@
         </is>
       </c>
       <c r="E71">
+        <v>2020</v>
+      </c>
+      <c r="F71">
         <v>77585597</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>2020</v>
       </c>
     </row>
@@ -2371,9 +2586,12 @@
         </is>
       </c>
       <c r="E72">
+        <v>2021</v>
+      </c>
+      <c r="F72">
         <v>52993133</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>2021</v>
       </c>
     </row>
@@ -2399,9 +2617,12 @@
         </is>
       </c>
       <c r="E73">
+        <v>2022</v>
+      </c>
+      <c r="F73">
         <v>50837639</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>2022</v>
       </c>
     </row>
@@ -2427,9 +2648,12 @@
         </is>
       </c>
       <c r="E74">
+        <v>2020</v>
+      </c>
+      <c r="F74">
         <v>73262173</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>2020</v>
       </c>
     </row>
@@ -2455,9 +2679,12 @@
         </is>
       </c>
       <c r="E75">
+        <v>2021</v>
+      </c>
+      <c r="F75">
         <v>72891740</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>2021</v>
       </c>
     </row>
@@ -2483,9 +2710,12 @@
         </is>
       </c>
       <c r="E76">
+        <v>2022</v>
+      </c>
+      <c r="F76">
         <v>71676954</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>2022</v>
       </c>
     </row>
@@ -2511,9 +2741,12 @@
         </is>
       </c>
       <c r="E77">
+        <v>2020</v>
+      </c>
+      <c r="F77">
         <v>687120846</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>2020</v>
       </c>
     </row>
@@ -2539,9 +2772,12 @@
         </is>
       </c>
       <c r="E78">
+        <v>2021</v>
+      </c>
+      <c r="F78">
         <v>551293616</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>2021</v>
       </c>
     </row>
@@ -2567,9 +2803,12 @@
         </is>
       </c>
       <c r="E79">
+        <v>2022</v>
+      </c>
+      <c r="F79">
         <v>897972993</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>2022</v>
       </c>
     </row>
@@ -2595,9 +2834,12 @@
         </is>
       </c>
       <c r="E80">
+        <v>2020</v>
+      </c>
+      <c r="F80">
         <v>49789348</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>2020</v>
       </c>
     </row>
@@ -2623,9 +2865,12 @@
         </is>
       </c>
       <c r="E81">
+        <v>2021</v>
+      </c>
+      <c r="F81">
         <v>55818127</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>2021</v>
       </c>
     </row>
@@ -2651,9 +2896,12 @@
         </is>
       </c>
       <c r="E82">
+        <v>2022</v>
+      </c>
+      <c r="F82">
         <v>90539762</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>2022</v>
       </c>
     </row>
@@ -2679,9 +2927,12 @@
         </is>
       </c>
       <c r="E83">
+        <v>2020</v>
+      </c>
+      <c r="F83">
         <v>18775948</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>2020</v>
       </c>
     </row>
@@ -2707,9 +2958,12 @@
         </is>
       </c>
       <c r="E84">
+        <v>2021</v>
+      </c>
+      <c r="F84">
         <v>39081301</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>2021</v>
       </c>
     </row>
@@ -2735,9 +2989,12 @@
         </is>
       </c>
       <c r="E85">
+        <v>2022</v>
+      </c>
+      <c r="F85">
         <v>34953017</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>2022</v>
       </c>
     </row>
@@ -2763,9 +3020,12 @@
         </is>
       </c>
       <c r="E86">
+        <v>2020</v>
+      </c>
+      <c r="F86">
         <v>426244949</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>2020</v>
       </c>
     </row>
@@ -2791,9 +3051,12 @@
         </is>
       </c>
       <c r="E87">
+        <v>2021</v>
+      </c>
+      <c r="F87">
         <v>682429061</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>2021</v>
       </c>
     </row>
@@ -2819,9 +3082,12 @@
         </is>
       </c>
       <c r="E88">
+        <v>2022</v>
+      </c>
+      <c r="F88">
         <v>560542597</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>2022</v>
       </c>
     </row>
@@ -2847,9 +3113,12 @@
         </is>
       </c>
       <c r="E89">
+        <v>2020</v>
+      </c>
+      <c r="F89">
         <v>4601582</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>2020</v>
       </c>
     </row>
@@ -2875,9 +3144,12 @@
         </is>
       </c>
       <c r="E90">
+        <v>2021</v>
+      </c>
+      <c r="F90">
         <v>2178357</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>2021</v>
       </c>
     </row>
@@ -2903,9 +3175,12 @@
         </is>
       </c>
       <c r="E91">
+        <v>2022</v>
+      </c>
+      <c r="F91">
         <v>8905415</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>2022</v>
       </c>
     </row>
@@ -2931,9 +3206,12 @@
         </is>
       </c>
       <c r="E92">
+        <v>2020</v>
+      </c>
+      <c r="F92">
         <v>10675158676</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>2020</v>
       </c>
     </row>
@@ -2959,9 +3237,12 @@
         </is>
       </c>
       <c r="E93">
+        <v>2021</v>
+      </c>
+      <c r="F93">
         <v>14428314812</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>2021</v>
       </c>
     </row>
@@ -2987,9 +3268,12 @@
         </is>
       </c>
       <c r="E94">
+        <v>2022</v>
+      </c>
+      <c r="F94">
         <v>14590133815</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>2022</v>
       </c>
     </row>
@@ -3015,9 +3299,12 @@
         </is>
       </c>
       <c r="E95">
+        <v>2020</v>
+      </c>
+      <c r="F95">
         <v>34003650716</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>2020</v>
       </c>
     </row>
@@ -3043,9 +3330,12 @@
         </is>
       </c>
       <c r="E96">
+        <v>2021</v>
+      </c>
+      <c r="F96">
         <v>46733592377</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>2021</v>
       </c>
     </row>
@@ -3071,9 +3361,12 @@
         </is>
       </c>
       <c r="E97">
+        <v>2022</v>
+      </c>
+      <c r="F97">
         <v>39313787887</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>2022</v>
       </c>
     </row>
@@ -3099,9 +3392,12 @@
         </is>
       </c>
       <c r="E98">
+        <v>2020</v>
+      </c>
+      <c r="F98">
         <v>382043272</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>2020</v>
       </c>
     </row>
@@ -3127,9 +3423,12 @@
         </is>
       </c>
       <c r="E99">
+        <v>2021</v>
+      </c>
+      <c r="F99">
         <v>321191172</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>2021</v>
       </c>
     </row>
@@ -3155,9 +3454,12 @@
         </is>
       </c>
       <c r="E100">
+        <v>2022</v>
+      </c>
+      <c r="F100">
         <v>412325871</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>2022</v>
       </c>
     </row>
@@ -3183,9 +3485,12 @@
         </is>
       </c>
       <c r="E101">
+        <v>2020</v>
+      </c>
+      <c r="F101">
         <v>320268824</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>2020</v>
       </c>
     </row>
@@ -3211,9 +3516,12 @@
         </is>
       </c>
       <c r="E102">
+        <v>2021</v>
+      </c>
+      <c r="F102">
         <v>197114934</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>2021</v>
       </c>
     </row>
@@ -3239,9 +3547,12 @@
         </is>
       </c>
       <c r="E103">
+        <v>2022</v>
+      </c>
+      <c r="F103">
         <v>228454064</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>2022</v>
       </c>
     </row>
@@ -3267,9 +3578,12 @@
         </is>
       </c>
       <c r="E104">
+        <v>2020</v>
+      </c>
+      <c r="F104">
         <v>726373794</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>2020</v>
       </c>
     </row>
@@ -3295,9 +3609,12 @@
         </is>
       </c>
       <c r="E105">
+        <v>2021</v>
+      </c>
+      <c r="F105">
         <v>1159033662</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>2021</v>
       </c>
     </row>
@@ -3323,9 +3640,12 @@
         </is>
       </c>
       <c r="E106">
+        <v>2022</v>
+      </c>
+      <c r="F106">
         <v>960174642</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>2022</v>
       </c>
     </row>
@@ -3351,9 +3671,12 @@
         </is>
       </c>
       <c r="E107">
+        <v>2020</v>
+      </c>
+      <c r="F107">
         <v>28415799</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>2020</v>
       </c>
     </row>
@@ -3379,9 +3702,12 @@
         </is>
       </c>
       <c r="E108">
+        <v>2021</v>
+      </c>
+      <c r="F108">
         <v>32668860</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>2021</v>
       </c>
     </row>
@@ -3407,9 +3733,12 @@
         </is>
       </c>
       <c r="E109">
+        <v>2022</v>
+      </c>
+      <c r="F109">
         <v>26594175</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>2022</v>
       </c>
     </row>
@@ -3435,9 +3764,12 @@
         </is>
       </c>
       <c r="E110">
+        <v>2020</v>
+      </c>
+      <c r="F110">
         <v>5769604</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>2020</v>
       </c>
     </row>
@@ -3463,9 +3795,12 @@
         </is>
       </c>
       <c r="E111">
+        <v>2021</v>
+      </c>
+      <c r="F111">
         <v>8424079</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>2021</v>
       </c>
     </row>
@@ -3491,9 +3826,12 @@
         </is>
       </c>
       <c r="E112">
+        <v>2022</v>
+      </c>
+      <c r="F112">
         <v>11664250</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>2022</v>
       </c>
     </row>
@@ -3519,9 +3857,12 @@
         </is>
       </c>
       <c r="E113">
+        <v>2020</v>
+      </c>
+      <c r="F113">
         <v>571008349</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>2020</v>
       </c>
     </row>
@@ -3547,9 +3888,12 @@
         </is>
       </c>
       <c r="E114">
+        <v>2021</v>
+      </c>
+      <c r="F114">
         <v>875242881</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>2021</v>
       </c>
     </row>
@@ -3575,9 +3919,12 @@
         </is>
       </c>
       <c r="E115">
+        <v>2022</v>
+      </c>
+      <c r="F115">
         <v>960326064</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>2022</v>
       </c>
     </row>
@@ -3603,9 +3950,12 @@
         </is>
       </c>
       <c r="E116">
+        <v>2020</v>
+      </c>
+      <c r="F116">
         <v>5958687856</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>2020</v>
       </c>
     </row>
@@ -3631,9 +3981,12 @@
         </is>
       </c>
       <c r="E117">
+        <v>2021</v>
+      </c>
+      <c r="F117">
         <v>5973646404</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>2021</v>
       </c>
     </row>
@@ -3659,9 +4012,12 @@
         </is>
       </c>
       <c r="E118">
+        <v>2022</v>
+      </c>
+      <c r="F118">
         <v>5267747689</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>2022</v>
       </c>
     </row>
@@ -3687,9 +4043,12 @@
         </is>
       </c>
       <c r="E119">
+        <v>2020</v>
+      </c>
+      <c r="F119">
         <v>27279769</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>2020</v>
       </c>
     </row>
@@ -3715,9 +4074,12 @@
         </is>
       </c>
       <c r="E120">
+        <v>2021</v>
+      </c>
+      <c r="F120">
         <v>30806456</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>2021</v>
       </c>
     </row>
@@ -3743,9 +4105,12 @@
         </is>
       </c>
       <c r="E121">
+        <v>2022</v>
+      </c>
+      <c r="F121">
         <v>26350277</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>2022</v>
       </c>
     </row>
@@ -3771,9 +4136,12 @@
         </is>
       </c>
       <c r="E122">
+        <v>2020</v>
+      </c>
+      <c r="F122">
         <v>1162370893</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>2020</v>
       </c>
     </row>
@@ -3799,9 +4167,12 @@
         </is>
       </c>
       <c r="E123">
+        <v>2021</v>
+      </c>
+      <c r="F123">
         <v>1093478327</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>2021</v>
       </c>
     </row>
@@ -3827,9 +4198,12 @@
         </is>
       </c>
       <c r="E124">
+        <v>2022</v>
+      </c>
+      <c r="F124">
         <v>909316281</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>2022</v>
       </c>
     </row>
@@ -3855,9 +4229,12 @@
         </is>
       </c>
       <c r="E125">
+        <v>2020</v>
+      </c>
+      <c r="F125">
         <v>207</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>2020</v>
       </c>
     </row>
@@ -3883,9 +4260,12 @@
         </is>
       </c>
       <c r="E126">
+        <v>2021</v>
+      </c>
+      <c r="F126">
         <v>55567</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>2021</v>
       </c>
     </row>
@@ -3911,9 +4291,12 @@
         </is>
       </c>
       <c r="E127">
+        <v>2022</v>
+      </c>
+      <c r="F127">
         <v>20</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>2022</v>
       </c>
     </row>
@@ -3939,9 +4322,12 @@
         </is>
       </c>
       <c r="E128">
+        <v>2020</v>
+      </c>
+      <c r="F128">
         <v>122000923632</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>2020</v>
       </c>
     </row>
@@ -3967,9 +4353,12 @@
         </is>
       </c>
       <c r="E129">
+        <v>2021</v>
+      </c>
+      <c r="F129">
         <v>150168639560</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>2021</v>
       </c>
     </row>
@@ -3995,9 +4384,12 @@
         </is>
       </c>
       <c r="E130">
+        <v>2022</v>
+      </c>
+      <c r="F130">
         <v>140158756661</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>2022</v>
       </c>
     </row>
@@ -4023,9 +4415,12 @@
         </is>
       </c>
       <c r="E131">
+        <v>2020</v>
+      </c>
+      <c r="F131">
         <v>5056507</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>2020</v>
       </c>
     </row>
@@ -4051,9 +4446,12 @@
         </is>
       </c>
       <c r="E132">
+        <v>2021</v>
+      </c>
+      <c r="F132">
         <v>6844279</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>2021</v>
       </c>
     </row>
@@ -4079,9 +4477,12 @@
         </is>
       </c>
       <c r="E133">
+        <v>2022</v>
+      </c>
+      <c r="F133">
         <v>100027286</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>2022</v>
       </c>
     </row>
@@ -4107,9 +4508,12 @@
         </is>
       </c>
       <c r="E134">
+        <v>2020</v>
+      </c>
+      <c r="F134">
         <v>52257176</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>2020</v>
       </c>
     </row>
@@ -4135,9 +4539,12 @@
         </is>
       </c>
       <c r="E135">
+        <v>2021</v>
+      </c>
+      <c r="F135">
         <v>65054381.00000001</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>2021</v>
       </c>
     </row>
@@ -4163,9 +4570,12 @@
         </is>
       </c>
       <c r="E136">
+        <v>2022</v>
+      </c>
+      <c r="F136">
         <v>72366598</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>2022</v>
       </c>
     </row>
@@ -4191,9 +4601,12 @@
         </is>
       </c>
       <c r="E137">
+        <v>2020</v>
+      </c>
+      <c r="F137">
         <v>11110581</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>2020</v>
       </c>
     </row>
@@ -4219,9 +4632,12 @@
         </is>
       </c>
       <c r="E138">
+        <v>2021</v>
+      </c>
+      <c r="F138">
         <v>14309963</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>2021</v>
       </c>
     </row>
@@ -4247,9 +4663,12 @@
         </is>
       </c>
       <c r="E139">
+        <v>2022</v>
+      </c>
+      <c r="F139">
         <v>16783263</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>2022</v>
       </c>
     </row>
@@ -4275,9 +4694,12 @@
         </is>
       </c>
       <c r="E140">
+        <v>2020</v>
+      </c>
+      <c r="F140">
         <v>7517495</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>2020</v>
       </c>
     </row>
@@ -4303,9 +4725,12 @@
         </is>
       </c>
       <c r="E141">
+        <v>2021</v>
+      </c>
+      <c r="F141">
         <v>3837152</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>2021</v>
       </c>
     </row>
@@ -4331,9 +4756,12 @@
         </is>
       </c>
       <c r="E142">
+        <v>2022</v>
+      </c>
+      <c r="F142">
         <v>2285150</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>2022</v>
       </c>
     </row>
@@ -4359,9 +4787,12 @@
         </is>
       </c>
       <c r="E143">
+        <v>2020</v>
+      </c>
+      <c r="F143">
         <v>21183448</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>2020</v>
       </c>
     </row>
@@ -4387,9 +4818,12 @@
         </is>
       </c>
       <c r="E144">
+        <v>2021</v>
+      </c>
+      <c r="F144">
         <v>32665304</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>2021</v>
       </c>
     </row>
@@ -4415,9 +4849,12 @@
         </is>
       </c>
       <c r="E145">
+        <v>2022</v>
+      </c>
+      <c r="F145">
         <v>41765560</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>2022</v>
       </c>
     </row>
@@ -4443,9 +4880,12 @@
         </is>
       </c>
       <c r="E146">
+        <v>2020</v>
+      </c>
+      <c r="F146">
         <v>71072534519</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>2020</v>
       </c>
     </row>
@@ -4471,9 +4911,12 @@
         </is>
       </c>
       <c r="E147">
+        <v>2021</v>
+      </c>
+      <c r="F147">
         <v>83482755616</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>2021</v>
       </c>
     </row>
@@ -4499,9 +4942,12 @@
         </is>
       </c>
       <c r="E148">
+        <v>2022</v>
+      </c>
+      <c r="F148">
         <v>84557020142</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>2022</v>
       </c>
     </row>
@@ -4527,9 +4973,12 @@
         </is>
       </c>
       <c r="E149">
+        <v>2020</v>
+      </c>
+      <c r="F149">
         <v>47499434</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>2020</v>
       </c>
     </row>
@@ -4555,9 +5004,12 @@
         </is>
       </c>
       <c r="E150">
+        <v>2021</v>
+      </c>
+      <c r="F150">
         <v>54166527</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>2021</v>
       </c>
     </row>
@@ -4583,9 +5035,12 @@
         </is>
       </c>
       <c r="E151">
+        <v>2022</v>
+      </c>
+      <c r="F151">
         <v>31132205</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>2022</v>
       </c>
     </row>
@@ -4611,9 +5066,12 @@
         </is>
       </c>
       <c r="E152">
+        <v>2020</v>
+      </c>
+      <c r="F152">
         <v>5875171</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>2020</v>
       </c>
     </row>
@@ -4639,9 +5097,12 @@
         </is>
       </c>
       <c r="E153">
+        <v>2021</v>
+      </c>
+      <c r="F153">
         <v>9269708</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>2021</v>
       </c>
     </row>
@@ -4667,9 +5128,12 @@
         </is>
       </c>
       <c r="E154">
+        <v>2022</v>
+      </c>
+      <c r="F154">
         <v>10248431</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>2022</v>
       </c>
     </row>
@@ -4695,9 +5159,12 @@
         </is>
       </c>
       <c r="E155">
+        <v>2020</v>
+      </c>
+      <c r="F155">
         <v>164366986</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>2020</v>
       </c>
     </row>
@@ -4723,9 +5190,12 @@
         </is>
       </c>
       <c r="E156">
+        <v>2021</v>
+      </c>
+      <c r="F156">
         <v>175321008</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>2021</v>
       </c>
     </row>
@@ -4751,9 +5221,12 @@
         </is>
       </c>
       <c r="E157">
+        <v>2022</v>
+      </c>
+      <c r="F157">
         <v>225774158</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>2022</v>
       </c>
     </row>
@@ -4779,9 +5252,12 @@
         </is>
       </c>
       <c r="E158">
+        <v>2020</v>
+      </c>
+      <c r="F158">
         <v>251008228</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>2020</v>
       </c>
     </row>
@@ -4807,9 +5283,12 @@
         </is>
       </c>
       <c r="E159">
+        <v>2021</v>
+      </c>
+      <c r="F159">
         <v>241273865</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>2021</v>
       </c>
     </row>
@@ -4835,9 +5314,12 @@
         </is>
       </c>
       <c r="E160">
+        <v>2022</v>
+      </c>
+      <c r="F160">
         <v>243976203</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>2022</v>
       </c>
     </row>
@@ -4863,9 +5345,12 @@
         </is>
       </c>
       <c r="E161">
+        <v>2020</v>
+      </c>
+      <c r="F161">
         <v>2850359</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>2020</v>
       </c>
     </row>
@@ -4891,9 +5376,12 @@
         </is>
       </c>
       <c r="E162">
+        <v>2021</v>
+      </c>
+      <c r="F162">
         <v>384035</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>2021</v>
       </c>
     </row>
@@ -4919,9 +5407,12 @@
         </is>
       </c>
       <c r="E163">
+        <v>2022</v>
+      </c>
+      <c r="F163">
         <v>430722</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>2022</v>
       </c>
     </row>
@@ -4947,9 +5438,12 @@
         </is>
       </c>
       <c r="E164">
+        <v>2020</v>
+      </c>
+      <c r="F164">
         <v>6438222</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>2020</v>
       </c>
     </row>
@@ -4975,9 +5469,12 @@
         </is>
       </c>
       <c r="E165">
+        <v>2021</v>
+      </c>
+      <c r="F165">
         <v>18724065</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>2021</v>
       </c>
     </row>
@@ -5003,9 +5500,12 @@
         </is>
       </c>
       <c r="E166">
+        <v>2022</v>
+      </c>
+      <c r="F166">
         <v>4477680</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>2022</v>
       </c>
     </row>
@@ -5031,9 +5531,12 @@
         </is>
       </c>
       <c r="E167">
+        <v>2020</v>
+      </c>
+      <c r="F167">
         <v>424324890</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>2020</v>
       </c>
     </row>
@@ -5059,9 +5562,12 @@
         </is>
       </c>
       <c r="E168">
+        <v>2021</v>
+      </c>
+      <c r="F168">
         <v>481826718</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>2021</v>
       </c>
     </row>
@@ -5087,9 +5593,12 @@
         </is>
       </c>
       <c r="E169">
+        <v>2022</v>
+      </c>
+      <c r="F169">
         <v>373708037</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>2022</v>
       </c>
     </row>
@@ -5115,9 +5624,12 @@
         </is>
       </c>
       <c r="E170">
+        <v>2020</v>
+      </c>
+      <c r="F170">
         <v>204817518</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>2020</v>
       </c>
     </row>
@@ -5143,9 +5655,12 @@
         </is>
       </c>
       <c r="E171">
+        <v>2021</v>
+      </c>
+      <c r="F171">
         <v>266794525</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>2021</v>
       </c>
     </row>
@@ -5171,9 +5686,12 @@
         </is>
       </c>
       <c r="E172">
+        <v>2022</v>
+      </c>
+      <c r="F172">
         <v>247146201</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>2022</v>
       </c>
     </row>
@@ -5199,9 +5717,12 @@
         </is>
       </c>
       <c r="E173">
+        <v>2020</v>
+      </c>
+      <c r="F173">
         <v>364624158055</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>2020</v>
       </c>
     </row>
@@ -5227,9 +5748,12 @@
         </is>
       </c>
       <c r="E174">
+        <v>2021</v>
+      </c>
+      <c r="F174">
         <v>431570496877</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>2021</v>
       </c>
     </row>
@@ -5255,9 +5779,12 @@
         </is>
       </c>
       <c r="E175">
+        <v>2022</v>
+      </c>
+      <c r="F175">
         <v>466129941841</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>2022</v>
       </c>
     </row>
@@ -5283,9 +5810,12 @@
         </is>
       </c>
       <c r="E176">
+        <v>2020</v>
+      </c>
+      <c r="F176">
         <v>531386184.9999999</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>2020</v>
       </c>
     </row>
@@ -5311,9 +5841,12 @@
         </is>
       </c>
       <c r="E177">
+        <v>2021</v>
+      </c>
+      <c r="F177">
         <v>736107543</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>2021</v>
       </c>
     </row>
@@ -5339,9 +5872,12 @@
         </is>
       </c>
       <c r="E178">
+        <v>2022</v>
+      </c>
+      <c r="F178">
         <v>1182289290</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>2022</v>
       </c>
     </row>
@@ -5367,9 +5903,12 @@
         </is>
       </c>
       <c r="E179">
+        <v>2020</v>
+      </c>
+      <c r="F179">
         <v>1661921</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>2020</v>
       </c>
     </row>
@@ -5395,9 +5934,12 @@
         </is>
       </c>
       <c r="E180">
+        <v>2021</v>
+      </c>
+      <c r="F180">
         <v>519200</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>2021</v>
       </c>
     </row>
@@ -5423,9 +5965,12 @@
         </is>
       </c>
       <c r="E181">
+        <v>2022</v>
+      </c>
+      <c r="F181">
         <v>256345</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>2022</v>
       </c>
     </row>
@@ -5451,9 +5996,12 @@
         </is>
       </c>
       <c r="E182">
+        <v>2020</v>
+      </c>
+      <c r="F182">
         <v>5935751446</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>2020</v>
       </c>
     </row>
@@ -5479,9 +6027,12 @@
         </is>
       </c>
       <c r="E183">
+        <v>2021</v>
+      </c>
+      <c r="F183">
         <v>6970305184</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>2021</v>
       </c>
     </row>
@@ -5507,9 +6058,12 @@
         </is>
       </c>
       <c r="E184">
+        <v>2022</v>
+      </c>
+      <c r="F184">
         <v>6545947766</v>
       </c>
-      <c r="F184">
+      <c r="G184">
         <v>2022</v>
       </c>
     </row>
@@ -5535,9 +6089,12 @@
         </is>
       </c>
       <c r="E185">
+        <v>2020</v>
+      </c>
+      <c r="F185">
         <v>97680</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>2020</v>
       </c>
     </row>
@@ -5563,9 +6120,12 @@
         </is>
       </c>
       <c r="E186">
+        <v>2021</v>
+      </c>
+      <c r="F186">
         <v>48222</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>2021</v>
       </c>
     </row>
@@ -5591,9 +6151,12 @@
         </is>
       </c>
       <c r="E187">
+        <v>2022</v>
+      </c>
+      <c r="F187">
         <v>6457</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>2022</v>
       </c>
     </row>
@@ -5619,9 +6182,12 @@
         </is>
       </c>
       <c r="E188">
+        <v>2020</v>
+      </c>
+      <c r="F188">
         <v>3152228861</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>2020</v>
       </c>
     </row>
@@ -5647,9 +6213,12 @@
         </is>
       </c>
       <c r="E189">
+        <v>2021</v>
+      </c>
+      <c r="F189">
         <v>3563845694</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>2021</v>
       </c>
     </row>
@@ -5675,9 +6244,12 @@
         </is>
       </c>
       <c r="E190">
+        <v>2022</v>
+      </c>
+      <c r="F190">
         <v>3525215598</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>2022</v>
       </c>
     </row>
@@ -5703,9 +6275,12 @@
         </is>
       </c>
       <c r="E191">
+        <v>2020</v>
+      </c>
+      <c r="F191">
         <v>929862463</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>2020</v>
       </c>
     </row>
@@ -5731,9 +6306,12 @@
         </is>
       </c>
       <c r="E192">
+        <v>2021</v>
+      </c>
+      <c r="F192">
         <v>884645932</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>2021</v>
       </c>
     </row>
@@ -5759,9 +6337,12 @@
         </is>
       </c>
       <c r="E193">
+        <v>2022</v>
+      </c>
+      <c r="F193">
         <v>814591729</v>
       </c>
-      <c r="F193">
+      <c r="G193">
         <v>2022</v>
       </c>
     </row>
@@ -5787,9 +6368,12 @@
         </is>
       </c>
       <c r="E194">
+        <v>2020</v>
+      </c>
+      <c r="F194">
         <v>10138416989</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>2020</v>
       </c>
     </row>
@@ -5815,9 +6399,12 @@
         </is>
       </c>
       <c r="E195">
+        <v>2021</v>
+      </c>
+      <c r="F195">
         <v>11502908719</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>2021</v>
       </c>
     </row>
@@ -5843,9 +6430,12 @@
         </is>
       </c>
       <c r="E196">
+        <v>2022</v>
+      </c>
+      <c r="F196">
         <v>10711478888</v>
       </c>
-      <c r="F196">
+      <c r="G196">
         <v>2022</v>
       </c>
     </row>
@@ -5871,9 +6461,12 @@
         </is>
       </c>
       <c r="E197">
+        <v>2020</v>
+      </c>
+      <c r="F197">
         <v>671168962</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>2020</v>
       </c>
     </row>
@@ -5899,9 +6492,12 @@
         </is>
       </c>
       <c r="E198">
+        <v>2021</v>
+      </c>
+      <c r="F198">
         <v>751001400</v>
       </c>
-      <c r="F198">
+      <c r="G198">
         <v>2021</v>
       </c>
     </row>
@@ -5927,9 +6523,12 @@
         </is>
       </c>
       <c r="E199">
+        <v>2022</v>
+      </c>
+      <c r="F199">
         <v>870112471</v>
       </c>
-      <c r="F199">
+      <c r="G199">
         <v>2022</v>
       </c>
     </row>
@@ -5955,9 +6554,12 @@
         </is>
       </c>
       <c r="E200">
+        <v>2020</v>
+      </c>
+      <c r="F200">
         <v>168085829</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>2020</v>
       </c>
     </row>
@@ -5983,9 +6585,12 @@
         </is>
       </c>
       <c r="E201">
+        <v>2021</v>
+      </c>
+      <c r="F201">
         <v>233894736</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>2021</v>
       </c>
     </row>
@@ -6011,9 +6616,12 @@
         </is>
       </c>
       <c r="E202">
+        <v>2022</v>
+      </c>
+      <c r="F202">
         <v>234619201</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>2022</v>
       </c>
     </row>
@@ -6039,9 +6647,12 @@
         </is>
       </c>
       <c r="E203">
+        <v>2020</v>
+      </c>
+      <c r="F203">
         <v>73592844</v>
       </c>
-      <c r="F203">
+      <c r="G203">
         <v>2020</v>
       </c>
     </row>
@@ -6067,9 +6678,12 @@
         </is>
       </c>
       <c r="E204">
+        <v>2021</v>
+      </c>
+      <c r="F204">
         <v>1752393</v>
       </c>
-      <c r="F204">
+      <c r="G204">
         <v>2021</v>
       </c>
     </row>
@@ -6095,9 +6709,12 @@
         </is>
       </c>
       <c r="E205">
+        <v>2022</v>
+      </c>
+      <c r="F205">
         <v>1271155</v>
       </c>
-      <c r="F205">
+      <c r="G205">
         <v>2022</v>
       </c>
     </row>
@@ -6123,9 +6740,12 @@
         </is>
       </c>
       <c r="E206">
+        <v>2020</v>
+      </c>
+      <c r="F206">
         <v>3532307398</v>
       </c>
-      <c r="F206">
+      <c r="G206">
         <v>2020</v>
       </c>
     </row>
@@ -6151,9 +6771,12 @@
         </is>
       </c>
       <c r="E207">
+        <v>2021</v>
+      </c>
+      <c r="F207">
         <v>4053206092</v>
       </c>
-      <c r="F207">
+      <c r="G207">
         <v>2021</v>
       </c>
     </row>
@@ -6179,9 +6802,12 @@
         </is>
       </c>
       <c r="E208">
+        <v>2022</v>
+      </c>
+      <c r="F208">
         <v>4230216523</v>
       </c>
-      <c r="F208">
+      <c r="G208">
         <v>2022</v>
       </c>
     </row>
@@ -6207,9 +6833,12 @@
         </is>
       </c>
       <c r="E209">
+        <v>2020</v>
+      </c>
+      <c r="F209">
         <v>39581459</v>
       </c>
-      <c r="F209">
+      <c r="G209">
         <v>2020</v>
       </c>
     </row>
@@ -6235,9 +6864,12 @@
         </is>
       </c>
       <c r="E210">
+        <v>2021</v>
+      </c>
+      <c r="F210">
         <v>38609287</v>
       </c>
-      <c r="F210">
+      <c r="G210">
         <v>2021</v>
       </c>
     </row>
@@ -6263,9 +6895,12 @@
         </is>
       </c>
       <c r="E211">
+        <v>2022</v>
+      </c>
+      <c r="F211">
         <v>50173143</v>
       </c>
-      <c r="F211">
+      <c r="G211">
         <v>2022</v>
       </c>
     </row>
@@ -6291,9 +6926,12 @@
         </is>
       </c>
       <c r="E212">
+        <v>2020</v>
+      </c>
+      <c r="F212">
         <v>2952300</v>
       </c>
-      <c r="F212">
+      <c r="G212">
         <v>2020</v>
       </c>
     </row>
@@ -6319,9 +6957,12 @@
         </is>
       </c>
       <c r="E213">
+        <v>2021</v>
+      </c>
+      <c r="F213">
         <v>22710719</v>
       </c>
-      <c r="F213">
+      <c r="G213">
         <v>2021</v>
       </c>
     </row>
@@ -6347,9 +6988,12 @@
         </is>
       </c>
       <c r="E214">
+        <v>2022</v>
+      </c>
+      <c r="F214">
         <v>3398784</v>
       </c>
-      <c r="F214">
+      <c r="G214">
         <v>2022</v>
       </c>
     </row>
@@ -6375,9 +7019,12 @@
         </is>
       </c>
       <c r="E215">
+        <v>2020</v>
+      </c>
+      <c r="F215">
         <v>22696363</v>
       </c>
-      <c r="F215">
+      <c r="G215">
         <v>2020</v>
       </c>
     </row>
@@ -6403,9 +7050,12 @@
         </is>
       </c>
       <c r="E216">
+        <v>2021</v>
+      </c>
+      <c r="F216">
         <v>29720960</v>
       </c>
-      <c r="F216">
+      <c r="G216">
         <v>2021</v>
       </c>
     </row>
@@ -6431,9 +7081,12 @@
         </is>
       </c>
       <c r="E217">
+        <v>2022</v>
+      </c>
+      <c r="F217">
         <v>32980259</v>
       </c>
-      <c r="F217">
+      <c r="G217">
         <v>2022</v>
       </c>
     </row>
@@ -6459,9 +7112,12 @@
         </is>
       </c>
       <c r="E218">
+        <v>2020</v>
+      </c>
+      <c r="F218">
         <v>25142162</v>
       </c>
-      <c r="F218">
+      <c r="G218">
         <v>2020</v>
       </c>
     </row>
@@ -6487,9 +7143,12 @@
         </is>
       </c>
       <c r="E219">
+        <v>2021</v>
+      </c>
+      <c r="F219">
         <v>38113812</v>
       </c>
-      <c r="F219">
+      <c r="G219">
         <v>2021</v>
       </c>
     </row>
@@ -6515,9 +7174,12 @@
         </is>
       </c>
       <c r="E220">
+        <v>2022</v>
+      </c>
+      <c r="F220">
         <v>24658763</v>
       </c>
-      <c r="F220">
+      <c r="G220">
         <v>2022</v>
       </c>
     </row>
@@ -6543,9 +7205,12 @@
         </is>
       </c>
       <c r="E221">
+        <v>2020</v>
+      </c>
+      <c r="F221">
         <v>72958530</v>
       </c>
-      <c r="F221">
+      <c r="G221">
         <v>2020</v>
       </c>
     </row>
@@ -6571,9 +7236,12 @@
         </is>
       </c>
       <c r="E222">
+        <v>2021</v>
+      </c>
+      <c r="F222">
         <v>90917354</v>
       </c>
-      <c r="F222">
+      <c r="G222">
         <v>2021</v>
       </c>
     </row>
@@ -6599,9 +7267,12 @@
         </is>
       </c>
       <c r="E223">
+        <v>2022</v>
+      </c>
+      <c r="F223">
         <v>109101060</v>
       </c>
-      <c r="F223">
+      <c r="G223">
         <v>2022</v>
       </c>
     </row>
@@ -6627,9 +7298,12 @@
         </is>
       </c>
       <c r="E224">
+        <v>2020</v>
+      </c>
+      <c r="F224">
         <v>536507</v>
       </c>
-      <c r="F224">
+      <c r="G224">
         <v>2020</v>
       </c>
     </row>
@@ -6655,9 +7329,12 @@
         </is>
       </c>
       <c r="E225">
+        <v>2021</v>
+      </c>
+      <c r="F225">
         <v>183355</v>
       </c>
-      <c r="F225">
+      <c r="G225">
         <v>2021</v>
       </c>
     </row>
@@ -6683,9 +7360,12 @@
         </is>
       </c>
       <c r="E226">
+        <v>2022</v>
+      </c>
+      <c r="F226">
         <v>44871</v>
       </c>
-      <c r="F226">
+      <c r="G226">
         <v>2022</v>
       </c>
     </row>
@@ -6711,9 +7391,12 @@
         </is>
       </c>
       <c r="E227">
+        <v>2020</v>
+      </c>
+      <c r="F227">
         <v>36972475268</v>
       </c>
-      <c r="F227">
+      <c r="G227">
         <v>2020</v>
       </c>
     </row>
@@ -6739,9 +7422,12 @@
         </is>
       </c>
       <c r="E228">
+        <v>2021</v>
+      </c>
+      <c r="F228">
         <v>45752729043</v>
       </c>
-      <c r="F228">
+      <c r="G228">
         <v>2021</v>
       </c>
     </row>
@@ -6767,9 +7453,12 @@
         </is>
       </c>
       <c r="E229">
+        <v>2022</v>
+      </c>
+      <c r="F229">
         <v>42803743017</v>
       </c>
-      <c r="F229">
+      <c r="G229">
         <v>2022</v>
       </c>
     </row>
@@ -6795,9 +7484,12 @@
         </is>
       </c>
       <c r="E230">
+        <v>2020</v>
+      </c>
+      <c r="F230">
         <v>83298726</v>
       </c>
-      <c r="F230">
+      <c r="G230">
         <v>2020</v>
       </c>
     </row>
@@ -6823,9 +7515,12 @@
         </is>
       </c>
       <c r="E231">
+        <v>2021</v>
+      </c>
+      <c r="F231">
         <v>186806346</v>
       </c>
-      <c r="F231">
+      <c r="G231">
         <v>2021</v>
       </c>
     </row>
@@ -6851,9 +7546,12 @@
         </is>
       </c>
       <c r="E232">
+        <v>2022</v>
+      </c>
+      <c r="F232">
         <v>72073613</v>
       </c>
-      <c r="F232">
+      <c r="G232">
         <v>2022</v>
       </c>
     </row>
@@ -6879,9 +7577,12 @@
         </is>
       </c>
       <c r="E233">
+        <v>2020</v>
+      </c>
+      <c r="F233">
         <v>3744307863</v>
       </c>
-      <c r="F233">
+      <c r="G233">
         <v>2020</v>
       </c>
     </row>
@@ -6907,9 +7608,12 @@
         </is>
       </c>
       <c r="E234">
+        <v>2021</v>
+      </c>
+      <c r="F234">
         <v>4931892302</v>
       </c>
-      <c r="F234">
+      <c r="G234">
         <v>2021</v>
       </c>
     </row>
@@ -6935,9 +7639,12 @@
         </is>
       </c>
       <c r="E235">
+        <v>2022</v>
+      </c>
+      <c r="F235">
         <v>4671068958</v>
       </c>
-      <c r="F235">
+      <c r="G235">
         <v>2022</v>
       </c>
     </row>
@@ -6963,9 +7670,12 @@
         </is>
       </c>
       <c r="E236">
+        <v>2020</v>
+      </c>
+      <c r="F236">
         <v>32191808</v>
       </c>
-      <c r="F236">
+      <c r="G236">
         <v>2020</v>
       </c>
     </row>
@@ -6991,9 +7701,12 @@
         </is>
       </c>
       <c r="E237">
+        <v>2021</v>
+      </c>
+      <c r="F237">
         <v>37469236</v>
       </c>
-      <c r="F237">
+      <c r="G237">
         <v>2021</v>
       </c>
     </row>
@@ -7019,9 +7732,12 @@
         </is>
       </c>
       <c r="E238">
+        <v>2022</v>
+      </c>
+      <c r="F238">
         <v>41132147</v>
       </c>
-      <c r="F238">
+      <c r="G238">
         <v>2022</v>
       </c>
     </row>
@@ -7047,9 +7763,12 @@
         </is>
       </c>
       <c r="E239">
+        <v>2020</v>
+      </c>
+      <c r="F239">
         <v>20908004</v>
       </c>
-      <c r="F239">
+      <c r="G239">
         <v>2020</v>
       </c>
     </row>
@@ -7075,9 +7794,12 @@
         </is>
       </c>
       <c r="E240">
+        <v>2021</v>
+      </c>
+      <c r="F240">
         <v>22529425</v>
       </c>
-      <c r="F240">
+      <c r="G240">
         <v>2021</v>
       </c>
     </row>
@@ -7103,9 +7825,12 @@
         </is>
       </c>
       <c r="E241">
+        <v>2022</v>
+      </c>
+      <c r="F241">
         <v>11292985</v>
       </c>
-      <c r="F241">
+      <c r="G241">
         <v>2022</v>
       </c>
     </row>
@@ -7131,9 +7856,12 @@
         </is>
       </c>
       <c r="E242">
+        <v>2020</v>
+      </c>
+      <c r="F242">
         <v>35885955833</v>
       </c>
-      <c r="F242">
+      <c r="G242">
         <v>2020</v>
       </c>
     </row>
@@ -7159,9 +7887,12 @@
         </is>
       </c>
       <c r="E243">
+        <v>2021</v>
+      </c>
+      <c r="F243">
         <v>43946876186</v>
       </c>
-      <c r="F243">
+      <c r="G243">
         <v>2021</v>
       </c>
     </row>
@@ -7187,9 +7918,12 @@
         </is>
       </c>
       <c r="E244">
+        <v>2022</v>
+      </c>
+      <c r="F244">
         <v>46963075792</v>
       </c>
-      <c r="F244">
+      <c r="G244">
         <v>2022</v>
       </c>
     </row>
@@ -7215,9 +7949,12 @@
         </is>
       </c>
       <c r="E245">
+        <v>2020</v>
+      </c>
+      <c r="F245">
         <v>5414170</v>
       </c>
-      <c r="F245">
+      <c r="G245">
         <v>2020</v>
       </c>
     </row>
@@ -7243,9 +7980,12 @@
         </is>
       </c>
       <c r="E246">
+        <v>2021</v>
+      </c>
+      <c r="F246">
         <v>5722050</v>
       </c>
-      <c r="F246">
+      <c r="G246">
         <v>2021</v>
       </c>
     </row>
@@ -7271,9 +8011,12 @@
         </is>
       </c>
       <c r="E247">
+        <v>2022</v>
+      </c>
+      <c r="F247">
         <v>9491966</v>
       </c>
-      <c r="F247">
+      <c r="G247">
         <v>2022</v>
       </c>
     </row>
@@ -7299,9 +8042,12 @@
         </is>
       </c>
       <c r="E248">
+        <v>2020</v>
+      </c>
+      <c r="F248">
         <v>659110873</v>
       </c>
-      <c r="F248">
+      <c r="G248">
         <v>2020</v>
       </c>
     </row>
@@ -7327,9 +8073,12 @@
         </is>
       </c>
       <c r="E249">
+        <v>2021</v>
+      </c>
+      <c r="F249">
         <v>731144299</v>
       </c>
-      <c r="F249">
+      <c r="G249">
         <v>2021</v>
       </c>
     </row>
@@ -7355,9 +8104,12 @@
         </is>
       </c>
       <c r="E250">
+        <v>2022</v>
+      </c>
+      <c r="F250">
         <v>606528206</v>
       </c>
-      <c r="F250">
+      <c r="G250">
         <v>2022</v>
       </c>
     </row>
@@ -7383,9 +8135,12 @@
         </is>
       </c>
       <c r="E251">
+        <v>2020</v>
+      </c>
+      <c r="F251">
         <v>6528810864</v>
       </c>
-      <c r="F251">
+      <c r="G251">
         <v>2020</v>
       </c>
     </row>
@@ -7411,9 +8166,12 @@
         </is>
       </c>
       <c r="E252">
+        <v>2021</v>
+      </c>
+      <c r="F252">
         <v>7760208149</v>
       </c>
-      <c r="F252">
+      <c r="G252">
         <v>2021</v>
       </c>
     </row>
@@ -7439,9 +8197,12 @@
         </is>
       </c>
       <c r="E253">
+        <v>2022</v>
+      </c>
+      <c r="F253">
         <v>6703909099</v>
       </c>
-      <c r="F253">
+      <c r="G253">
         <v>2022</v>
       </c>
     </row>
@@ -7467,9 +8228,12 @@
         </is>
       </c>
       <c r="E254">
+        <v>2020</v>
+      </c>
+      <c r="F254">
         <v>188496784</v>
       </c>
-      <c r="F254">
+      <c r="G254">
         <v>2020</v>
       </c>
     </row>
@@ -7495,9 +8259,12 @@
         </is>
       </c>
       <c r="E255">
+        <v>2021</v>
+      </c>
+      <c r="F255">
         <v>304536842</v>
       </c>
-      <c r="F255">
+      <c r="G255">
         <v>2021</v>
       </c>
     </row>
@@ -7523,9 +8290,12 @@
         </is>
       </c>
       <c r="E256">
+        <v>2022</v>
+      </c>
+      <c r="F256">
         <v>459234547</v>
       </c>
-      <c r="F256">
+      <c r="G256">
         <v>2022</v>
       </c>
     </row>
@@ -7551,9 +8321,12 @@
         </is>
       </c>
       <c r="E257">
+        <v>2020</v>
+      </c>
+      <c r="F257">
         <v>17431712</v>
       </c>
-      <c r="F257">
+      <c r="G257">
         <v>2020</v>
       </c>
     </row>
@@ -7579,9 +8352,12 @@
         </is>
       </c>
       <c r="E258">
+        <v>2021</v>
+      </c>
+      <c r="F258">
         <v>35545702</v>
       </c>
-      <c r="F258">
+      <c r="G258">
         <v>2021</v>
       </c>
     </row>
@@ -7607,9 +8383,12 @@
         </is>
       </c>
       <c r="E259">
+        <v>2022</v>
+      </c>
+      <c r="F259">
         <v>33274776</v>
       </c>
-      <c r="F259">
+      <c r="G259">
         <v>2022</v>
       </c>
     </row>
@@ -7635,9 +8414,12 @@
         </is>
       </c>
       <c r="E260">
+        <v>2020</v>
+      </c>
+      <c r="F260">
         <v>28995630523</v>
       </c>
-      <c r="F260">
+      <c r="G260">
         <v>2020</v>
       </c>
     </row>
@@ -7663,9 +8445,12 @@
         </is>
       </c>
       <c r="E261">
+        <v>2021</v>
+      </c>
+      <c r="F261">
         <v>31319832121</v>
       </c>
-      <c r="F261">
+      <c r="G261">
         <v>2021</v>
       </c>
     </row>
@@ -7691,9 +8476,12 @@
         </is>
       </c>
       <c r="E262">
+        <v>2022</v>
+      </c>
+      <c r="F262">
         <v>31660887042</v>
       </c>
-      <c r="F262">
+      <c r="G262">
         <v>2022</v>
       </c>
     </row>
@@ -7719,9 +8507,12 @@
         </is>
       </c>
       <c r="E263">
+        <v>2020</v>
+      </c>
+      <c r="F263">
         <v>345609765</v>
       </c>
-      <c r="F263">
+      <c r="G263">
         <v>2020</v>
       </c>
     </row>
@@ -7747,9 +8538,12 @@
         </is>
       </c>
       <c r="E264">
+        <v>2021</v>
+      </c>
+      <c r="F264">
         <v>529459210</v>
       </c>
-      <c r="F264">
+      <c r="G264">
         <v>2021</v>
       </c>
     </row>
@@ -7775,9 +8569,12 @@
         </is>
       </c>
       <c r="E265">
+        <v>2022</v>
+      </c>
+      <c r="F265">
         <v>481800562</v>
       </c>
-      <c r="F265">
+      <c r="G265">
         <v>2022</v>
       </c>
     </row>
@@ -7803,9 +8600,12 @@
         </is>
       </c>
       <c r="E266">
+        <v>2020</v>
+      </c>
+      <c r="F266">
         <v>3581214115</v>
       </c>
-      <c r="F266">
+      <c r="G266">
         <v>2020</v>
       </c>
     </row>
@@ -7831,9 +8631,12 @@
         </is>
       </c>
       <c r="E267">
+        <v>2021</v>
+      </c>
+      <c r="F267">
         <v>4061564775</v>
       </c>
-      <c r="F267">
+      <c r="G267">
         <v>2021</v>
       </c>
     </row>
@@ -7859,9 +8662,12 @@
         </is>
       </c>
       <c r="E268">
+        <v>2022</v>
+      </c>
+      <c r="F268">
         <v>4302726443</v>
       </c>
-      <c r="F268">
+      <c r="G268">
         <v>2022</v>
       </c>
     </row>
@@ -7887,9 +8693,12 @@
         </is>
       </c>
       <c r="E269">
+        <v>2020</v>
+      </c>
+      <c r="F269">
         <v>4146731</v>
       </c>
-      <c r="F269">
+      <c r="G269">
         <v>2020</v>
       </c>
     </row>
@@ -7915,9 +8724,12 @@
         </is>
       </c>
       <c r="E270">
+        <v>2021</v>
+      </c>
+      <c r="F270">
         <v>3977446</v>
       </c>
-      <c r="F270">
+      <c r="G270">
         <v>2021</v>
       </c>
     </row>
@@ -7943,9 +8755,12 @@
         </is>
       </c>
       <c r="E271">
+        <v>2022</v>
+      </c>
+      <c r="F271">
         <v>8494484</v>
       </c>
-      <c r="F271">
+      <c r="G271">
         <v>2022</v>
       </c>
     </row>
@@ -7971,9 +8786,12 @@
         </is>
       </c>
       <c r="E272">
+        <v>2020</v>
+      </c>
+      <c r="F272">
         <v>918269161</v>
       </c>
-      <c r="F272">
+      <c r="G272">
         <v>2020</v>
       </c>
     </row>
@@ -7999,9 +8817,12 @@
         </is>
       </c>
       <c r="E273">
+        <v>2021</v>
+      </c>
+      <c r="F273">
         <v>964691251</v>
       </c>
-      <c r="F273">
+      <c r="G273">
         <v>2021</v>
       </c>
     </row>
@@ -8027,9 +8848,12 @@
         </is>
       </c>
       <c r="E274">
+        <v>2022</v>
+      </c>
+      <c r="F274">
         <v>982136301</v>
       </c>
-      <c r="F274">
+      <c r="G274">
         <v>2022</v>
       </c>
     </row>
@@ -8055,9 +8879,12 @@
         </is>
       </c>
       <c r="E275">
+        <v>2020</v>
+      </c>
+      <c r="F275">
         <v>261326693238</v>
       </c>
-      <c r="F275">
+      <c r="G275">
         <v>2020</v>
       </c>
     </row>
@@ -8083,9 +8910,12 @@
         </is>
       </c>
       <c r="E276">
+        <v>2021</v>
+      </c>
+      <c r="F276">
         <v>319347661916</v>
       </c>
-      <c r="F276">
+      <c r="G276">
         <v>2021</v>
       </c>
     </row>
@@ -8111,9 +8941,12 @@
         </is>
       </c>
       <c r="E277">
+        <v>2022</v>
+      </c>
+      <c r="F277">
         <v>343041005955</v>
       </c>
-      <c r="F277">
+      <c r="G277">
         <v>2022</v>
       </c>
     </row>
@@ -8139,9 +8972,12 @@
         </is>
       </c>
       <c r="E278">
+        <v>2020</v>
+      </c>
+      <c r="F278">
         <v>15198458</v>
       </c>
-      <c r="F278">
+      <c r="G278">
         <v>2020</v>
       </c>
     </row>
@@ -8167,9 +9003,12 @@
         </is>
       </c>
       <c r="E279">
+        <v>2021</v>
+      </c>
+      <c r="F279">
         <v>12365081</v>
       </c>
-      <c r="F279">
+      <c r="G279">
         <v>2021</v>
       </c>
     </row>
@@ -8195,9 +9034,12 @@
         </is>
       </c>
       <c r="E280">
+        <v>2022</v>
+      </c>
+      <c r="F280">
         <v>18508873</v>
       </c>
-      <c r="F280">
+      <c r="G280">
         <v>2022</v>
       </c>
     </row>
@@ -8223,9 +9065,12 @@
         </is>
       </c>
       <c r="E281">
+        <v>2020</v>
+      </c>
+      <c r="F281">
         <v>3544087875</v>
       </c>
-      <c r="F281">
+      <c r="G281">
         <v>2020</v>
       </c>
     </row>
@@ -8251,9 +9096,12 @@
         </is>
       </c>
       <c r="E282">
+        <v>2021</v>
+      </c>
+      <c r="F282">
         <v>3996661437</v>
       </c>
-      <c r="F282">
+      <c r="G282">
         <v>2021</v>
       </c>
     </row>
@@ -8279,9 +9127,12 @@
         </is>
       </c>
       <c r="E283">
+        <v>2022</v>
+      </c>
+      <c r="F283">
         <v>4058614168</v>
       </c>
-      <c r="F283">
+      <c r="G283">
         <v>2022</v>
       </c>
     </row>
@@ -8307,9 +9158,12 @@
         </is>
       </c>
       <c r="E284">
+        <v>2020</v>
+      </c>
+      <c r="F284">
         <v>4702441</v>
       </c>
-      <c r="F284">
+      <c r="G284">
         <v>2020</v>
       </c>
     </row>
@@ -8335,9 +9189,12 @@
         </is>
       </c>
       <c r="E285">
+        <v>2021</v>
+      </c>
+      <c r="F285">
         <v>10584494</v>
       </c>
-      <c r="F285">
+      <c r="G285">
         <v>2021</v>
       </c>
     </row>
@@ -8363,9 +9220,12 @@
         </is>
       </c>
       <c r="E286">
+        <v>2022</v>
+      </c>
+      <c r="F286">
         <v>9603207</v>
       </c>
-      <c r="F286">
+      <c r="G286">
         <v>2022</v>
       </c>
     </row>
@@ -8391,9 +9251,12 @@
         </is>
       </c>
       <c r="E287">
+        <v>2020</v>
+      </c>
+      <c r="F287">
         <v>63180323</v>
       </c>
-      <c r="F287">
+      <c r="G287">
         <v>2020</v>
       </c>
     </row>
@@ -8419,9 +9282,12 @@
         </is>
       </c>
       <c r="E288">
+        <v>2021</v>
+      </c>
+      <c r="F288">
         <v>47474965</v>
       </c>
-      <c r="F288">
+      <c r="G288">
         <v>2021</v>
       </c>
     </row>
@@ -8447,9 +9313,12 @@
         </is>
       </c>
       <c r="E289">
+        <v>2022</v>
+      </c>
+      <c r="F289">
         <v>54497509</v>
       </c>
-      <c r="F289">
+      <c r="G289">
         <v>2022</v>
       </c>
     </row>
@@ -8475,9 +9344,12 @@
         </is>
       </c>
       <c r="E290">
+        <v>2020</v>
+      </c>
+      <c r="F290">
         <v>114354768</v>
       </c>
-      <c r="F290">
+      <c r="G290">
         <v>2020</v>
       </c>
     </row>
@@ -8503,9 +9375,12 @@
         </is>
       </c>
       <c r="E291">
+        <v>2021</v>
+      </c>
+      <c r="F291">
         <v>192233269</v>
       </c>
-      <c r="F291">
+      <c r="G291">
         <v>2021</v>
       </c>
     </row>
@@ -8531,9 +9406,12 @@
         </is>
       </c>
       <c r="E292">
+        <v>2022</v>
+      </c>
+      <c r="F292">
         <v>227189013</v>
       </c>
-      <c r="F292">
+      <c r="G292">
         <v>2022</v>
       </c>
     </row>
@@ -8559,9 +9437,12 @@
         </is>
       </c>
       <c r="E293">
+        <v>2020</v>
+      </c>
+      <c r="F293">
         <v>3422666897</v>
       </c>
-      <c r="F293">
+      <c r="G293">
         <v>2020</v>
       </c>
     </row>
@@ -8587,9 +9468,12 @@
         </is>
       </c>
       <c r="E294">
+        <v>2021</v>
+      </c>
+      <c r="F294">
         <v>4206737982</v>
       </c>
-      <c r="F294">
+      <c r="G294">
         <v>2021</v>
       </c>
     </row>
@@ -8615,9 +9499,12 @@
         </is>
       </c>
       <c r="E295">
+        <v>2022</v>
+      </c>
+      <c r="F295">
         <v>4227504913</v>
       </c>
-      <c r="F295">
+      <c r="G295">
         <v>2022</v>
       </c>
     </row>
@@ -8643,9 +9530,12 @@
         </is>
       </c>
       <c r="E296">
+        <v>2020</v>
+      </c>
+      <c r="F296">
         <v>23388466</v>
       </c>
-      <c r="F296">
+      <c r="G296">
         <v>2020</v>
       </c>
     </row>
@@ -8671,9 +9561,12 @@
         </is>
       </c>
       <c r="E297">
+        <v>2021</v>
+      </c>
+      <c r="F297">
         <v>19115187</v>
       </c>
-      <c r="F297">
+      <c r="G297">
         <v>2021</v>
       </c>
     </row>
@@ -8699,9 +9592,12 @@
         </is>
       </c>
       <c r="E298">
+        <v>2022</v>
+      </c>
+      <c r="F298">
         <v>17028362</v>
       </c>
-      <c r="F298">
+      <c r="G298">
         <v>2022</v>
       </c>
     </row>
@@ -8727,9 +9623,12 @@
         </is>
       </c>
       <c r="E299">
+        <v>2020</v>
+      </c>
+      <c r="F299">
         <v>438863989</v>
       </c>
-      <c r="F299">
+      <c r="G299">
         <v>2020</v>
       </c>
     </row>
@@ -8755,9 +9654,12 @@
         </is>
       </c>
       <c r="E300">
+        <v>2021</v>
+      </c>
+      <c r="F300">
         <v>369030076</v>
       </c>
-      <c r="F300">
+      <c r="G300">
         <v>2021</v>
       </c>
     </row>
@@ -8783,9 +9685,12 @@
         </is>
       </c>
       <c r="E301">
+        <v>2022</v>
+      </c>
+      <c r="F301">
         <v>406707869</v>
       </c>
-      <c r="F301">
+      <c r="G301">
         <v>2022</v>
       </c>
     </row>
@@ -8811,9 +9716,12 @@
         </is>
       </c>
       <c r="E302">
+        <v>2020</v>
+      </c>
+      <c r="F302">
         <v>38259593</v>
       </c>
-      <c r="F302">
+      <c r="G302">
         <v>2020</v>
       </c>
     </row>
@@ -8839,9 +9747,12 @@
         </is>
       </c>
       <c r="E303">
+        <v>2021</v>
+      </c>
+      <c r="F303">
         <v>48902108</v>
       </c>
-      <c r="F303">
+      <c r="G303">
         <v>2021</v>
       </c>
     </row>
@@ -8867,9 +9778,12 @@
         </is>
       </c>
       <c r="E304">
+        <v>2022</v>
+      </c>
+      <c r="F304">
         <v>38754613</v>
       </c>
-      <c r="F304">
+      <c r="G304">
         <v>2022</v>
       </c>
     </row>
@@ -8895,9 +9809,12 @@
         </is>
       </c>
       <c r="E305">
+        <v>2020</v>
+      </c>
+      <c r="F305">
         <v>421082979</v>
       </c>
-      <c r="F305">
+      <c r="G305">
         <v>2020</v>
       </c>
     </row>
@@ -8923,9 +9840,12 @@
         </is>
       </c>
       <c r="E306">
+        <v>2021</v>
+      </c>
+      <c r="F306">
         <v>538771694</v>
       </c>
-      <c r="F306">
+      <c r="G306">
         <v>2021</v>
       </c>
     </row>
@@ -8951,9 +9871,12 @@
         </is>
       </c>
       <c r="E307">
+        <v>2022</v>
+      </c>
+      <c r="F307">
         <v>510065110</v>
       </c>
-      <c r="F307">
+      <c r="G307">
         <v>2022</v>
       </c>
     </row>
@@ -8979,9 +9902,12 @@
         </is>
       </c>
       <c r="E308">
+        <v>2020</v>
+      </c>
+      <c r="F308">
         <v>77000958</v>
       </c>
-      <c r="F308">
+      <c r="G308">
         <v>2020</v>
       </c>
     </row>
@@ -9007,9 +9933,12 @@
         </is>
       </c>
       <c r="E309">
+        <v>2021</v>
+      </c>
+      <c r="F309">
         <v>724640</v>
       </c>
-      <c r="F309">
+      <c r="G309">
         <v>2021</v>
       </c>
     </row>
@@ -9035,9 +9964,12 @@
         </is>
       </c>
       <c r="E310">
+        <v>2022</v>
+      </c>
+      <c r="F310">
         <v>550521</v>
       </c>
-      <c r="F310">
+      <c r="G310">
         <v>2022</v>
       </c>
     </row>
@@ -9063,9 +9995,12 @@
         </is>
       </c>
       <c r="E311">
+        <v>2020</v>
+      </c>
+      <c r="F311">
         <v>111964573</v>
       </c>
-      <c r="F311">
+      <c r="G311">
         <v>2020</v>
       </c>
     </row>
@@ -9091,9 +10026,12 @@
         </is>
       </c>
       <c r="E312">
+        <v>2021</v>
+      </c>
+      <c r="F312">
         <v>135788893</v>
       </c>
-      <c r="F312">
+      <c r="G312">
         <v>2021</v>
       </c>
     </row>
@@ -9119,9 +10057,12 @@
         </is>
       </c>
       <c r="E313">
+        <v>2022</v>
+      </c>
+      <c r="F313">
         <v>138197043</v>
       </c>
-      <c r="F313">
+      <c r="G313">
         <v>2022</v>
       </c>
     </row>
@@ -9147,9 +10088,12 @@
         </is>
       </c>
       <c r="E314">
+        <v>2020</v>
+      </c>
+      <c r="F314">
         <v>9592782</v>
       </c>
-      <c r="F314">
+      <c r="G314">
         <v>2020</v>
       </c>
     </row>
@@ -9175,9 +10119,12 @@
         </is>
       </c>
       <c r="E315">
+        <v>2021</v>
+      </c>
+      <c r="F315">
         <v>10594400</v>
       </c>
-      <c r="F315">
+      <c r="G315">
         <v>2021</v>
       </c>
     </row>
@@ -9203,9 +10150,12 @@
         </is>
       </c>
       <c r="E316">
+        <v>2022</v>
+      </c>
+      <c r="F316">
         <v>12899129</v>
       </c>
-      <c r="F316">
+      <c r="G316">
         <v>2022</v>
       </c>
     </row>
@@ -9231,9 +10181,12 @@
         </is>
       </c>
       <c r="E317">
+        <v>2020</v>
+      </c>
+      <c r="F317">
         <v>357926560</v>
       </c>
-      <c r="F317">
+      <c r="G317">
         <v>2020</v>
       </c>
     </row>
@@ -9259,9 +10212,12 @@
         </is>
       </c>
       <c r="E318">
+        <v>2021</v>
+      </c>
+      <c r="F318">
         <v>411398871</v>
       </c>
-      <c r="F318">
+      <c r="G318">
         <v>2021</v>
       </c>
     </row>
@@ -9287,9 +10243,12 @@
         </is>
       </c>
       <c r="E319">
+        <v>2022</v>
+      </c>
+      <c r="F319">
         <v>436579681</v>
       </c>
-      <c r="F319">
+      <c r="G319">
         <v>2022</v>
       </c>
     </row>
@@ -9315,9 +10274,12 @@
         </is>
       </c>
       <c r="E320">
+        <v>2020</v>
+      </c>
+      <c r="F320">
         <v>51857779</v>
       </c>
-      <c r="F320">
+      <c r="G320">
         <v>2020</v>
       </c>
     </row>
@@ -9343,9 +10305,12 @@
         </is>
       </c>
       <c r="E321">
+        <v>2021</v>
+      </c>
+      <c r="F321">
         <v>49518859</v>
       </c>
-      <c r="F321">
+      <c r="G321">
         <v>2021</v>
       </c>
     </row>
@@ -9371,9 +10336,12 @@
         </is>
       </c>
       <c r="E322">
+        <v>2022</v>
+      </c>
+      <c r="F322">
         <v>36200204</v>
       </c>
-      <c r="F322">
+      <c r="G322">
         <v>2022</v>
       </c>
     </row>
@@ -9399,9 +10367,12 @@
         </is>
       </c>
       <c r="E323">
+        <v>2020</v>
+      </c>
+      <c r="F323">
         <v>1978369219</v>
       </c>
-      <c r="F323">
+      <c r="G323">
         <v>2020</v>
       </c>
     </row>
@@ -9427,9 +10398,12 @@
         </is>
       </c>
       <c r="E324">
+        <v>2021</v>
+      </c>
+      <c r="F324">
         <v>1820156357</v>
       </c>
-      <c r="F324">
+      <c r="G324">
         <v>2021</v>
       </c>
     </row>
@@ -9455,9 +10429,12 @@
         </is>
       </c>
       <c r="E325">
+        <v>2022</v>
+      </c>
+      <c r="F325">
         <v>1862801567</v>
       </c>
-      <c r="F325">
+      <c r="G325">
         <v>2022</v>
       </c>
     </row>
@@ -9483,9 +10460,12 @@
         </is>
       </c>
       <c r="E326">
+        <v>2020</v>
+      </c>
+      <c r="F326">
         <v>13129196</v>
       </c>
-      <c r="F326">
+      <c r="G326">
         <v>2020</v>
       </c>
     </row>
@@ -9511,9 +10491,12 @@
         </is>
       </c>
       <c r="E327">
+        <v>2021</v>
+      </c>
+      <c r="F327">
         <v>4887962</v>
       </c>
-      <c r="F327">
+      <c r="G327">
         <v>2021</v>
       </c>
     </row>
@@ -9539,9 +10522,12 @@
         </is>
       </c>
       <c r="E328">
+        <v>2022</v>
+      </c>
+      <c r="F328">
         <v>5245299</v>
       </c>
-      <c r="F328">
+      <c r="G328">
         <v>2022</v>
       </c>
     </row>
@@ -9567,9 +10553,12 @@
         </is>
       </c>
       <c r="E329">
+        <v>2020</v>
+      </c>
+      <c r="F329">
         <v>5537764614</v>
       </c>
-      <c r="F329">
+      <c r="G329">
         <v>2020</v>
       </c>
     </row>
@@ -9595,9 +10584,12 @@
         </is>
       </c>
       <c r="E330">
+        <v>2021</v>
+      </c>
+      <c r="F330">
         <v>6416422592</v>
       </c>
-      <c r="F330">
+      <c r="G330">
         <v>2021</v>
       </c>
     </row>
@@ -9623,9 +10615,12 @@
         </is>
       </c>
       <c r="E331">
+        <v>2022</v>
+      </c>
+      <c r="F331">
         <v>6989673025</v>
       </c>
-      <c r="F331">
+      <c r="G331">
         <v>2022</v>
       </c>
     </row>
@@ -9651,9 +10646,12 @@
         </is>
       </c>
       <c r="E332">
+        <v>2020</v>
+      </c>
+      <c r="F332">
         <v>215134</v>
       </c>
-      <c r="F332">
+      <c r="G332">
         <v>2020</v>
       </c>
     </row>
@@ -9679,9 +10677,12 @@
         </is>
       </c>
       <c r="E333">
+        <v>2021</v>
+      </c>
+      <c r="F333">
         <v>398042</v>
       </c>
-      <c r="F333">
+      <c r="G333">
         <v>2021</v>
       </c>
     </row>
@@ -9707,9 +10708,12 @@
         </is>
       </c>
       <c r="E334">
+        <v>2022</v>
+      </c>
+      <c r="F334">
         <v>571321</v>
       </c>
-      <c r="F334">
+      <c r="G334">
         <v>2022</v>
       </c>
     </row>
@@ -9735,9 +10739,12 @@
         </is>
       </c>
       <c r="E335">
+        <v>2020</v>
+      </c>
+      <c r="F335">
         <v>4862943557</v>
       </c>
-      <c r="F335">
+      <c r="G335">
         <v>2020</v>
       </c>
     </row>
@@ -9763,9 +10770,12 @@
         </is>
       </c>
       <c r="E336">
+        <v>2021</v>
+      </c>
+      <c r="F336">
         <v>4451661247</v>
       </c>
-      <c r="F336">
+      <c r="G336">
         <v>2021</v>
       </c>
     </row>
@@ -9791,9 +10801,12 @@
         </is>
       </c>
       <c r="E337">
+        <v>2022</v>
+      </c>
+      <c r="F337">
         <v>4693590543</v>
       </c>
-      <c r="F337">
+      <c r="G337">
         <v>2022</v>
       </c>
     </row>
@@ -9819,9 +10832,12 @@
         </is>
       </c>
       <c r="E338">
+        <v>2020</v>
+      </c>
+      <c r="F338">
         <v>128074376</v>
       </c>
-      <c r="F338">
+      <c r="G338">
         <v>2020</v>
       </c>
     </row>
@@ -9847,9 +10863,12 @@
         </is>
       </c>
       <c r="E339">
+        <v>2021</v>
+      </c>
+      <c r="F339">
         <v>125841143</v>
       </c>
-      <c r="F339">
+      <c r="G339">
         <v>2021</v>
       </c>
     </row>
@@ -9875,9 +10894,12 @@
         </is>
       </c>
       <c r="E340">
+        <v>2022</v>
+      </c>
+      <c r="F340">
         <v>303290364</v>
       </c>
-      <c r="F340">
+      <c r="G340">
         <v>2022</v>
       </c>
     </row>
@@ -9903,9 +10925,12 @@
         </is>
       </c>
       <c r="E341">
+        <v>2020</v>
+      </c>
+      <c r="F341">
         <v>1216691957</v>
       </c>
-      <c r="F341">
+      <c r="G341">
         <v>2020</v>
       </c>
     </row>
@@ -9931,9 +10956,12 @@
         </is>
       </c>
       <c r="E342">
+        <v>2021</v>
+      </c>
+      <c r="F342">
         <v>1474598892</v>
       </c>
-      <c r="F342">
+      <c r="G342">
         <v>2021</v>
       </c>
     </row>
@@ -9959,9 +10987,12 @@
         </is>
       </c>
       <c r="E343">
+        <v>2022</v>
+      </c>
+      <c r="F343">
         <v>1466475204</v>
       </c>
-      <c r="F343">
+      <c r="G343">
         <v>2022</v>
       </c>
     </row>
@@ -9987,9 +11018,12 @@
         </is>
       </c>
       <c r="E344">
+        <v>2020</v>
+      </c>
+      <c r="F344">
         <v>1228986348</v>
       </c>
-      <c r="F344">
+      <c r="G344">
         <v>2020</v>
       </c>
     </row>
@@ -10015,9 +11049,12 @@
         </is>
       </c>
       <c r="E345">
+        <v>2021</v>
+      </c>
+      <c r="F345">
         <v>1783912888</v>
       </c>
-      <c r="F345">
+      <c r="G345">
         <v>2021</v>
       </c>
     </row>
@@ -10043,9 +11080,12 @@
         </is>
       </c>
       <c r="E346">
+        <v>2022</v>
+      </c>
+      <c r="F346">
         <v>1502593599</v>
       </c>
-      <c r="F346">
+      <c r="G346">
         <v>2022</v>
       </c>
     </row>
@@ -10071,9 +11111,12 @@
         </is>
       </c>
       <c r="E347">
+        <v>2020</v>
+      </c>
+      <c r="F347">
         <v>211411456</v>
       </c>
-      <c r="F347">
+      <c r="G347">
         <v>2020</v>
       </c>
     </row>
@@ -10099,9 +11142,12 @@
         </is>
       </c>
       <c r="E348">
+        <v>2021</v>
+      </c>
+      <c r="F348">
         <v>240816713</v>
       </c>
-      <c r="F348">
+      <c r="G348">
         <v>2021</v>
       </c>
     </row>
@@ -10127,9 +11173,12 @@
         </is>
       </c>
       <c r="E349">
+        <v>2022</v>
+      </c>
+      <c r="F349">
         <v>227679190</v>
       </c>
-      <c r="F349">
+      <c r="G349">
         <v>2022</v>
       </c>
     </row>
@@ -10155,9 +11204,12 @@
         </is>
       </c>
       <c r="E350">
+        <v>2020</v>
+      </c>
+      <c r="F350">
         <v>99109419</v>
       </c>
-      <c r="F350">
+      <c r="G350">
         <v>2020</v>
       </c>
     </row>
@@ -10183,9 +11235,12 @@
         </is>
       </c>
       <c r="E351">
+        <v>2021</v>
+      </c>
+      <c r="F351">
         <v>104924323</v>
       </c>
-      <c r="F351">
+      <c r="G351">
         <v>2021</v>
       </c>
     </row>
@@ -10211,9 +11266,12 @@
         </is>
       </c>
       <c r="E352">
+        <v>2022</v>
+      </c>
+      <c r="F352">
         <v>99176580</v>
       </c>
-      <c r="F352">
+      <c r="G352">
         <v>2022</v>
       </c>
     </row>
@@ -10239,9 +11297,12 @@
         </is>
       </c>
       <c r="E353">
+        <v>2020</v>
+      </c>
+      <c r="F353">
         <v>666499121</v>
       </c>
-      <c r="F353">
+      <c r="G353">
         <v>2020</v>
       </c>
     </row>
@@ -10267,9 +11328,12 @@
         </is>
       </c>
       <c r="E354">
+        <v>2021</v>
+      </c>
+      <c r="F354">
         <v>1478948343</v>
       </c>
-      <c r="F354">
+      <c r="G354">
         <v>2021</v>
       </c>
     </row>
@@ -10295,9 +11359,12 @@
         </is>
       </c>
       <c r="E355">
+        <v>2022</v>
+      </c>
+      <c r="F355">
         <v>1857060418</v>
       </c>
-      <c r="F355">
+      <c r="G355">
         <v>2022</v>
       </c>
     </row>
@@ -10323,9 +11390,12 @@
         </is>
       </c>
       <c r="E356">
+        <v>2020</v>
+      </c>
+      <c r="F356">
         <v>193185927</v>
       </c>
-      <c r="F356">
+      <c r="G356">
         <v>2020</v>
       </c>
     </row>
@@ -10351,9 +11421,12 @@
         </is>
       </c>
       <c r="E357">
+        <v>2021</v>
+      </c>
+      <c r="F357">
         <v>249480751</v>
       </c>
-      <c r="F357">
+      <c r="G357">
         <v>2021</v>
       </c>
     </row>
@@ -10379,9 +11452,12 @@
         </is>
       </c>
       <c r="E358">
+        <v>2022</v>
+      </c>
+      <c r="F358">
         <v>289733303</v>
       </c>
-      <c r="F358">
+      <c r="G358">
         <v>2022</v>
       </c>
     </row>
@@ -10407,9 +11483,12 @@
         </is>
       </c>
       <c r="E359">
+        <v>2020</v>
+      </c>
+      <c r="F359">
         <v>1155508298</v>
       </c>
-      <c r="F359">
+      <c r="G359">
         <v>2020</v>
       </c>
     </row>
@@ -10435,9 +11514,12 @@
         </is>
       </c>
       <c r="E360">
+        <v>2021</v>
+      </c>
+      <c r="F360">
         <v>1426932429</v>
       </c>
-      <c r="F360">
+      <c r="G360">
         <v>2021</v>
       </c>
     </row>
@@ -10463,9 +11545,12 @@
         </is>
       </c>
       <c r="E361">
+        <v>2022</v>
+      </c>
+      <c r="F361">
         <v>843653176</v>
       </c>
-      <c r="F361">
+      <c r="G361">
         <v>2022</v>
       </c>
     </row>
@@ -10491,9 +11576,12 @@
         </is>
       </c>
       <c r="E362">
+        <v>2020</v>
+      </c>
+      <c r="F362">
         <v>3845497744</v>
       </c>
-      <c r="F362">
+      <c r="G362">
         <v>2020</v>
       </c>
     </row>
@@ -10519,9 +11607,12 @@
         </is>
       </c>
       <c r="E363">
+        <v>2021</v>
+      </c>
+      <c r="F363">
         <v>5339414671</v>
       </c>
-      <c r="F363">
+      <c r="G363">
         <v>2021</v>
       </c>
     </row>
@@ -10547,9 +11638,12 @@
         </is>
       </c>
       <c r="E364">
+        <v>2022</v>
+      </c>
+      <c r="F364">
         <v>6911296506</v>
       </c>
-      <c r="F364">
+      <c r="G364">
         <v>2022</v>
       </c>
     </row>
@@ -10575,9 +11669,12 @@
         </is>
       </c>
       <c r="E365">
+        <v>2020</v>
+      </c>
+      <c r="F365">
         <v>1992936763</v>
       </c>
-      <c r="F365">
+      <c r="G365">
         <v>2020</v>
       </c>
     </row>
@@ -10603,9 +11700,12 @@
         </is>
       </c>
       <c r="E366">
+        <v>2021</v>
+      </c>
+      <c r="F366">
         <v>2231341652</v>
       </c>
-      <c r="F366">
+      <c r="G366">
         <v>2021</v>
       </c>
     </row>
@@ -10631,9 +11731,12 @@
         </is>
       </c>
       <c r="E367">
+        <v>2022</v>
+      </c>
+      <c r="F367">
         <v>3025293976</v>
       </c>
-      <c r="F367">
+      <c r="G367">
         <v>2022</v>
       </c>
     </row>
@@ -10654,9 +11757,12 @@
         </is>
       </c>
       <c r="E368">
+        <v>2020</v>
+      </c>
+      <c r="F368">
         <v>16208929</v>
       </c>
-      <c r="F368">
+      <c r="G368">
         <v>2020</v>
       </c>
     </row>
@@ -10677,9 +11783,12 @@
         </is>
       </c>
       <c r="E369">
+        <v>2021</v>
+      </c>
+      <c r="F369">
         <v>23058359</v>
       </c>
-      <c r="F369">
+      <c r="G369">
         <v>2021</v>
       </c>
     </row>
@@ -10700,9 +11809,12 @@
         </is>
       </c>
       <c r="E370">
+        <v>2022</v>
+      </c>
+      <c r="F370">
         <v>20827060</v>
       </c>
-      <c r="F370">
+      <c r="G370">
         <v>2022</v>
       </c>
     </row>
@@ -10728,9 +11840,12 @@
         </is>
       </c>
       <c r="E371">
+        <v>2020</v>
+      </c>
+      <c r="F371">
         <v>1290326823</v>
       </c>
-      <c r="F371">
+      <c r="G371">
         <v>2020</v>
       </c>
     </row>
@@ -10756,9 +11871,12 @@
         </is>
       </c>
       <c r="E372">
+        <v>2021</v>
+      </c>
+      <c r="F372">
         <v>1635900052</v>
       </c>
-      <c r="F372">
+      <c r="G372">
         <v>2021</v>
       </c>
     </row>
@@ -10784,9 +11902,12 @@
         </is>
       </c>
       <c r="E373">
+        <v>2022</v>
+      </c>
+      <c r="F373">
         <v>1471966237</v>
       </c>
-      <c r="F373">
+      <c r="G373">
         <v>2022</v>
       </c>
     </row>
@@ -10812,9 +11933,12 @@
         </is>
       </c>
       <c r="E374">
+        <v>2020</v>
+      </c>
+      <c r="F374">
         <v>223402774</v>
       </c>
-      <c r="F374">
+      <c r="G374">
         <v>2020</v>
       </c>
     </row>
@@ -10840,9 +11964,12 @@
         </is>
       </c>
       <c r="E375">
+        <v>2021</v>
+      </c>
+      <c r="F375">
         <v>287162525</v>
       </c>
-      <c r="F375">
+      <c r="G375">
         <v>2021</v>
       </c>
     </row>
@@ -10868,9 +11995,12 @@
         </is>
       </c>
       <c r="E376">
+        <v>2022</v>
+      </c>
+      <c r="F376">
         <v>264328364</v>
       </c>
-      <c r="F376">
+      <c r="G376">
         <v>2022</v>
       </c>
     </row>
@@ -10896,9 +12026,12 @@
         </is>
       </c>
       <c r="E377">
+        <v>2020</v>
+      </c>
+      <c r="F377">
         <v>291238660</v>
       </c>
-      <c r="F377">
+      <c r="G377">
         <v>2020</v>
       </c>
     </row>
@@ -10924,9 +12057,12 @@
         </is>
       </c>
       <c r="E378">
+        <v>2021</v>
+      </c>
+      <c r="F378">
         <v>264692917</v>
       </c>
-      <c r="F378">
+      <c r="G378">
         <v>2021</v>
       </c>
     </row>
@@ -10952,9 +12088,12 @@
         </is>
       </c>
       <c r="E379">
+        <v>2022</v>
+      </c>
+      <c r="F379">
         <v>327845636</v>
       </c>
-      <c r="F379">
+      <c r="G379">
         <v>2022</v>
       </c>
     </row>
@@ -10980,9 +12119,12 @@
         </is>
       </c>
       <c r="E380">
+        <v>2020</v>
+      </c>
+      <c r="F380">
         <v>370188023</v>
       </c>
-      <c r="F380">
+      <c r="G380">
         <v>2020</v>
       </c>
     </row>
@@ -11008,9 +12150,12 @@
         </is>
       </c>
       <c r="E381">
+        <v>2021</v>
+      </c>
+      <c r="F381">
         <v>486219139</v>
       </c>
-      <c r="F381">
+      <c r="G381">
         <v>2021</v>
       </c>
     </row>
@@ -11036,9 +12181,12 @@
         </is>
       </c>
       <c r="E382">
+        <v>2022</v>
+      </c>
+      <c r="F382">
         <v>555827823</v>
       </c>
-      <c r="F382">
+      <c r="G382">
         <v>2022</v>
       </c>
     </row>
@@ -11064,9 +12212,12 @@
         </is>
       </c>
       <c r="E383">
+        <v>2020</v>
+      </c>
+      <c r="F383">
         <v>101147798</v>
       </c>
-      <c r="F383">
+      <c r="G383">
         <v>2020</v>
       </c>
     </row>
@@ -11092,9 +12243,12 @@
         </is>
       </c>
       <c r="E384">
+        <v>2021</v>
+      </c>
+      <c r="F384">
         <v>83197023</v>
       </c>
-      <c r="F384">
+      <c r="G384">
         <v>2021</v>
       </c>
     </row>
@@ -11120,9 +12274,12 @@
         </is>
       </c>
       <c r="E385">
+        <v>2022</v>
+      </c>
+      <c r="F385">
         <v>82716898</v>
       </c>
-      <c r="F385">
+      <c r="G385">
         <v>2022</v>
       </c>
     </row>
@@ -11148,9 +12305,12 @@
         </is>
       </c>
       <c r="E386">
+        <v>2020</v>
+      </c>
+      <c r="F386">
         <v>27702055</v>
       </c>
-      <c r="F386">
+      <c r="G386">
         <v>2020</v>
       </c>
     </row>
@@ -11176,9 +12336,12 @@
         </is>
       </c>
       <c r="E387">
+        <v>2021</v>
+      </c>
+      <c r="F387">
         <v>26972963</v>
       </c>
-      <c r="F387">
+      <c r="G387">
         <v>2021</v>
       </c>
     </row>
@@ -11204,9 +12367,12 @@
         </is>
       </c>
       <c r="E388">
+        <v>2022</v>
+      </c>
+      <c r="F388">
         <v>24852040</v>
       </c>
-      <c r="F388">
+      <c r="G388">
         <v>2022</v>
       </c>
     </row>
@@ -11232,9 +12398,12 @@
         </is>
       </c>
       <c r="E389">
+        <v>2020</v>
+      </c>
+      <c r="F389">
         <v>1102863557</v>
       </c>
-      <c r="F389">
+      <c r="G389">
         <v>2020</v>
       </c>
     </row>
@@ -11260,9 +12429,12 @@
         </is>
       </c>
       <c r="E390">
+        <v>2021</v>
+      </c>
+      <c r="F390">
         <v>1469719259</v>
       </c>
-      <c r="F390">
+      <c r="G390">
         <v>2021</v>
       </c>
     </row>
@@ -11288,9 +12460,12 @@
         </is>
       </c>
       <c r="E391">
+        <v>2022</v>
+      </c>
+      <c r="F391">
         <v>1221298880</v>
       </c>
-      <c r="F391">
+      <c r="G391">
         <v>2022</v>
       </c>
     </row>
@@ -11316,9 +12491,12 @@
         </is>
       </c>
       <c r="E392">
+        <v>2020</v>
+      </c>
+      <c r="F392">
         <v>20137183769</v>
       </c>
-      <c r="F392">
+      <c r="G392">
         <v>2020</v>
       </c>
     </row>
@@ -11344,9 +12522,12 @@
         </is>
       </c>
       <c r="E393">
+        <v>2021</v>
+      </c>
+      <c r="F393">
         <v>28435713994</v>
       </c>
-      <c r="F393">
+      <c r="G393">
         <v>2021</v>
       </c>
     </row>
@@ -11372,9 +12553,12 @@
         </is>
       </c>
       <c r="E394">
+        <v>2022</v>
+      </c>
+      <c r="F394">
         <v>24902592986</v>
       </c>
-      <c r="F394">
+      <c r="G394">
         <v>2022</v>
       </c>
     </row>
@@ -11400,9 +12584,12 @@
         </is>
       </c>
       <c r="E395">
+        <v>2020</v>
+      </c>
+      <c r="F395">
         <v>367823862</v>
       </c>
-      <c r="F395">
+      <c r="G395">
         <v>2020</v>
       </c>
     </row>
@@ -11428,9 +12615,12 @@
         </is>
       </c>
       <c r="E396">
+        <v>2021</v>
+      </c>
+      <c r="F396">
         <v>355846505</v>
       </c>
-      <c r="F396">
+      <c r="G396">
         <v>2021</v>
       </c>
     </row>
@@ -11456,9 +12646,12 @@
         </is>
       </c>
       <c r="E397">
+        <v>2022</v>
+      </c>
+      <c r="F397">
         <v>373314514</v>
       </c>
-      <c r="F397">
+      <c r="G397">
         <v>2022</v>
       </c>
     </row>
@@ -11484,9 +12677,12 @@
         </is>
       </c>
       <c r="E398">
+        <v>2020</v>
+      </c>
+      <c r="F398">
         <v>309568793</v>
       </c>
-      <c r="F398">
+      <c r="G398">
         <v>2020</v>
       </c>
     </row>
@@ -11512,9 +12708,12 @@
         </is>
       </c>
       <c r="E399">
+        <v>2021</v>
+      </c>
+      <c r="F399">
         <v>243252338</v>
       </c>
-      <c r="F399">
+      <c r="G399">
         <v>2021</v>
       </c>
     </row>
@@ -11540,9 +12739,12 @@
         </is>
       </c>
       <c r="E400">
+        <v>2022</v>
+      </c>
+      <c r="F400">
         <v>247542363</v>
       </c>
-      <c r="F400">
+      <c r="G400">
         <v>2022</v>
       </c>
     </row>
@@ -11568,9 +12770,12 @@
         </is>
       </c>
       <c r="E401">
+        <v>2020</v>
+      </c>
+      <c r="F401">
         <v>4332187517</v>
       </c>
-      <c r="F401">
+      <c r="G401">
         <v>2020</v>
       </c>
     </row>
@@ -11596,9 +12801,12 @@
         </is>
       </c>
       <c r="E402">
+        <v>2021</v>
+      </c>
+      <c r="F402">
         <v>4581568080</v>
       </c>
-      <c r="F402">
+      <c r="G402">
         <v>2021</v>
       </c>
     </row>
@@ -11624,9 +12832,12 @@
         </is>
       </c>
       <c r="E403">
+        <v>2022</v>
+      </c>
+      <c r="F403">
         <v>4635009396</v>
       </c>
-      <c r="F403">
+      <c r="G403">
         <v>2022</v>
       </c>
     </row>
@@ -11652,9 +12863,12 @@
         </is>
       </c>
       <c r="E404">
+        <v>2020</v>
+      </c>
+      <c r="F404">
         <v>170984528</v>
       </c>
-      <c r="F404">
+      <c r="G404">
         <v>2020</v>
       </c>
     </row>
@@ -11680,9 +12894,12 @@
         </is>
       </c>
       <c r="E405">
+        <v>2021</v>
+      </c>
+      <c r="F405">
         <v>176806755</v>
       </c>
-      <c r="F405">
+      <c r="G405">
         <v>2021</v>
       </c>
     </row>
@@ -11708,9 +12925,12 @@
         </is>
       </c>
       <c r="E406">
+        <v>2022</v>
+      </c>
+      <c r="F406">
         <v>169809900</v>
       </c>
-      <c r="F406">
+      <c r="G406">
         <v>2022</v>
       </c>
     </row>
@@ -11736,9 +12956,12 @@
         </is>
       </c>
       <c r="E407">
+        <v>2020</v>
+      </c>
+      <c r="F407">
         <v>895734940</v>
       </c>
-      <c r="F407">
+      <c r="G407">
         <v>2020</v>
       </c>
     </row>
@@ -11764,9 +12987,12 @@
         </is>
       </c>
       <c r="E408">
+        <v>2021</v>
+      </c>
+      <c r="F408">
         <v>894578598</v>
       </c>
-      <c r="F408">
+      <c r="G408">
         <v>2021</v>
       </c>
     </row>
@@ -11792,9 +13018,12 @@
         </is>
       </c>
       <c r="E409">
+        <v>2022</v>
+      </c>
+      <c r="F409">
         <v>1329505181</v>
       </c>
-      <c r="F409">
+      <c r="G409">
         <v>2022</v>
       </c>
     </row>
@@ -11820,9 +13049,12 @@
         </is>
       </c>
       <c r="E410">
+        <v>2020</v>
+      </c>
+      <c r="F410">
         <v>106794534</v>
       </c>
-      <c r="F410">
+      <c r="G410">
         <v>2020</v>
       </c>
     </row>
@@ -11848,9 +13080,12 @@
         </is>
       </c>
       <c r="E411">
+        <v>2021</v>
+      </c>
+      <c r="F411">
         <v>102441520</v>
       </c>
-      <c r="F411">
+      <c r="G411">
         <v>2021</v>
       </c>
     </row>
@@ -11876,9 +13111,12 @@
         </is>
       </c>
       <c r="E412">
+        <v>2022</v>
+      </c>
+      <c r="F412">
         <v>316941960</v>
       </c>
-      <c r="F412">
+      <c r="G412">
         <v>2022</v>
       </c>
     </row>
@@ -11904,9 +13142,12 @@
         </is>
       </c>
       <c r="E413">
+        <v>2020</v>
+      </c>
+      <c r="F413">
         <v>9959119</v>
       </c>
-      <c r="F413">
+      <c r="G413">
         <v>2020</v>
       </c>
     </row>
@@ -11932,9 +13173,12 @@
         </is>
       </c>
       <c r="E414">
+        <v>2021</v>
+      </c>
+      <c r="F414">
         <v>6230832</v>
       </c>
-      <c r="F414">
+      <c r="G414">
         <v>2021</v>
       </c>
     </row>
@@ -11960,9 +13204,12 @@
         </is>
       </c>
       <c r="E415">
+        <v>2022</v>
+      </c>
+      <c r="F415">
         <v>7114938</v>
       </c>
-      <c r="F415">
+      <c r="G415">
         <v>2022</v>
       </c>
     </row>
@@ -11988,9 +13235,12 @@
         </is>
       </c>
       <c r="E416">
+        <v>2020</v>
+      </c>
+      <c r="F416">
         <v>57094615</v>
       </c>
-      <c r="F416">
+      <c r="G416">
         <v>2020</v>
       </c>
     </row>
@@ -12016,9 +13266,12 @@
         </is>
       </c>
       <c r="E417">
+        <v>2021</v>
+      </c>
+      <c r="F417">
         <v>66324288.99999999</v>
       </c>
-      <c r="F417">
+      <c r="G417">
         <v>2021</v>
       </c>
     </row>
@@ -12044,9 +13297,12 @@
         </is>
       </c>
       <c r="E418">
+        <v>2022</v>
+      </c>
+      <c r="F418">
         <v>77768233</v>
       </c>
-      <c r="F418">
+      <c r="G418">
         <v>2022</v>
       </c>
     </row>
@@ -12072,9 +13328,12 @@
         </is>
       </c>
       <c r="E419">
+        <v>2020</v>
+      </c>
+      <c r="F419">
         <v>591911167</v>
       </c>
-      <c r="F419">
+      <c r="G419">
         <v>2020</v>
       </c>
     </row>
@@ -12100,9 +13359,12 @@
         </is>
       </c>
       <c r="E420">
+        <v>2021</v>
+      </c>
+      <c r="F420">
         <v>634455615</v>
       </c>
-      <c r="F420">
+      <c r="G420">
         <v>2021</v>
       </c>
     </row>
@@ -12128,9 +13390,12 @@
         </is>
       </c>
       <c r="E421">
+        <v>2022</v>
+      </c>
+      <c r="F421">
         <v>657462847</v>
       </c>
-      <c r="F421">
+      <c r="G421">
         <v>2022</v>
       </c>
     </row>
@@ -12156,9 +13421,12 @@
         </is>
       </c>
       <c r="E422">
+        <v>2020</v>
+      </c>
+      <c r="F422">
         <v>27208678</v>
       </c>
-      <c r="F422">
+      <c r="G422">
         <v>2020</v>
       </c>
     </row>
@@ -12184,9 +13452,12 @@
         </is>
       </c>
       <c r="E423">
+        <v>2021</v>
+      </c>
+      <c r="F423">
         <v>60848183</v>
       </c>
-      <c r="F423">
+      <c r="G423">
         <v>2021</v>
       </c>
     </row>
@@ -12212,9 +13483,12 @@
         </is>
       </c>
       <c r="E424">
+        <v>2022</v>
+      </c>
+      <c r="F424">
         <v>76120255</v>
       </c>
-      <c r="F424">
+      <c r="G424">
         <v>2022</v>
       </c>
     </row>
@@ -12240,9 +13514,12 @@
         </is>
       </c>
       <c r="E425">
+        <v>2020</v>
+      </c>
+      <c r="F425">
         <v>75931731</v>
       </c>
-      <c r="F425">
+      <c r="G425">
         <v>2020</v>
       </c>
     </row>
@@ -12268,9 +13545,12 @@
         </is>
       </c>
       <c r="E426">
+        <v>2021</v>
+      </c>
+      <c r="F426">
         <v>58702214</v>
       </c>
-      <c r="F426">
+      <c r="G426">
         <v>2021</v>
       </c>
     </row>
@@ -12296,9 +13576,12 @@
         </is>
       </c>
       <c r="E427">
+        <v>2022</v>
+      </c>
+      <c r="F427">
         <v>54482098</v>
       </c>
-      <c r="F427">
+      <c r="G427">
         <v>2022</v>
       </c>
     </row>
@@ -12324,9 +13607,12 @@
         </is>
       </c>
       <c r="E428">
+        <v>2020</v>
+      </c>
+      <c r="F428">
         <v>6831734</v>
       </c>
-      <c r="F428">
+      <c r="G428">
         <v>2020</v>
       </c>
     </row>
@@ -12352,9 +13638,12 @@
         </is>
       </c>
       <c r="E429">
+        <v>2021</v>
+      </c>
+      <c r="F429">
         <v>11456246</v>
       </c>
-      <c r="F429">
+      <c r="G429">
         <v>2021</v>
       </c>
     </row>
@@ -12380,9 +13669,12 @@
         </is>
       </c>
       <c r="E430">
+        <v>2022</v>
+      </c>
+      <c r="F430">
         <v>11765670</v>
       </c>
-      <c r="F430">
+      <c r="G430">
         <v>2022</v>
       </c>
     </row>
@@ -12408,9 +13700,12 @@
         </is>
       </c>
       <c r="E431">
+        <v>2020</v>
+      </c>
+      <c r="F431">
         <v>3707418</v>
       </c>
-      <c r="F431">
+      <c r="G431">
         <v>2020</v>
       </c>
     </row>
@@ -12436,9 +13731,12 @@
         </is>
       </c>
       <c r="E432">
+        <v>2021</v>
+      </c>
+      <c r="F432">
         <v>109698</v>
       </c>
-      <c r="F432">
+      <c r="G432">
         <v>2021</v>
       </c>
     </row>
@@ -12464,9 +13762,12 @@
         </is>
       </c>
       <c r="E433">
+        <v>2022</v>
+      </c>
+      <c r="F433">
         <v>157892</v>
       </c>
-      <c r="F433">
+      <c r="G433">
         <v>2022</v>
       </c>
     </row>
@@ -12492,9 +13793,12 @@
         </is>
       </c>
       <c r="E434">
+        <v>2020</v>
+      </c>
+      <c r="F434">
         <v>171295079</v>
       </c>
-      <c r="F434">
+      <c r="G434">
         <v>2020</v>
       </c>
     </row>
@@ -12520,9 +13824,12 @@
         </is>
       </c>
       <c r="E435">
+        <v>2021</v>
+      </c>
+      <c r="F435">
         <v>216968584</v>
       </c>
-      <c r="F435">
+      <c r="G435">
         <v>2021</v>
       </c>
     </row>
@@ -12548,9 +13855,12 @@
         </is>
       </c>
       <c r="E436">
+        <v>2022</v>
+      </c>
+      <c r="F436">
         <v>150341645</v>
       </c>
-      <c r="F436">
+      <c r="G436">
         <v>2022</v>
       </c>
     </row>
@@ -12576,9 +13886,12 @@
         </is>
       </c>
       <c r="E437">
+        <v>2020</v>
+      </c>
+      <c r="F437">
         <v>765689157</v>
       </c>
-      <c r="F437">
+      <c r="G437">
         <v>2020</v>
       </c>
     </row>
@@ -12604,9 +13917,12 @@
         </is>
       </c>
       <c r="E438">
+        <v>2021</v>
+      </c>
+      <c r="F438">
         <v>1009492773</v>
       </c>
-      <c r="F438">
+      <c r="G438">
         <v>2021</v>
       </c>
     </row>
@@ -12632,9 +13948,12 @@
         </is>
       </c>
       <c r="E439">
+        <v>2022</v>
+      </c>
+      <c r="F439">
         <v>1144021594</v>
       </c>
-      <c r="F439">
+      <c r="G439">
         <v>2022</v>
       </c>
     </row>
@@ -12660,9 +13979,12 @@
         </is>
       </c>
       <c r="E440">
+        <v>2020</v>
+      </c>
+      <c r="F440">
         <v>4884169704</v>
       </c>
-      <c r="F440">
+      <c r="G440">
         <v>2020</v>
       </c>
     </row>
@@ -12688,9 +14010,12 @@
         </is>
       </c>
       <c r="E441">
+        <v>2021</v>
+      </c>
+      <c r="F441">
         <v>5949053040</v>
       </c>
-      <c r="F441">
+      <c r="G441">
         <v>2021</v>
       </c>
     </row>
@@ -12716,9 +14041,12 @@
         </is>
       </c>
       <c r="E442">
+        <v>2022</v>
+      </c>
+      <c r="F442">
         <v>6225674981</v>
       </c>
-      <c r="F442">
+      <c r="G442">
         <v>2022</v>
       </c>
     </row>
@@ -12744,9 +14072,12 @@
         </is>
       </c>
       <c r="E443">
+        <v>2020</v>
+      </c>
+      <c r="F443">
         <v>2955293329</v>
       </c>
-      <c r="F443">
+      <c r="G443">
         <v>2020</v>
       </c>
     </row>
@@ -12772,9 +14103,12 @@
         </is>
       </c>
       <c r="E444">
+        <v>2021</v>
+      </c>
+      <c r="F444">
         <v>3650836325</v>
       </c>
-      <c r="F444">
+      <c r="G444">
         <v>2021</v>
       </c>
     </row>
@@ -12800,9 +14134,12 @@
         </is>
       </c>
       <c r="E445">
+        <v>2022</v>
+      </c>
+      <c r="F445">
         <v>3968332524</v>
       </c>
-      <c r="F445">
+      <c r="G445">
         <v>2022</v>
       </c>
     </row>
@@ -12828,9 +14165,12 @@
         </is>
       </c>
       <c r="E446">
+        <v>2020</v>
+      </c>
+      <c r="F446">
         <v>1213936449</v>
       </c>
-      <c r="F446">
+      <c r="G446">
         <v>2020</v>
       </c>
     </row>
@@ -12856,9 +14196,12 @@
         </is>
       </c>
       <c r="E447">
+        <v>2021</v>
+      </c>
+      <c r="F447">
         <v>1642390531</v>
       </c>
-      <c r="F447">
+      <c r="G447">
         <v>2021</v>
       </c>
     </row>
@@ -12884,9 +14227,12 @@
         </is>
       </c>
       <c r="E448">
+        <v>2022</v>
+      </c>
+      <c r="F448">
         <v>9893382847</v>
       </c>
-      <c r="F448">
+      <c r="G448">
         <v>2022</v>
       </c>
     </row>
@@ -12912,9 +14258,12 @@
         </is>
       </c>
       <c r="E449">
+        <v>2020</v>
+      </c>
+      <c r="F449">
         <v>167827092</v>
       </c>
-      <c r="F449">
+      <c r="G449">
         <v>2020</v>
       </c>
     </row>
@@ -12940,9 +14289,12 @@
         </is>
       </c>
       <c r="E450">
+        <v>2021</v>
+      </c>
+      <c r="F450">
         <v>225808741</v>
       </c>
-      <c r="F450">
+      <c r="G450">
         <v>2021</v>
       </c>
     </row>
@@ -12968,9 +14320,12 @@
         </is>
       </c>
       <c r="E451">
+        <v>2022</v>
+      </c>
+      <c r="F451">
         <v>243421463</v>
       </c>
-      <c r="F451">
+      <c r="G451">
         <v>2022</v>
       </c>
     </row>
@@ -12996,9 +14351,12 @@
         </is>
       </c>
       <c r="E452">
+        <v>2020</v>
+      </c>
+      <c r="F452">
         <v>10432248380</v>
       </c>
-      <c r="F452">
+      <c r="G452">
         <v>2020</v>
       </c>
     </row>
@@ -13024,9 +14382,12 @@
         </is>
       </c>
       <c r="E453">
+        <v>2021</v>
+      </c>
+      <c r="F453">
         <v>13566171866</v>
       </c>
-      <c r="F453">
+      <c r="G453">
         <v>2021</v>
       </c>
     </row>
@@ -13052,9 +14413,12 @@
         </is>
       </c>
       <c r="E454">
+        <v>2022</v>
+      </c>
+      <c r="F454">
         <v>13815079898</v>
       </c>
-      <c r="F454">
+      <c r="G454">
         <v>2022</v>
       </c>
     </row>
@@ -13080,9 +14444,12 @@
         </is>
       </c>
       <c r="E455">
+        <v>2020</v>
+      </c>
+      <c r="F455">
         <v>20077274</v>
       </c>
-      <c r="F455">
+      <c r="G455">
         <v>2020</v>
       </c>
     </row>
@@ -13108,9 +14475,12 @@
         </is>
       </c>
       <c r="E456">
+        <v>2021</v>
+      </c>
+      <c r="F456">
         <v>22388439</v>
       </c>
-      <c r="F456">
+      <c r="G456">
         <v>2021</v>
       </c>
     </row>
@@ -13136,9 +14506,12 @@
         </is>
       </c>
       <c r="E457">
+        <v>2022</v>
+      </c>
+      <c r="F457">
         <v>12022837</v>
       </c>
-      <c r="F457">
+      <c r="G457">
         <v>2022</v>
       </c>
     </row>
@@ -13164,9 +14537,12 @@
         </is>
       </c>
       <c r="E458">
+        <v>2020</v>
+      </c>
+      <c r="F458">
         <v>83480298</v>
       </c>
-      <c r="F458">
+      <c r="G458">
         <v>2020</v>
       </c>
     </row>
@@ -13192,9 +14568,12 @@
         </is>
       </c>
       <c r="E459">
+        <v>2021</v>
+      </c>
+      <c r="F459">
         <v>82833301</v>
       </c>
-      <c r="F459">
+      <c r="G459">
         <v>2021</v>
       </c>
     </row>
@@ -13220,9 +14599,12 @@
         </is>
       </c>
       <c r="E460">
+        <v>2022</v>
+      </c>
+      <c r="F460">
         <v>88065909</v>
       </c>
-      <c r="F460">
+      <c r="G460">
         <v>2022</v>
       </c>
     </row>
@@ -13248,9 +14630,12 @@
         </is>
       </c>
       <c r="E461">
+        <v>2020</v>
+      </c>
+      <c r="F461">
         <v>15580140127</v>
       </c>
-      <c r="F461">
+      <c r="G461">
         <v>2020</v>
       </c>
     </row>
@@ -13276,9 +14661,12 @@
         </is>
       </c>
       <c r="E462">
+        <v>2021</v>
+      </c>
+      <c r="F462">
         <v>16794035392</v>
       </c>
-      <c r="F462">
+      <c r="G462">
         <v>2021</v>
       </c>
     </row>
@@ -13304,9 +14692,12 @@
         </is>
       </c>
       <c r="E463">
+        <v>2022</v>
+      </c>
+      <c r="F463">
         <v>15421959518</v>
       </c>
-      <c r="F463">
+      <c r="G463">
         <v>2022</v>
       </c>
     </row>
@@ -13332,9 +14723,12 @@
         </is>
       </c>
       <c r="E464">
+        <v>2020</v>
+      </c>
+      <c r="F464">
         <v>24824141</v>
       </c>
-      <c r="F464">
+      <c r="G464">
         <v>2020</v>
       </c>
     </row>
@@ -13360,9 +14754,12 @@
         </is>
       </c>
       <c r="E465">
+        <v>2021</v>
+      </c>
+      <c r="F465">
         <v>129477127</v>
       </c>
-      <c r="F465">
+      <c r="G465">
         <v>2021</v>
       </c>
     </row>
@@ -13388,9 +14785,12 @@
         </is>
       </c>
       <c r="E466">
+        <v>2022</v>
+      </c>
+      <c r="F466">
         <v>46305333</v>
       </c>
-      <c r="F466">
+      <c r="G466">
         <v>2022</v>
       </c>
     </row>
@@ -13416,9 +14816,12 @@
         </is>
       </c>
       <c r="E467">
+        <v>2020</v>
+      </c>
+      <c r="F467">
         <v>172153213</v>
       </c>
-      <c r="F467">
+      <c r="G467">
         <v>2020</v>
       </c>
     </row>
@@ -13444,9 +14847,12 @@
         </is>
       </c>
       <c r="E468">
+        <v>2021</v>
+      </c>
+      <c r="F468">
         <v>207745732</v>
       </c>
-      <c r="F468">
+      <c r="G468">
         <v>2021</v>
       </c>
     </row>
@@ -13472,9 +14878,12 @@
         </is>
       </c>
       <c r="E469">
+        <v>2022</v>
+      </c>
+      <c r="F469">
         <v>229562869</v>
       </c>
-      <c r="F469">
+      <c r="G469">
         <v>2022</v>
       </c>
     </row>
@@ -13500,9 +14909,12 @@
         </is>
       </c>
       <c r="E470">
+        <v>2020</v>
+      </c>
+      <c r="F470">
         <v>2388698709</v>
       </c>
-      <c r="F470">
+      <c r="G470">
         <v>2020</v>
       </c>
     </row>
@@ -13528,9 +14940,12 @@
         </is>
       </c>
       <c r="E471">
+        <v>2021</v>
+      </c>
+      <c r="F471">
         <v>2375682427</v>
       </c>
-      <c r="F471">
+      <c r="G471">
         <v>2021</v>
       </c>
     </row>
@@ -13556,9 +14971,12 @@
         </is>
       </c>
       <c r="E472">
+        <v>2022</v>
+      </c>
+      <c r="F472">
         <v>2386864175</v>
       </c>
-      <c r="F472">
+      <c r="G472">
         <v>2022</v>
       </c>
     </row>
@@ -13584,9 +15002,12 @@
         </is>
       </c>
       <c r="E473">
+        <v>2020</v>
+      </c>
+      <c r="F473">
         <v>95879574685</v>
       </c>
-      <c r="F473">
+      <c r="G473">
         <v>2020</v>
       </c>
     </row>
@@ -13612,9 +15033,12 @@
         </is>
       </c>
       <c r="E474">
+        <v>2021</v>
+      </c>
+      <c r="F474">
         <v>121532635234</v>
       </c>
-      <c r="F474">
+      <c r="G474">
         <v>2021</v>
       </c>
     </row>
@@ -13640,9 +15064,12 @@
         </is>
       </c>
       <c r="E475">
+        <v>2022</v>
+      </c>
+      <c r="F475">
         <v>116556572703</v>
       </c>
-      <c r="F475">
+      <c r="G475">
         <v>2022</v>
       </c>
     </row>
@@ -13668,9 +15095,12 @@
         </is>
       </c>
       <c r="E476">
+        <v>2020</v>
+      </c>
+      <c r="F476">
         <v>18485053869</v>
       </c>
-      <c r="F476">
+      <c r="G476">
         <v>2020</v>
       </c>
     </row>
@@ -13696,9 +15126,12 @@
         </is>
       </c>
       <c r="E477">
+        <v>2021</v>
+      </c>
+      <c r="F477">
         <v>23675447557</v>
       </c>
-      <c r="F477">
+      <c r="G477">
         <v>2021</v>
       </c>
     </row>
@@ -13724,9 +15157,12 @@
         </is>
       </c>
       <c r="E478">
+        <v>2022</v>
+      </c>
+      <c r="F478">
         <v>25757382060</v>
       </c>
-      <c r="F478">
+      <c r="G478">
         <v>2022</v>
       </c>
     </row>
@@ -13752,9 +15188,12 @@
         </is>
       </c>
       <c r="E479">
+        <v>2020</v>
+      </c>
+      <c r="F479">
         <v>1589086123</v>
       </c>
-      <c r="F479">
+      <c r="G479">
         <v>2020</v>
       </c>
     </row>
@@ -13780,9 +15219,12 @@
         </is>
       </c>
       <c r="E480">
+        <v>2021</v>
+      </c>
+      <c r="F480">
         <v>1989164847</v>
       </c>
-      <c r="F480">
+      <c r="G480">
         <v>2021</v>
       </c>
     </row>
@@ -13808,9 +15250,12 @@
         </is>
       </c>
       <c r="E481">
+        <v>2022</v>
+      </c>
+      <c r="F481">
         <v>2192405878</v>
       </c>
-      <c r="F481">
+      <c r="G481">
         <v>2022</v>
       </c>
     </row>
@@ -13836,9 +15281,12 @@
         </is>
       </c>
       <c r="E482">
+        <v>2020</v>
+      </c>
+      <c r="F482">
         <v>3087676</v>
       </c>
-      <c r="F482">
+      <c r="G482">
         <v>2020</v>
       </c>
     </row>
@@ -13864,9 +15312,12 @@
         </is>
       </c>
       <c r="E483">
+        <v>2021</v>
+      </c>
+      <c r="F483">
         <v>3126282</v>
       </c>
-      <c r="F483">
+      <c r="G483">
         <v>2021</v>
       </c>
     </row>
@@ -13892,9 +15343,12 @@
         </is>
       </c>
       <c r="E484">
+        <v>2022</v>
+      </c>
+      <c r="F484">
         <v>5001121</v>
       </c>
-      <c r="F484">
+      <c r="G484">
         <v>2022</v>
       </c>
     </row>
@@ -13920,9 +15374,12 @@
         </is>
       </c>
       <c r="E485">
+        <v>2020</v>
+      </c>
+      <c r="F485">
         <v>6562106682</v>
       </c>
-      <c r="F485">
+      <c r="G485">
         <v>2020</v>
       </c>
     </row>
@@ -13948,9 +15405,12 @@
         </is>
       </c>
       <c r="E486">
+        <v>2021</v>
+      </c>
+      <c r="F486">
         <v>9726839785</v>
       </c>
-      <c r="F486">
+      <c r="G486">
         <v>2021</v>
       </c>
     </row>
@@ -13976,9 +15436,12 @@
         </is>
       </c>
       <c r="E487">
+        <v>2022</v>
+      </c>
+      <c r="F487">
         <v>6199381797</v>
       </c>
-      <c r="F487">
+      <c r="G487">
         <v>2022</v>
       </c>
     </row>
@@ -14004,9 +15467,12 @@
         </is>
       </c>
       <c r="E488">
+        <v>2020</v>
+      </c>
+      <c r="F488">
         <v>2376305893</v>
       </c>
-      <c r="F488">
+      <c r="G488">
         <v>2020</v>
       </c>
     </row>
@@ -14032,9 +15498,12 @@
         </is>
       </c>
       <c r="E489">
+        <v>2021</v>
+      </c>
+      <c r="F489">
         <v>3390756382</v>
       </c>
-      <c r="F489">
+      <c r="G489">
         <v>2021</v>
       </c>
     </row>
@@ -14060,9 +15529,12 @@
         </is>
       </c>
       <c r="E490">
+        <v>2022</v>
+      </c>
+      <c r="F490">
         <v>3378658252</v>
       </c>
-      <c r="F490">
+      <c r="G490">
         <v>2022</v>
       </c>
     </row>
@@ -14088,9 +15560,12 @@
         </is>
       </c>
       <c r="E491">
+        <v>2020</v>
+      </c>
+      <c r="F491">
         <v>601643802</v>
       </c>
-      <c r="F491">
+      <c r="G491">
         <v>2020</v>
       </c>
     </row>
@@ -14116,9 +15591,12 @@
         </is>
       </c>
       <c r="E492">
+        <v>2021</v>
+      </c>
+      <c r="F492">
         <v>752901514</v>
       </c>
-      <c r="F492">
+      <c r="G492">
         <v>2021</v>
       </c>
     </row>
@@ -14144,9 +15622,12 @@
         </is>
       </c>
       <c r="E493">
+        <v>2022</v>
+      </c>
+      <c r="F493">
         <v>873685882</v>
       </c>
-      <c r="F493">
+      <c r="G493">
         <v>2022</v>
       </c>
     </row>
@@ -14172,9 +15653,12 @@
         </is>
       </c>
       <c r="E494">
+        <v>2020</v>
+      </c>
+      <c r="F494">
         <v>19261818</v>
       </c>
-      <c r="F494">
+      <c r="G494">
         <v>2020</v>
       </c>
     </row>
@@ -14200,9 +15684,12 @@
         </is>
       </c>
       <c r="E495">
+        <v>2021</v>
+      </c>
+      <c r="F495">
         <v>24547030</v>
       </c>
-      <c r="F495">
+      <c r="G495">
         <v>2021</v>
       </c>
     </row>
@@ -14228,9 +15715,12 @@
         </is>
       </c>
       <c r="E496">
+        <v>2022</v>
+      </c>
+      <c r="F496">
         <v>40008527</v>
       </c>
-      <c r="F496">
+      <c r="G496">
         <v>2022</v>
       </c>
     </row>
@@ -14256,9 +15746,12 @@
         </is>
       </c>
       <c r="E497">
+        <v>2020</v>
+      </c>
+      <c r="F497">
         <v>4385768</v>
       </c>
-      <c r="F497">
+      <c r="G497">
         <v>2020</v>
       </c>
     </row>
@@ -14284,9 +15777,12 @@
         </is>
       </c>
       <c r="E498">
+        <v>2021</v>
+      </c>
+      <c r="F498">
         <v>4545773</v>
       </c>
-      <c r="F498">
+      <c r="G498">
         <v>2021</v>
       </c>
     </row>
@@ -14312,9 +15808,12 @@
         </is>
       </c>
       <c r="E499">
+        <v>2022</v>
+      </c>
+      <c r="F499">
         <v>4859048</v>
       </c>
-      <c r="F499">
+      <c r="G499">
         <v>2022</v>
       </c>
     </row>
@@ -14340,9 +15839,12 @@
         </is>
       </c>
       <c r="E500">
+        <v>2020</v>
+      </c>
+      <c r="F500">
         <v>536989268</v>
       </c>
-      <c r="F500">
+      <c r="G500">
         <v>2020</v>
       </c>
     </row>
@@ -14368,9 +15870,12 @@
         </is>
       </c>
       <c r="E501">
+        <v>2021</v>
+      </c>
+      <c r="F501">
         <v>464641386</v>
       </c>
-      <c r="F501">
+      <c r="G501">
         <v>2021</v>
       </c>
     </row>
@@ -14396,9 +15901,12 @@
         </is>
       </c>
       <c r="E502">
+        <v>2022</v>
+      </c>
+      <c r="F502">
         <v>325855018</v>
       </c>
-      <c r="F502">
+      <c r="G502">
         <v>2022</v>
       </c>
     </row>
@@ -14424,9 +15932,12 @@
         </is>
       </c>
       <c r="E503">
+        <v>2020</v>
+      </c>
+      <c r="F503">
         <v>975018993</v>
       </c>
-      <c r="F503">
+      <c r="G503">
         <v>2020</v>
       </c>
     </row>
@@ -14452,9 +15963,12 @@
         </is>
       </c>
       <c r="E504">
+        <v>2021</v>
+      </c>
+      <c r="F504">
         <v>1198583687</v>
       </c>
-      <c r="F504">
+      <c r="G504">
         <v>2021</v>
       </c>
     </row>
@@ -14480,9 +15994,12 @@
         </is>
       </c>
       <c r="E505">
+        <v>2022</v>
+      </c>
+      <c r="F505">
         <v>1276592323</v>
       </c>
-      <c r="F505">
+      <c r="G505">
         <v>2022</v>
       </c>
     </row>
@@ -14508,9 +16025,12 @@
         </is>
       </c>
       <c r="E506">
+        <v>2020</v>
+      </c>
+      <c r="F506">
         <v>240067656</v>
       </c>
-      <c r="F506">
+      <c r="G506">
         <v>2020</v>
       </c>
     </row>
@@ -14536,9 +16056,12 @@
         </is>
       </c>
       <c r="E507">
+        <v>2021</v>
+      </c>
+      <c r="F507">
         <v>444129211</v>
       </c>
-      <c r="F507">
+      <c r="G507">
         <v>2021</v>
       </c>
     </row>
@@ -14564,9 +16087,12 @@
         </is>
       </c>
       <c r="E508">
+        <v>2022</v>
+      </c>
+      <c r="F508">
         <v>461766319</v>
       </c>
-      <c r="F508">
+      <c r="G508">
         <v>2022</v>
       </c>
     </row>
@@ -14592,9 +16118,12 @@
         </is>
       </c>
       <c r="E509">
+        <v>2020</v>
+      </c>
+      <c r="F509">
         <v>4218320666</v>
       </c>
-      <c r="F509">
+      <c r="G509">
         <v>2020</v>
       </c>
     </row>
@@ -14620,9 +16149,12 @@
         </is>
       </c>
       <c r="E510">
+        <v>2021</v>
+      </c>
+      <c r="F510">
         <v>5391280699</v>
       </c>
-      <c r="F510">
+      <c r="G510">
         <v>2021</v>
       </c>
     </row>
@@ -14648,9 +16180,12 @@
         </is>
       </c>
       <c r="E511">
+        <v>2022</v>
+      </c>
+      <c r="F511">
         <v>5679938239</v>
       </c>
-      <c r="F511">
+      <c r="G511">
         <v>2022</v>
       </c>
     </row>
@@ -14676,9 +16211,12 @@
         </is>
       </c>
       <c r="E512">
+        <v>2020</v>
+      </c>
+      <c r="F512">
         <v>666331801</v>
       </c>
-      <c r="F512">
+      <c r="G512">
         <v>2020</v>
       </c>
     </row>
@@ -14704,9 +16242,12 @@
         </is>
       </c>
       <c r="E513">
+        <v>2021</v>
+      </c>
+      <c r="F513">
         <v>733451471</v>
       </c>
-      <c r="F513">
+      <c r="G513">
         <v>2021</v>
       </c>
     </row>
@@ -14732,9 +16273,12 @@
         </is>
       </c>
       <c r="E514">
+        <v>2022</v>
+      </c>
+      <c r="F514">
         <v>698427870</v>
       </c>
-      <c r="F514">
+      <c r="G514">
         <v>2022</v>
       </c>
     </row>
@@ -14760,9 +16304,12 @@
         </is>
       </c>
       <c r="E515">
+        <v>2020</v>
+      </c>
+      <c r="F515">
         <v>8062630435</v>
       </c>
-      <c r="F515">
+      <c r="G515">
         <v>2020</v>
       </c>
     </row>
@@ -14788,9 +16335,12 @@
         </is>
       </c>
       <c r="E516">
+        <v>2021</v>
+      </c>
+      <c r="F516">
         <v>8613612578</v>
       </c>
-      <c r="F516">
+      <c r="G516">
         <v>2021</v>
       </c>
     </row>
@@ -14816,9 +16366,12 @@
         </is>
       </c>
       <c r="E517">
+        <v>2022</v>
+      </c>
+      <c r="F517">
         <v>9319408206</v>
       </c>
-      <c r="F517">
+      <c r="G517">
         <v>2022</v>
       </c>
     </row>
@@ -14844,9 +16397,12 @@
         </is>
       </c>
       <c r="E518">
+        <v>2020</v>
+      </c>
+      <c r="F518">
         <v>124496424</v>
       </c>
-      <c r="F518">
+      <c r="G518">
         <v>2020</v>
       </c>
     </row>
@@ -14872,9 +16428,12 @@
         </is>
       </c>
       <c r="E519">
+        <v>2021</v>
+      </c>
+      <c r="F519">
         <v>149506680</v>
       </c>
-      <c r="F519">
+      <c r="G519">
         <v>2021</v>
       </c>
     </row>
@@ -14900,9 +16459,12 @@
         </is>
       </c>
       <c r="E520">
+        <v>2022</v>
+      </c>
+      <c r="F520">
         <v>158056125</v>
       </c>
-      <c r="F520">
+      <c r="G520">
         <v>2022</v>
       </c>
     </row>
@@ -14928,9 +16490,12 @@
         </is>
       </c>
       <c r="E521">
+        <v>2020</v>
+      </c>
+      <c r="F521">
         <v>131256877</v>
       </c>
-      <c r="F521">
+      <c r="G521">
         <v>2020</v>
       </c>
     </row>
@@ -14956,9 +16521,12 @@
         </is>
       </c>
       <c r="E522">
+        <v>2021</v>
+      </c>
+      <c r="F522">
         <v>160378850</v>
       </c>
-      <c r="F522">
+      <c r="G522">
         <v>2021</v>
       </c>
     </row>
@@ -14984,9 +16552,12 @@
         </is>
       </c>
       <c r="E523">
+        <v>2022</v>
+      </c>
+      <c r="F523">
         <v>113543344</v>
       </c>
-      <c r="F523">
+      <c r="G523">
         <v>2022</v>
       </c>
     </row>
@@ -15012,9 +16583,12 @@
         </is>
       </c>
       <c r="E524">
+        <v>2020</v>
+      </c>
+      <c r="F524">
         <v>1207044671</v>
       </c>
-      <c r="F524">
+      <c r="G524">
         <v>2020</v>
       </c>
     </row>
@@ -15040,9 +16614,12 @@
         </is>
       </c>
       <c r="E525">
+        <v>2021</v>
+      </c>
+      <c r="F525">
         <v>1378208274</v>
       </c>
-      <c r="F525">
+      <c r="G525">
         <v>2021</v>
       </c>
     </row>
@@ -15068,9 +16645,12 @@
         </is>
       </c>
       <c r="E526">
+        <v>2022</v>
+      </c>
+      <c r="F526">
         <v>961766567</v>
       </c>
-      <c r="F526">
+      <c r="G526">
         <v>2022</v>
       </c>
     </row>
@@ -15096,9 +16676,12 @@
         </is>
       </c>
       <c r="E527">
+        <v>2020</v>
+      </c>
+      <c r="F527">
         <v>1933122836</v>
       </c>
-      <c r="F527">
+      <c r="G527">
         <v>2020</v>
       </c>
     </row>
@@ -15124,9 +16707,12 @@
         </is>
       </c>
       <c r="E528">
+        <v>2021</v>
+      </c>
+      <c r="F528">
         <v>2101879017</v>
       </c>
-      <c r="F528">
+      <c r="G528">
         <v>2021</v>
       </c>
     </row>
@@ -15152,9 +16738,12 @@
         </is>
       </c>
       <c r="E529">
+        <v>2022</v>
+      </c>
+      <c r="F529">
         <v>1916235623</v>
       </c>
-      <c r="F529">
+      <c r="G529">
         <v>2022</v>
       </c>
     </row>
@@ -15180,9 +16769,12 @@
         </is>
       </c>
       <c r="E530">
+        <v>2020</v>
+      </c>
+      <c r="F530">
         <v>242834881</v>
       </c>
-      <c r="F530">
+      <c r="G530">
         <v>2020</v>
       </c>
     </row>
@@ -15208,9 +16800,12 @@
         </is>
       </c>
       <c r="E531">
+        <v>2021</v>
+      </c>
+      <c r="F531">
         <v>267935953</v>
       </c>
-      <c r="F531">
+      <c r="G531">
         <v>2021</v>
       </c>
     </row>
@@ -15236,9 +16831,12 @@
         </is>
       </c>
       <c r="E532">
+        <v>2022</v>
+      </c>
+      <c r="F532">
         <v>277665887</v>
       </c>
-      <c r="F532">
+      <c r="G532">
         <v>2022</v>
       </c>
     </row>
@@ -15264,9 +16862,12 @@
         </is>
       </c>
       <c r="E533">
+        <v>2020</v>
+      </c>
+      <c r="F533">
         <v>2562933580</v>
       </c>
-      <c r="F533">
+      <c r="G533">
         <v>2020</v>
       </c>
     </row>
@@ -15292,9 +16893,12 @@
         </is>
       </c>
       <c r="E534">
+        <v>2021</v>
+      </c>
+      <c r="F534">
         <v>2179830748</v>
       </c>
-      <c r="F534">
+      <c r="G534">
         <v>2021</v>
       </c>
     </row>
@@ -15320,9 +16924,12 @@
         </is>
       </c>
       <c r="E535">
+        <v>2022</v>
+      </c>
+      <c r="F535">
         <v>914986489</v>
       </c>
-      <c r="F535">
+      <c r="G535">
         <v>2022</v>
       </c>
     </row>
@@ -15348,9 +16955,12 @@
         </is>
       </c>
       <c r="E536">
+        <v>2020</v>
+      </c>
+      <c r="F536">
         <v>42995799</v>
       </c>
-      <c r="F536">
+      <c r="G536">
         <v>2020</v>
       </c>
     </row>
@@ -15376,9 +16986,12 @@
         </is>
       </c>
       <c r="E537">
+        <v>2021</v>
+      </c>
+      <c r="F537">
         <v>27127995</v>
       </c>
-      <c r="F537">
+      <c r="G537">
         <v>2021</v>
       </c>
     </row>
@@ -15404,9 +17017,12 @@
         </is>
       </c>
       <c r="E538">
+        <v>2022</v>
+      </c>
+      <c r="F538">
         <v>26816072</v>
       </c>
-      <c r="F538">
+      <c r="G538">
         <v>2022</v>
       </c>
     </row>
@@ -15432,9 +17048,12 @@
         </is>
       </c>
       <c r="E539">
+        <v>2020</v>
+      </c>
+      <c r="F539">
         <v>3065273</v>
       </c>
-      <c r="F539">
+      <c r="G539">
         <v>2020</v>
       </c>
     </row>
@@ -15460,9 +17079,12 @@
         </is>
       </c>
       <c r="E540">
+        <v>2021</v>
+      </c>
+      <c r="F540">
         <v>1624957</v>
       </c>
-      <c r="F540">
+      <c r="G540">
         <v>2021</v>
       </c>
     </row>
@@ -15488,9 +17110,12 @@
         </is>
       </c>
       <c r="E541">
+        <v>2022</v>
+      </c>
+      <c r="F541">
         <v>1127195</v>
       </c>
-      <c r="F541">
+      <c r="G541">
         <v>2022</v>
       </c>
     </row>
@@ -15516,9 +17141,12 @@
         </is>
       </c>
       <c r="E542">
+        <v>2020</v>
+      </c>
+      <c r="F542">
         <v>198880</v>
       </c>
-      <c r="F542">
+      <c r="G542">
         <v>2020</v>
       </c>
     </row>
@@ -15544,9 +17172,12 @@
         </is>
       </c>
       <c r="E543">
+        <v>2021</v>
+      </c>
+      <c r="F543">
         <v>3744773</v>
       </c>
-      <c r="F543">
+      <c r="G543">
         <v>2021</v>
       </c>
     </row>
@@ -15572,9 +17203,12 @@
         </is>
       </c>
       <c r="E544">
+        <v>2022</v>
+      </c>
+      <c r="F544">
         <v>2030715</v>
       </c>
-      <c r="F544">
+      <c r="G544">
         <v>2022</v>
       </c>
     </row>
@@ -15600,9 +17234,12 @@
         </is>
       </c>
       <c r="E545">
+        <v>2020</v>
+      </c>
+      <c r="F545">
         <v>139379933</v>
       </c>
-      <c r="F545">
+      <c r="G545">
         <v>2020</v>
       </c>
     </row>
@@ -15628,9 +17265,12 @@
         </is>
       </c>
       <c r="E546">
+        <v>2021</v>
+      </c>
+      <c r="F546">
         <v>132641097</v>
       </c>
-      <c r="F546">
+      <c r="G546">
         <v>2021</v>
       </c>
     </row>
@@ -15656,9 +17296,12 @@
         </is>
       </c>
       <c r="E547">
+        <v>2022</v>
+      </c>
+      <c r="F547">
         <v>246698149</v>
       </c>
-      <c r="F547">
+      <c r="G547">
         <v>2022</v>
       </c>
     </row>
@@ -15684,9 +17327,12 @@
         </is>
       </c>
       <c r="E548">
+        <v>2020</v>
+      </c>
+      <c r="F548">
         <v>23102426526</v>
       </c>
-      <c r="F548">
+      <c r="G548">
         <v>2020</v>
       </c>
     </row>
@@ -15712,9 +17358,12 @@
         </is>
       </c>
       <c r="E549">
+        <v>2021</v>
+      </c>
+      <c r="F549">
         <v>25459126771</v>
       </c>
-      <c r="F549">
+      <c r="G549">
         <v>2021</v>
       </c>
     </row>
@@ -15740,9 +17389,12 @@
         </is>
       </c>
       <c r="E550">
+        <v>2022</v>
+      </c>
+      <c r="F550">
         <v>26407571909</v>
       </c>
-      <c r="F550">
+      <c r="G550">
         <v>2022</v>
       </c>
     </row>
@@ -15768,9 +17420,12 @@
         </is>
       </c>
       <c r="E551">
+        <v>2020</v>
+      </c>
+      <c r="F551">
         <v>292208421</v>
       </c>
-      <c r="F551">
+      <c r="G551">
         <v>2020</v>
       </c>
     </row>
@@ -15796,9 +17451,12 @@
         </is>
       </c>
       <c r="E552">
+        <v>2021</v>
+      </c>
+      <c r="F552">
         <v>297454310</v>
       </c>
-      <c r="F552">
+      <c r="G552">
         <v>2021</v>
       </c>
     </row>
@@ -15824,9 +17482,12 @@
         </is>
       </c>
       <c r="E553">
+        <v>2022</v>
+      </c>
+      <c r="F553">
         <v>338705130</v>
       </c>
-      <c r="F553">
+      <c r="G553">
         <v>2022</v>
       </c>
     </row>
@@ -15852,9 +17513,12 @@
         </is>
       </c>
       <c r="E554">
+        <v>2020</v>
+      </c>
+      <c r="F554">
         <v>2818515985</v>
       </c>
-      <c r="F554">
+      <c r="G554">
         <v>2020</v>
       </c>
     </row>
@@ -15880,9 +17544,12 @@
         </is>
       </c>
       <c r="E555">
+        <v>2021</v>
+      </c>
+      <c r="F555">
         <v>3194912570</v>
       </c>
-      <c r="F555">
+      <c r="G555">
         <v>2021</v>
       </c>
     </row>
@@ -15908,9 +17575,12 @@
         </is>
       </c>
       <c r="E556">
+        <v>2022</v>
+      </c>
+      <c r="F556">
         <v>3918040083</v>
       </c>
-      <c r="F556">
+      <c r="G556">
         <v>2022</v>
       </c>
     </row>
@@ -15936,9 +17606,12 @@
         </is>
       </c>
       <c r="E557">
+        <v>2020</v>
+      </c>
+      <c r="F557">
         <v>273380521</v>
       </c>
-      <c r="F557">
+      <c r="G557">
         <v>2020</v>
       </c>
     </row>
@@ -15964,9 +17637,12 @@
         </is>
       </c>
       <c r="E558">
+        <v>2021</v>
+      </c>
+      <c r="F558">
         <v>225039612</v>
       </c>
-      <c r="F558">
+      <c r="G558">
         <v>2021</v>
       </c>
     </row>
@@ -15992,9 +17668,12 @@
         </is>
       </c>
       <c r="E559">
+        <v>2022</v>
+      </c>
+      <c r="F559">
         <v>251432648</v>
       </c>
-      <c r="F559">
+      <c r="G559">
         <v>2022</v>
       </c>
     </row>
@@ -16020,9 +17699,12 @@
         </is>
       </c>
       <c r="E560">
+        <v>2020</v>
+      </c>
+      <c r="F560">
         <v>150544278</v>
       </c>
-      <c r="F560">
+      <c r="G560">
         <v>2020</v>
       </c>
     </row>
@@ -16048,9 +17730,12 @@
         </is>
       </c>
       <c r="E561">
+        <v>2021</v>
+      </c>
+      <c r="F561">
         <v>129049693</v>
       </c>
-      <c r="F561">
+      <c r="G561">
         <v>2021</v>
       </c>
     </row>
@@ -16076,9 +17761,12 @@
         </is>
       </c>
       <c r="E562">
+        <v>2022</v>
+      </c>
+      <c r="F562">
         <v>61021646</v>
       </c>
-      <c r="F562">
+      <c r="G562">
         <v>2022</v>
       </c>
     </row>
@@ -16104,9 +17792,12 @@
         </is>
       </c>
       <c r="E563">
+        <v>2020</v>
+      </c>
+      <c r="F563">
         <v>21523526</v>
       </c>
-      <c r="F563">
+      <c r="G563">
         <v>2020</v>
       </c>
     </row>
@@ -16132,9 +17823,12 @@
         </is>
       </c>
       <c r="E564">
+        <v>2021</v>
+      </c>
+      <c r="F564">
         <v>29167368</v>
       </c>
-      <c r="F564">
+      <c r="G564">
         <v>2021</v>
       </c>
     </row>
@@ -16160,9 +17854,12 @@
         </is>
       </c>
       <c r="E565">
+        <v>2022</v>
+      </c>
+      <c r="F565">
         <v>29228876</v>
       </c>
-      <c r="F565">
+      <c r="G565">
         <v>2022</v>
       </c>
     </row>
@@ -16188,9 +17885,12 @@
         </is>
       </c>
       <c r="E566">
+        <v>2020</v>
+      </c>
+      <c r="F566">
         <v>24091284</v>
       </c>
-      <c r="F566">
+      <c r="G566">
         <v>2020</v>
       </c>
     </row>
@@ -16216,9 +17916,12 @@
         </is>
       </c>
       <c r="E567">
+        <v>2021</v>
+      </c>
+      <c r="F567">
         <v>28179402</v>
       </c>
-      <c r="F567">
+      <c r="G567">
         <v>2021</v>
       </c>
     </row>
@@ -16244,9 +17947,12 @@
         </is>
       </c>
       <c r="E568">
+        <v>2022</v>
+      </c>
+      <c r="F568">
         <v>20350355</v>
       </c>
-      <c r="F568">
+      <c r="G568">
         <v>2022</v>
       </c>
     </row>
@@ -16272,9 +17978,12 @@
         </is>
       </c>
       <c r="E569">
+        <v>2020</v>
+      </c>
+      <c r="F569">
         <v>12909170</v>
       </c>
-      <c r="F569">
+      <c r="G569">
         <v>2020</v>
       </c>
     </row>
@@ -16300,9 +18009,12 @@
         </is>
       </c>
       <c r="E570">
+        <v>2021</v>
+      </c>
+      <c r="F570">
         <v>23531051</v>
       </c>
-      <c r="F570">
+      <c r="G570">
         <v>2021</v>
       </c>
     </row>
@@ -16328,9 +18040,12 @@
         </is>
       </c>
       <c r="E571">
+        <v>2022</v>
+      </c>
+      <c r="F571">
         <v>36398791</v>
       </c>
-      <c r="F571">
+      <c r="G571">
         <v>2022</v>
       </c>
     </row>
@@ -16356,9 +18071,12 @@
         </is>
       </c>
       <c r="E572">
+        <v>2020</v>
+      </c>
+      <c r="F572">
         <v>4397503434</v>
       </c>
-      <c r="F572">
+      <c r="G572">
         <v>2020</v>
       </c>
     </row>
@@ -16384,9 +18102,12 @@
         </is>
       </c>
       <c r="E573">
+        <v>2021</v>
+      </c>
+      <c r="F573">
         <v>5034799501</v>
       </c>
-      <c r="F573">
+      <c r="G573">
         <v>2021</v>
       </c>
     </row>
@@ -16412,9 +18133,12 @@
         </is>
       </c>
       <c r="E574">
+        <v>2022</v>
+      </c>
+      <c r="F574">
         <v>5247428693</v>
       </c>
-      <c r="F574">
+      <c r="G574">
         <v>2022</v>
       </c>
     </row>
@@ -16440,9 +18164,12 @@
         </is>
       </c>
       <c r="E575">
+        <v>2020</v>
+      </c>
+      <c r="F575">
         <v>420987096</v>
       </c>
-      <c r="F575">
+      <c r="G575">
         <v>2020</v>
       </c>
     </row>
@@ -16468,9 +18195,12 @@
         </is>
       </c>
       <c r="E576">
+        <v>2021</v>
+      </c>
+      <c r="F576">
         <v>513277103</v>
       </c>
-      <c r="F576">
+      <c r="G576">
         <v>2021</v>
       </c>
     </row>
@@ -16496,9 +18226,12 @@
         </is>
       </c>
       <c r="E577">
+        <v>2022</v>
+      </c>
+      <c r="F577">
         <v>691993330</v>
       </c>
-      <c r="F577">
+      <c r="G577">
         <v>2022</v>
       </c>
     </row>
@@ -16524,9 +18257,12 @@
         </is>
       </c>
       <c r="E578">
+        <v>2020</v>
+      </c>
+      <c r="F578">
         <v>2996259801</v>
       </c>
-      <c r="F578">
+      <c r="G578">
         <v>2020</v>
       </c>
     </row>
@@ -16552,9 +18288,12 @@
         </is>
       </c>
       <c r="E579">
+        <v>2021</v>
+      </c>
+      <c r="F579">
         <v>3954142043</v>
       </c>
-      <c r="F579">
+      <c r="G579">
         <v>2021</v>
       </c>
     </row>
@@ -16580,9 +18319,12 @@
         </is>
       </c>
       <c r="E580">
+        <v>2022</v>
+      </c>
+      <c r="F580">
         <v>3772722451</v>
       </c>
-      <c r="F580">
+      <c r="G580">
         <v>2022</v>
       </c>
     </row>
@@ -16608,9 +18350,12 @@
         </is>
       </c>
       <c r="E581">
+        <v>2020</v>
+      </c>
+      <c r="F581">
         <v>871369270</v>
       </c>
-      <c r="F581">
+      <c r="G581">
         <v>2020</v>
       </c>
     </row>
@@ -16636,9 +18381,12 @@
         </is>
       </c>
       <c r="E582">
+        <v>2021</v>
+      </c>
+      <c r="F582">
         <v>1441205549</v>
       </c>
-      <c r="F582">
+      <c r="G582">
         <v>2021</v>
       </c>
     </row>
@@ -16664,9 +18412,12 @@
         </is>
       </c>
       <c r="E583">
+        <v>2022</v>
+      </c>
+      <c r="F583">
         <v>1379538018</v>
       </c>
-      <c r="F583">
+      <c r="G583">
         <v>2022</v>
       </c>
     </row>
@@ -16692,9 +18443,12 @@
         </is>
       </c>
       <c r="E584">
+        <v>2020</v>
+      </c>
+      <c r="F584">
         <v>5893652636</v>
       </c>
-      <c r="F584">
+      <c r="G584">
         <v>2020</v>
       </c>
     </row>
@@ -16720,9 +18474,12 @@
         </is>
       </c>
       <c r="E585">
+        <v>2021</v>
+      </c>
+      <c r="F585">
         <v>7596463801</v>
       </c>
-      <c r="F585">
+      <c r="G585">
         <v>2021</v>
       </c>
     </row>
@@ -16748,9 +18505,12 @@
         </is>
       </c>
       <c r="E586">
+        <v>2022</v>
+      </c>
+      <c r="F586">
         <v>3304689513</v>
       </c>
-      <c r="F586">
+      <c r="G586">
         <v>2022</v>
       </c>
     </row>
@@ -16776,9 +18536,12 @@
         </is>
       </c>
       <c r="E587">
+        <v>2020</v>
+      </c>
+      <c r="F587">
         <v>131654514</v>
       </c>
-      <c r="F587">
+      <c r="G587">
         <v>2020</v>
       </c>
     </row>
@@ -16804,9 +18567,12 @@
         </is>
       </c>
       <c r="E588">
+        <v>2021</v>
+      </c>
+      <c r="F588">
         <v>257592901</v>
       </c>
-      <c r="F588">
+      <c r="G588">
         <v>2021</v>
       </c>
     </row>
@@ -16832,9 +18598,12 @@
         </is>
       </c>
       <c r="E589">
+        <v>2022</v>
+      </c>
+      <c r="F589">
         <v>131623821</v>
       </c>
-      <c r="F589">
+      <c r="G589">
         <v>2022</v>
       </c>
     </row>
@@ -16860,9 +18629,12 @@
         </is>
       </c>
       <c r="E590">
+        <v>2020</v>
+      </c>
+      <c r="F590">
         <v>4708209571</v>
       </c>
-      <c r="F590">
+      <c r="G590">
         <v>2020</v>
       </c>
     </row>
@@ -16888,9 +18660,12 @@
         </is>
       </c>
       <c r="E591">
+        <v>2021</v>
+      </c>
+      <c r="F591">
         <v>5490843135</v>
       </c>
-      <c r="F591">
+      <c r="G591">
         <v>2021</v>
       </c>
     </row>
@@ -16916,9 +18691,12 @@
         </is>
       </c>
       <c r="E592">
+        <v>2022</v>
+      </c>
+      <c r="F592">
         <v>6649372195</v>
       </c>
-      <c r="F592">
+      <c r="G592">
         <v>2022</v>
       </c>
     </row>
@@ -16944,9 +18722,12 @@
         </is>
       </c>
       <c r="E593">
+        <v>2020</v>
+      </c>
+      <c r="F593">
         <v>47666400</v>
       </c>
-      <c r="F593">
+      <c r="G593">
         <v>2020</v>
       </c>
     </row>
@@ -16972,9 +18753,12 @@
         </is>
       </c>
       <c r="E594">
+        <v>2021</v>
+      </c>
+      <c r="F594">
         <v>69640406</v>
       </c>
-      <c r="F594">
+      <c r="G594">
         <v>2021</v>
       </c>
     </row>
@@ -17000,9 +18784,12 @@
         </is>
       </c>
       <c r="E595">
+        <v>2022</v>
+      </c>
+      <c r="F595">
         <v>6214595</v>
       </c>
-      <c r="F595">
+      <c r="G595">
         <v>2022</v>
       </c>
     </row>
@@ -17028,9 +18815,12 @@
         </is>
       </c>
       <c r="E596">
+        <v>2020</v>
+      </c>
+      <c r="F596">
         <v>37276862996</v>
       </c>
-      <c r="F596">
+      <c r="G596">
         <v>2020</v>
       </c>
     </row>
@@ -17056,9 +18846,12 @@
         </is>
       </c>
       <c r="E597">
+        <v>2021</v>
+      </c>
+      <c r="F597">
         <v>46699228381</v>
       </c>
-      <c r="F597">
+      <c r="G597">
         <v>2021</v>
       </c>
     </row>
@@ -17084,9 +18877,12 @@
         </is>
       </c>
       <c r="E598">
+        <v>2022</v>
+      </c>
+      <c r="F598">
         <v>56580636236</v>
       </c>
-      <c r="F598">
+      <c r="G598">
         <v>2022</v>
       </c>
     </row>
@@ -17112,9 +18908,12 @@
         </is>
       </c>
       <c r="E599">
+        <v>2020</v>
+      </c>
+      <c r="F599">
         <v>143491426</v>
       </c>
-      <c r="F599">
+      <c r="G599">
         <v>2020</v>
       </c>
     </row>
@@ -17140,9 +18939,12 @@
         </is>
       </c>
       <c r="E600">
+        <v>2021</v>
+      </c>
+      <c r="F600">
         <v>134429462</v>
       </c>
-      <c r="F600">
+      <c r="G600">
         <v>2021</v>
       </c>
     </row>
@@ -17168,9 +18970,12 @@
         </is>
       </c>
       <c r="E601">
+        <v>2022</v>
+      </c>
+      <c r="F601">
         <v>196333893</v>
       </c>
-      <c r="F601">
+      <c r="G601">
         <v>2022</v>
       </c>
     </row>
@@ -17196,9 +19001,12 @@
         </is>
       </c>
       <c r="E602">
+        <v>2020</v>
+      </c>
+      <c r="F602">
         <v>36218106821</v>
       </c>
-      <c r="F602">
+      <c r="G602">
         <v>2020</v>
       </c>
     </row>
@@ -17224,9 +19032,12 @@
         </is>
       </c>
       <c r="E603">
+        <v>2021</v>
+      </c>
+      <c r="F603">
         <v>44763394859</v>
       </c>
-      <c r="F603">
+      <c r="G603">
         <v>2021</v>
       </c>
     </row>
@@ -17252,9 +19063,12 @@
         </is>
       </c>
       <c r="E604">
+        <v>2022</v>
+      </c>
+      <c r="F604">
         <v>48727344041</v>
       </c>
-      <c r="F604">
+      <c r="G604">
         <v>2022</v>
       </c>
     </row>
@@ -17280,9 +19094,12 @@
         </is>
       </c>
       <c r="E605">
+        <v>2020</v>
+      </c>
+      <c r="F605">
         <v>7277647186</v>
       </c>
-      <c r="F605">
+      <c r="G605">
         <v>2020</v>
       </c>
     </row>
@@ -17308,9 +19125,12 @@
         </is>
       </c>
       <c r="E606">
+        <v>2021</v>
+      </c>
+      <c r="F606">
         <v>8763870291</v>
       </c>
-      <c r="F606">
+      <c r="G606">
         <v>2021</v>
       </c>
     </row>
@@ -17336,9 +19156,12 @@
         </is>
       </c>
       <c r="E607">
+        <v>2022</v>
+      </c>
+      <c r="F607">
         <v>9713890635</v>
       </c>
-      <c r="F607">
+      <c r="G607">
         <v>2022</v>
       </c>
     </row>
@@ -17364,9 +19187,12 @@
         </is>
       </c>
       <c r="E608">
+        <v>2020</v>
+      </c>
+      <c r="F608">
         <v>136127950</v>
       </c>
-      <c r="F608">
+      <c r="G608">
         <v>2020</v>
       </c>
     </row>
@@ -17392,9 +19218,12 @@
         </is>
       </c>
       <c r="E609">
+        <v>2021</v>
+      </c>
+      <c r="F609">
         <v>128797898</v>
       </c>
-      <c r="F609">
+      <c r="G609">
         <v>2021</v>
       </c>
     </row>
@@ -17420,9 +19249,12 @@
         </is>
       </c>
       <c r="E610">
+        <v>2022</v>
+      </c>
+      <c r="F610">
         <v>116213048</v>
       </c>
-      <c r="F610">
+      <c r="G610">
         <v>2022</v>
       </c>
     </row>
@@ -17448,9 +19280,12 @@
         </is>
       </c>
       <c r="E611">
+        <v>2020</v>
+      </c>
+      <c r="F611">
         <v>36972475268</v>
       </c>
-      <c r="F611">
+      <c r="G611">
         <v>2020</v>
       </c>
     </row>
@@ -17476,9 +19311,12 @@
         </is>
       </c>
       <c r="E612">
+        <v>2021</v>
+      </c>
+      <c r="F612">
         <v>45752729043</v>
       </c>
-      <c r="F612">
+      <c r="G612">
         <v>2021</v>
       </c>
     </row>
@@ -17504,9 +19342,12 @@
         </is>
       </c>
       <c r="E613">
+        <v>2022</v>
+      </c>
+      <c r="F613">
         <v>42803743017</v>
       </c>
-      <c r="F613">
+      <c r="G613">
         <v>2022</v>
       </c>
     </row>
@@ -17532,9 +19373,12 @@
         </is>
       </c>
       <c r="E614">
+        <v>2020</v>
+      </c>
+      <c r="F614">
         <v>678198</v>
       </c>
-      <c r="F614">
+      <c r="G614">
         <v>2020</v>
       </c>
     </row>
@@ -17560,9 +19404,12 @@
         </is>
       </c>
       <c r="E615">
+        <v>2021</v>
+      </c>
+      <c r="F615">
         <v>3368804</v>
       </c>
-      <c r="F615">
+      <c r="G615">
         <v>2021</v>
       </c>
     </row>
@@ -17588,9 +19435,12 @@
         </is>
       </c>
       <c r="E616">
+        <v>2022</v>
+      </c>
+      <c r="F616">
         <v>5286133</v>
       </c>
-      <c r="F616">
+      <c r="G616">
         <v>2022</v>
       </c>
     </row>
@@ -17616,9 +19466,12 @@
         </is>
       </c>
       <c r="E617">
+        <v>2020</v>
+      </c>
+      <c r="F617">
         <v>13270246</v>
       </c>
-      <c r="F617">
+      <c r="G617">
         <v>2020</v>
       </c>
     </row>
@@ -17644,9 +19497,12 @@
         </is>
       </c>
       <c r="E618">
+        <v>2021</v>
+      </c>
+      <c r="F618">
         <v>26690028</v>
       </c>
-      <c r="F618">
+      <c r="G618">
         <v>2021</v>
       </c>
     </row>
@@ -17672,9 +19528,12 @@
         </is>
       </c>
       <c r="E619">
+        <v>2022</v>
+      </c>
+      <c r="F619">
         <v>73706106</v>
       </c>
-      <c r="F619">
+      <c r="G619">
         <v>2022</v>
       </c>
     </row>
@@ -17700,9 +19559,12 @@
         </is>
       </c>
       <c r="E620">
+        <v>2020</v>
+      </c>
+      <c r="F620">
         <v>206065706</v>
       </c>
-      <c r="F620">
+      <c r="G620">
         <v>2020</v>
       </c>
     </row>
@@ -17728,9 +19590,12 @@
         </is>
       </c>
       <c r="E621">
+        <v>2021</v>
+      </c>
+      <c r="F621">
         <v>258086252</v>
       </c>
-      <c r="F621">
+      <c r="G621">
         <v>2021</v>
       </c>
     </row>
@@ -17756,9 +19621,12 @@
         </is>
       </c>
       <c r="E622">
+        <v>2022</v>
+      </c>
+      <c r="F622">
         <v>340907728</v>
       </c>
-      <c r="F622">
+      <c r="G622">
         <v>2022</v>
       </c>
     </row>
@@ -17784,9 +19652,12 @@
         </is>
       </c>
       <c r="E623">
+        <v>2020</v>
+      </c>
+      <c r="F623">
         <v>8751916299</v>
       </c>
-      <c r="F623">
+      <c r="G623">
         <v>2020</v>
       </c>
     </row>
@@ -17812,9 +19683,12 @@
         </is>
       </c>
       <c r="E624">
+        <v>2021</v>
+      </c>
+      <c r="F624">
         <v>10624687602</v>
       </c>
-      <c r="F624">
+      <c r="G624">
         <v>2021</v>
       </c>
     </row>
@@ -17840,9 +19714,12 @@
         </is>
       </c>
       <c r="E625">
+        <v>2022</v>
+      </c>
+      <c r="F625">
         <v>6261565323</v>
       </c>
-      <c r="F625">
+      <c r="G625">
         <v>2022</v>
       </c>
     </row>
@@ -17868,9 +19745,12 @@
         </is>
       </c>
       <c r="E626">
+        <v>2020</v>
+      </c>
+      <c r="F626">
         <v>1519996463</v>
       </c>
-      <c r="F626">
+      <c r="G626">
         <v>2020</v>
       </c>
     </row>
@@ -17896,9 +19776,12 @@
         </is>
       </c>
       <c r="E627">
+        <v>2021</v>
+      </c>
+      <c r="F627">
         <v>1888851225</v>
       </c>
-      <c r="F627">
+      <c r="G627">
         <v>2021</v>
       </c>
     </row>
@@ -17924,9 +19807,12 @@
         </is>
       </c>
       <c r="E628">
+        <v>2022</v>
+      </c>
+      <c r="F628">
         <v>1889168962</v>
       </c>
-      <c r="F628">
+      <c r="G628">
         <v>2022</v>
       </c>
     </row>
@@ -17952,9 +19838,12 @@
         </is>
       </c>
       <c r="E629">
+        <v>2022</v>
+      </c>
+      <c r="F629">
         <v>25115</v>
       </c>
-      <c r="F629">
+      <c r="G629">
         <v>2022</v>
       </c>
     </row>
@@ -17980,9 +19869,12 @@
         </is>
       </c>
       <c r="E630">
+        <v>2020</v>
+      </c>
+      <c r="F630">
         <v>25214312</v>
       </c>
-      <c r="F630">
+      <c r="G630">
         <v>2020</v>
       </c>
     </row>
@@ -18008,9 +19900,12 @@
         </is>
       </c>
       <c r="E631">
+        <v>2021</v>
+      </c>
+      <c r="F631">
         <v>20695113</v>
       </c>
-      <c r="F631">
+      <c r="G631">
         <v>2021</v>
       </c>
     </row>
@@ -18036,9 +19931,12 @@
         </is>
       </c>
       <c r="E632">
+        <v>2022</v>
+      </c>
+      <c r="F632">
         <v>23318623</v>
       </c>
-      <c r="F632">
+      <c r="G632">
         <v>2022</v>
       </c>
     </row>
@@ -18064,9 +19962,12 @@
         </is>
       </c>
       <c r="E633">
+        <v>2020</v>
+      </c>
+      <c r="F633">
         <v>77767696</v>
       </c>
-      <c r="F633">
+      <c r="G633">
         <v>2020</v>
       </c>
     </row>
@@ -18092,9 +19993,12 @@
         </is>
       </c>
       <c r="E634">
+        <v>2021</v>
+      </c>
+      <c r="F634">
         <v>94437684</v>
       </c>
-      <c r="F634">
+      <c r="G634">
         <v>2021</v>
       </c>
     </row>
@@ -18120,9 +20024,12 @@
         </is>
       </c>
       <c r="E635">
+        <v>2022</v>
+      </c>
+      <c r="F635">
         <v>122855663</v>
       </c>
-      <c r="F635">
+      <c r="G635">
         <v>2022</v>
       </c>
     </row>
@@ -18148,9 +20055,12 @@
         </is>
       </c>
       <c r="E636">
+        <v>2020</v>
+      </c>
+      <c r="F636">
         <v>131256877</v>
       </c>
-      <c r="F636">
+      <c r="G636">
         <v>2020</v>
       </c>
     </row>
@@ -18176,9 +20086,12 @@
         </is>
       </c>
       <c r="E637">
+        <v>2021</v>
+      </c>
+      <c r="F637">
         <v>160378850</v>
       </c>
-      <c r="F637">
+      <c r="G637">
         <v>2021</v>
       </c>
     </row>
@@ -18204,9 +20117,12 @@
         </is>
       </c>
       <c r="E638">
+        <v>2022</v>
+      </c>
+      <c r="F638">
         <v>113543344</v>
       </c>
-      <c r="F638">
+      <c r="G638">
         <v>2022</v>
       </c>
     </row>
@@ -18232,9 +20148,12 @@
         </is>
       </c>
       <c r="E639">
+        <v>2020</v>
+      </c>
+      <c r="F639">
         <v>3072550114</v>
       </c>
-      <c r="F639">
+      <c r="G639">
         <v>2020</v>
       </c>
     </row>
@@ -18260,9 +20179,12 @@
         </is>
       </c>
       <c r="E640">
+        <v>2021</v>
+      </c>
+      <c r="F640">
         <v>3542046516</v>
       </c>
-      <c r="F640">
+      <c r="G640">
         <v>2021</v>
       </c>
     </row>
@@ -18288,9 +20210,12 @@
         </is>
       </c>
       <c r="E641">
+        <v>2022</v>
+      </c>
+      <c r="F641">
         <v>3421943787</v>
       </c>
-      <c r="F641">
+      <c r="G641">
         <v>2022</v>
       </c>
     </row>
@@ -18316,9 +20241,12 @@
         </is>
       </c>
       <c r="E642">
+        <v>2020</v>
+      </c>
+      <c r="F642">
         <v>455619506</v>
       </c>
-      <c r="F642">
+      <c r="G642">
         <v>2020</v>
       </c>
     </row>
@@ -18344,9 +20272,12 @@
         </is>
       </c>
       <c r="E643">
+        <v>2021</v>
+      </c>
+      <c r="F643">
         <v>475649445</v>
       </c>
-      <c r="F643">
+      <c r="G643">
         <v>2021</v>
       </c>
     </row>
@@ -18372,9 +20303,12 @@
         </is>
       </c>
       <c r="E644">
+        <v>2022</v>
+      </c>
+      <c r="F644">
         <v>554885418</v>
       </c>
-      <c r="F644">
+      <c r="G644">
         <v>2022</v>
       </c>
     </row>
@@ -18400,9 +20334,12 @@
         </is>
       </c>
       <c r="E645">
+        <v>2020</v>
+      </c>
+      <c r="F645">
         <v>43394085</v>
       </c>
-      <c r="F645">
+      <c r="G645">
         <v>2020</v>
       </c>
     </row>
@@ -18428,9 +20365,12 @@
         </is>
       </c>
       <c r="E646">
+        <v>2021</v>
+      </c>
+      <c r="F646">
         <v>55402728</v>
       </c>
-      <c r="F646">
+      <c r="G646">
         <v>2021</v>
       </c>
     </row>
@@ -18456,9 +20396,12 @@
         </is>
       </c>
       <c r="E647">
+        <v>2022</v>
+      </c>
+      <c r="F647">
         <v>28010519</v>
       </c>
-      <c r="F647">
+      <c r="G647">
         <v>2022</v>
       </c>
     </row>
@@ -18484,9 +20427,12 @@
         </is>
       </c>
       <c r="E648">
+        <v>2020</v>
+      </c>
+      <c r="F648">
         <v>54691041</v>
       </c>
-      <c r="F648">
+      <c r="G648">
         <v>2020</v>
       </c>
     </row>
@@ -18512,9 +20458,12 @@
         </is>
       </c>
       <c r="E649">
+        <v>2021</v>
+      </c>
+      <c r="F649">
         <v>58183106</v>
       </c>
-      <c r="F649">
+      <c r="G649">
         <v>2021</v>
       </c>
     </row>
@@ -18540,9 +20489,12 @@
         </is>
       </c>
       <c r="E650">
+        <v>2022</v>
+      </c>
+      <c r="F650">
         <v>82856907</v>
       </c>
-      <c r="F650">
+      <c r="G650">
         <v>2022</v>
       </c>
     </row>
@@ -18568,9 +20520,12 @@
         </is>
       </c>
       <c r="E651">
+        <v>2020</v>
+      </c>
+      <c r="F651">
         <v>14448829</v>
       </c>
-      <c r="F651">
+      <c r="G651">
         <v>2020</v>
       </c>
     </row>
@@ -18596,9 +20551,12 @@
         </is>
       </c>
       <c r="E652">
+        <v>2021</v>
+      </c>
+      <c r="F652">
         <v>13245352</v>
       </c>
-      <c r="F652">
+      <c r="G652">
         <v>2021</v>
       </c>
     </row>
@@ -18624,9 +20582,12 @@
         </is>
       </c>
       <c r="E653">
+        <v>2022</v>
+      </c>
+      <c r="F653">
         <v>16263324</v>
       </c>
-      <c r="F653">
+      <c r="G653">
         <v>2022</v>
       </c>
     </row>
@@ -18652,9 +20613,12 @@
         </is>
       </c>
       <c r="E654">
+        <v>2020</v>
+      </c>
+      <c r="F654">
         <v>5510786929</v>
       </c>
-      <c r="F654">
+      <c r="G654">
         <v>2020</v>
       </c>
     </row>
@@ -18680,9 +20644,12 @@
         </is>
       </c>
       <c r="E655">
+        <v>2021</v>
+      </c>
+      <c r="F655">
         <v>5671590941</v>
       </c>
-      <c r="F655">
+      <c r="G655">
         <v>2021</v>
       </c>
     </row>
@@ -18708,9 +20675,12 @@
         </is>
       </c>
       <c r="E656">
+        <v>2022</v>
+      </c>
+      <c r="F656">
         <v>6166583328</v>
       </c>
-      <c r="F656">
+      <c r="G656">
         <v>2022</v>
       </c>
     </row>
@@ -18736,9 +20706,12 @@
         </is>
       </c>
       <c r="E657">
+        <v>2020</v>
+      </c>
+      <c r="F657">
         <v>58391</v>
       </c>
-      <c r="F657">
+      <c r="G657">
         <v>2020</v>
       </c>
     </row>
@@ -18764,9 +20737,12 @@
         </is>
       </c>
       <c r="E658">
+        <v>2021</v>
+      </c>
+      <c r="F658">
         <v>2981086</v>
       </c>
-      <c r="F658">
+      <c r="G658">
         <v>2021</v>
       </c>
     </row>
@@ -18792,9 +20768,12 @@
         </is>
       </c>
       <c r="E659">
+        <v>2022</v>
+      </c>
+      <c r="F659">
         <v>12894</v>
       </c>
-      <c r="F659">
+      <c r="G659">
         <v>2022</v>
       </c>
     </row>
@@ -18820,9 +20799,12 @@
         </is>
       </c>
       <c r="E660">
+        <v>2020</v>
+      </c>
+      <c r="F660">
         <v>554710</v>
       </c>
-      <c r="F660">
+      <c r="G660">
         <v>2020</v>
       </c>
     </row>
@@ -18848,9 +20830,12 @@
         </is>
       </c>
       <c r="E661">
+        <v>2021</v>
+      </c>
+      <c r="F661">
         <v>200574</v>
       </c>
-      <c r="F661">
+      <c r="G661">
         <v>2021</v>
       </c>
     </row>
@@ -18876,9 +20861,12 @@
         </is>
       </c>
       <c r="E662">
+        <v>2022</v>
+      </c>
+      <c r="F662">
         <v>990596</v>
       </c>
-      <c r="F662">
+      <c r="G662">
         <v>2022</v>
       </c>
     </row>
@@ -18904,9 +20892,12 @@
         </is>
       </c>
       <c r="E663">
+        <v>2020</v>
+      </c>
+      <c r="F663">
         <v>24916534</v>
       </c>
-      <c r="F663">
+      <c r="G663">
         <v>2020</v>
       </c>
     </row>
@@ -18932,9 +20923,12 @@
         </is>
       </c>
       <c r="E664">
+        <v>2021</v>
+      </c>
+      <c r="F664">
         <v>35278693</v>
       </c>
-      <c r="F664">
+      <c r="G664">
         <v>2021</v>
       </c>
     </row>
@@ -18960,9 +20954,12 @@
         </is>
       </c>
       <c r="E665">
+        <v>2022</v>
+      </c>
+      <c r="F665">
         <v>38223845</v>
       </c>
-      <c r="F665">
+      <c r="G665">
         <v>2022</v>
       </c>
     </row>
@@ -18988,9 +20985,12 @@
         </is>
       </c>
       <c r="E666">
+        <v>2020</v>
+      </c>
+      <c r="F666">
         <v>12268367</v>
       </c>
-      <c r="F666">
+      <c r="G666">
         <v>2020</v>
       </c>
     </row>
@@ -19016,9 +21016,12 @@
         </is>
       </c>
       <c r="E667">
+        <v>2021</v>
+      </c>
+      <c r="F667">
         <v>10862113</v>
       </c>
-      <c r="F667">
+      <c r="G667">
         <v>2021</v>
       </c>
     </row>
@@ -19044,9 +21047,12 @@
         </is>
       </c>
       <c r="E668">
+        <v>2022</v>
+      </c>
+      <c r="F668">
         <v>13355792</v>
       </c>
-      <c r="F668">
+      <c r="G668">
         <v>2022</v>
       </c>
     </row>
@@ -19072,9 +21078,12 @@
         </is>
       </c>
       <c r="E669">
+        <v>2020</v>
+      </c>
+      <c r="F669">
         <v>7766</v>
       </c>
-      <c r="F669">
+      <c r="G669">
         <v>2020</v>
       </c>
     </row>
@@ -19100,9 +21109,12 @@
         </is>
       </c>
       <c r="E670">
+        <v>2021</v>
+      </c>
+      <c r="F670">
         <v>217510</v>
       </c>
-      <c r="F670">
+      <c r="G670">
         <v>2021</v>
       </c>
     </row>
@@ -19128,9 +21140,12 @@
         </is>
       </c>
       <c r="E671">
+        <v>2022</v>
+      </c>
+      <c r="F671">
         <v>43137</v>
       </c>
-      <c r="F671">
+      <c r="G671">
         <v>2022</v>
       </c>
     </row>
@@ -19156,9 +21171,12 @@
         </is>
       </c>
       <c r="E672">
+        <v>2020</v>
+      </c>
+      <c r="F672">
         <v>116380</v>
       </c>
-      <c r="F672">
+      <c r="G672">
         <v>2020</v>
       </c>
     </row>
@@ -19184,9 +21202,12 @@
         </is>
       </c>
       <c r="E673">
+        <v>2021</v>
+      </c>
+      <c r="F673">
         <v>53003</v>
       </c>
-      <c r="F673">
+      <c r="G673">
         <v>2021</v>
       </c>
     </row>
@@ -19212,9 +21233,12 @@
         </is>
       </c>
       <c r="E674">
+        <v>2022</v>
+      </c>
+      <c r="F674">
         <v>61204</v>
       </c>
-      <c r="F674">
+      <c r="G674">
         <v>2022</v>
       </c>
     </row>
@@ -19240,9 +21264,12 @@
         </is>
       </c>
       <c r="E675">
+        <v>2020</v>
+      </c>
+      <c r="F675">
         <v>295778</v>
       </c>
-      <c r="F675">
+      <c r="G675">
         <v>2020</v>
       </c>
     </row>
@@ -19268,9 +21295,12 @@
         </is>
       </c>
       <c r="E676">
+        <v>2021</v>
+      </c>
+      <c r="F676">
         <v>362305</v>
       </c>
-      <c r="F676">
+      <c r="G676">
         <v>2021</v>
       </c>
     </row>
@@ -19296,9 +21326,12 @@
         </is>
       </c>
       <c r="E677">
+        <v>2022</v>
+      </c>
+      <c r="F677">
         <v>357844</v>
       </c>
-      <c r="F677">
+      <c r="G677">
         <v>2022</v>
       </c>
     </row>
@@ -19324,9 +21357,12 @@
         </is>
       </c>
       <c r="E678">
+        <v>2020</v>
+      </c>
+      <c r="F678">
         <v>8874354</v>
       </c>
-      <c r="F678">
+      <c r="G678">
         <v>2020</v>
       </c>
     </row>
@@ -19352,9 +21388,12 @@
         </is>
       </c>
       <c r="E679">
+        <v>2021</v>
+      </c>
+      <c r="F679">
         <v>1639615</v>
       </c>
-      <c r="F679">
+      <c r="G679">
         <v>2021</v>
       </c>
     </row>
@@ -19380,9 +21419,12 @@
         </is>
       </c>
       <c r="E680">
+        <v>2022</v>
+      </c>
+      <c r="F680">
         <v>3540517</v>
       </c>
-      <c r="F680">
+      <c r="G680">
         <v>2022</v>
       </c>
     </row>
@@ -19408,9 +21450,12 @@
         </is>
       </c>
       <c r="E681">
+        <v>2020</v>
+      </c>
+      <c r="F681">
         <v>226102592769</v>
       </c>
-      <c r="F681">
+      <c r="G681">
         <v>2020</v>
       </c>
     </row>
@@ -19436,9 +21481,12 @@
         </is>
       </c>
       <c r="E682">
+        <v>2021</v>
+      </c>
+      <c r="F682">
         <v>276225398116</v>
       </c>
-      <c r="F682">
+      <c r="G682">
         <v>2021</v>
       </c>
     </row>
@@ -19464,9 +21512,12 @@
         </is>
       </c>
       <c r="E683">
+        <v>2022</v>
+      </c>
+      <c r="F683">
         <v>299419028186</v>
       </c>
-      <c r="F683">
+      <c r="G683">
         <v>2022</v>
       </c>
     </row>
@@ -19492,9 +21543,12 @@
         </is>
       </c>
       <c r="E684">
+        <v>2020</v>
+      </c>
+      <c r="F684">
         <v>16018491</v>
       </c>
-      <c r="F684">
+      <c r="G684">
         <v>2020</v>
       </c>
     </row>
@@ -19520,9 +21574,12 @@
         </is>
       </c>
       <c r="E685">
+        <v>2021</v>
+      </c>
+      <c r="F685">
         <v>12469260</v>
       </c>
-      <c r="F685">
+      <c r="G685">
         <v>2021</v>
       </c>
     </row>
@@ -19548,9 +21605,12 @@
         </is>
       </c>
       <c r="E686">
+        <v>2022</v>
+      </c>
+      <c r="F686">
         <v>30022836</v>
       </c>
-      <c r="F686">
+      <c r="G686">
         <v>2022</v>
       </c>
     </row>
@@ -19576,9 +21636,12 @@
         </is>
       </c>
       <c r="E687">
+        <v>2020</v>
+      </c>
+      <c r="F687">
         <v>1031633</v>
       </c>
-      <c r="F687">
+      <c r="G687">
         <v>2020</v>
       </c>
     </row>
@@ -19604,9 +21667,12 @@
         </is>
       </c>
       <c r="E688">
+        <v>2021</v>
+      </c>
+      <c r="F688">
         <v>1587988</v>
       </c>
-      <c r="F688">
+      <c r="G688">
         <v>2021</v>
       </c>
     </row>
@@ -19632,9 +21698,12 @@
         </is>
       </c>
       <c r="E689">
+        <v>2022</v>
+      </c>
+      <c r="F689">
         <v>279326</v>
       </c>
-      <c r="F689">
+      <c r="G689">
         <v>2022</v>
       </c>
     </row>
@@ -19660,9 +21729,12 @@
         </is>
       </c>
       <c r="E690">
+        <v>2020</v>
+      </c>
+      <c r="F690">
         <v>26766127</v>
       </c>
-      <c r="F690">
+      <c r="G690">
         <v>2020</v>
       </c>
     </row>
@@ -19688,9 +21760,12 @@
         </is>
       </c>
       <c r="E691">
+        <v>2021</v>
+      </c>
+      <c r="F691">
         <v>33497651</v>
       </c>
-      <c r="F691">
+      <c r="G691">
         <v>2021</v>
       </c>
     </row>
@@ -19716,9 +21791,12 @@
         </is>
       </c>
       <c r="E692">
+        <v>2022</v>
+      </c>
+      <c r="F692">
         <v>29989939</v>
       </c>
-      <c r="F692">
+      <c r="G692">
         <v>2022</v>
       </c>
     </row>
@@ -19744,9 +21822,12 @@
         </is>
       </c>
       <c r="E693">
+        <v>2020</v>
+      </c>
+      <c r="F693">
         <v>30454132279</v>
       </c>
-      <c r="F693">
+      <c r="G693">
         <v>2020</v>
       </c>
     </row>
@@ -19772,9 +21853,12 @@
         </is>
       </c>
       <c r="E694">
+        <v>2021</v>
+      </c>
+      <c r="F694">
         <v>32613237555</v>
       </c>
-      <c r="F694">
+      <c r="G694">
         <v>2021</v>
       </c>
     </row>
@@ -19800,9 +21884,12 @@
         </is>
       </c>
       <c r="E695">
+        <v>2022</v>
+      </c>
+      <c r="F695">
         <v>33514666971</v>
       </c>
-      <c r="F695">
+      <c r="G695">
         <v>2022</v>
       </c>
     </row>

--- a/data/imf_FR_all_exports_2021A.xlsx
+++ b/data/imf_FR_all_exports_2021A.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,6 +360,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -415,8 +422,8 @@
           <t>LK</t>
         </is>
       </c>
-      <c r="E2">
-        <v>2020</v>
+      <c r="E2" s="2">
+        <v>43831</v>
       </c>
       <c r="F2">
         <v>70595582</v>
@@ -446,8 +453,8 @@
           <t>LK</t>
         </is>
       </c>
-      <c r="E3">
-        <v>2021</v>
+      <c r="E3" s="2">
+        <v>44197</v>
       </c>
       <c r="F3">
         <v>102939956</v>
@@ -477,8 +484,8 @@
           <t>LK</t>
         </is>
       </c>
-      <c r="E4">
-        <v>2022</v>
+      <c r="E4" s="2">
+        <v>44562</v>
       </c>
       <c r="F4">
         <v>82482185</v>
@@ -508,8 +515,8 @@
           <t>US</t>
         </is>
       </c>
-      <c r="E5">
-        <v>2020</v>
+      <c r="E5" s="2">
+        <v>43831</v>
       </c>
       <c r="F5">
         <v>37401932873</v>
@@ -539,8 +546,8 @@
           <t>US</t>
         </is>
       </c>
-      <c r="E6">
-        <v>2021</v>
+      <c r="E6" s="2">
+        <v>44197</v>
       </c>
       <c r="F6">
         <v>41515372380</v>
@@ -570,8 +577,8 @@
           <t>US</t>
         </is>
       </c>
-      <c r="E7">
-        <v>2022</v>
+      <c r="E7" s="2">
+        <v>44562</v>
       </c>
       <c r="F7">
         <v>49104682102</v>
@@ -601,8 +608,8 @@
           <t>ER</t>
         </is>
       </c>
-      <c r="E8">
-        <v>2020</v>
+      <c r="E8" s="2">
+        <v>43831</v>
       </c>
       <c r="F8">
         <v>3178618</v>
@@ -632,8 +639,8 @@
           <t>ER</t>
         </is>
       </c>
-      <c r="E9">
-        <v>2021</v>
+      <c r="E9" s="2">
+        <v>44197</v>
       </c>
       <c r="F9">
         <v>2504185</v>
@@ -663,8 +670,8 @@
           <t>ER</t>
         </is>
       </c>
-      <c r="E10">
-        <v>2022</v>
+      <c r="E10" s="2">
+        <v>44562</v>
       </c>
       <c r="F10">
         <v>5094159</v>
@@ -694,8 +701,8 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="E11">
-        <v>2020</v>
+      <c r="E11" s="2">
+        <v>43831</v>
       </c>
       <c r="F11">
         <v>376156841</v>
@@ -725,8 +732,8 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="E12">
-        <v>2021</v>
+      <c r="E12" s="2">
+        <v>44197</v>
       </c>
       <c r="F12">
         <v>386869602</v>
@@ -756,8 +763,8 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="E13">
-        <v>2022</v>
+      <c r="E13" s="2">
+        <v>44562</v>
       </c>
       <c r="F13">
         <v>441375584</v>
@@ -787,8 +794,8 @@
           <t>TM</t>
         </is>
       </c>
-      <c r="E14">
-        <v>2020</v>
+      <c r="E14" s="2">
+        <v>43831</v>
       </c>
       <c r="F14">
         <v>85074982</v>
@@ -818,8 +825,8 @@
           <t>TM</t>
         </is>
       </c>
-      <c r="E15">
-        <v>2021</v>
+      <c r="E15" s="2">
+        <v>44197</v>
       </c>
       <c r="F15">
         <v>37690697</v>
@@ -849,8 +856,8 @@
           <t>TM</t>
         </is>
       </c>
-      <c r="E16">
-        <v>2022</v>
+      <c r="E16" s="2">
+        <v>44562</v>
       </c>
       <c r="F16">
         <v>36129334</v>
@@ -880,8 +887,8 @@
           <t>SL</t>
         </is>
       </c>
-      <c r="E17">
-        <v>2020</v>
+      <c r="E17" s="2">
+        <v>43831</v>
       </c>
       <c r="F17">
         <v>21285482</v>
@@ -911,8 +918,8 @@
           <t>SL</t>
         </is>
       </c>
-      <c r="E18">
-        <v>2021</v>
+      <c r="E18" s="2">
+        <v>44197</v>
       </c>
       <c r="F18">
         <v>13730013</v>
@@ -942,8 +949,8 @@
           <t>SL</t>
         </is>
       </c>
-      <c r="E19">
-        <v>2022</v>
+      <c r="E19" s="2">
+        <v>44562</v>
       </c>
       <c r="F19">
         <v>14421733</v>
@@ -973,8 +980,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E20">
-        <v>2020</v>
+      <c r="E20" s="2">
+        <v>43831</v>
       </c>
       <c r="F20">
         <v>488636774134</v>
@@ -1004,8 +1011,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E21">
-        <v>2021</v>
+      <c r="E21" s="2">
+        <v>44197</v>
       </c>
       <c r="F21">
         <v>585020854161</v>
@@ -1035,8 +1042,8 @@
           <t>W00</t>
         </is>
       </c>
-      <c r="E22">
-        <v>2022</v>
+      <c r="E22" s="2">
+        <v>44562</v>
       </c>
       <c r="F22">
         <v>618152685111</v>
@@ -1066,8 +1073,8 @@
           <t>CH</t>
         </is>
       </c>
-      <c r="E23">
-        <v>2020</v>
+      <c r="E23" s="2">
+        <v>43831</v>
       </c>
       <c r="F23">
         <v>16460761715</v>
@@ -1097,8 +1104,8 @@
           <t>CH</t>
         </is>
       </c>
-      <c r="E24">
-        <v>2021</v>
+      <c r="E24" s="2">
+        <v>44197</v>
       </c>
       <c r="F24">
         <v>20144923674</v>
@@ -1128,8 +1135,8 @@
           <t>CH</t>
         </is>
       </c>
-      <c r="E25">
-        <v>2022</v>
+      <c r="E25" s="2">
+        <v>44562</v>
       </c>
       <c r="F25">
         <v>21666704853</v>
@@ -1159,8 +1166,8 @@
           <t>SZ</t>
         </is>
       </c>
-      <c r="E26">
-        <v>2020</v>
+      <c r="E26" s="2">
+        <v>43831</v>
       </c>
       <c r="F26">
         <v>2236441</v>
@@ -1190,8 +1197,8 @@
           <t>SZ</t>
         </is>
       </c>
-      <c r="E27">
-        <v>2021</v>
+      <c r="E27" s="2">
+        <v>44197</v>
       </c>
       <c r="F27">
         <v>4341199</v>
@@ -1221,8 +1228,8 @@
           <t>SZ</t>
         </is>
       </c>
-      <c r="E28">
-        <v>2022</v>
+      <c r="E28" s="2">
+        <v>44562</v>
       </c>
       <c r="F28">
         <v>2678222</v>
@@ -1252,8 +1259,8 @@
           <t>GB</t>
         </is>
       </c>
-      <c r="E29">
-        <v>2020</v>
+      <c r="E29" s="2">
+        <v>43831</v>
       </c>
       <c r="F29">
         <v>31261362442</v>
@@ -1283,8 +1290,8 @@
           <t>GB</t>
         </is>
       </c>
-      <c r="E30">
-        <v>2021</v>
+      <c r="E30" s="2">
+        <v>44197</v>
       </c>
       <c r="F30">
         <v>33610715356</v>
@@ -1314,8 +1321,8 @@
           <t>GB</t>
         </is>
       </c>
-      <c r="E31">
-        <v>2022</v>
+      <c r="E31" s="2">
+        <v>44562</v>
       </c>
       <c r="F31">
         <v>35204708597</v>
@@ -1345,8 +1352,8 @@
           <t>PA</t>
         </is>
       </c>
-      <c r="E32">
-        <v>2020</v>
+      <c r="E32" s="2">
+        <v>43831</v>
       </c>
       <c r="F32">
         <v>422686385</v>
@@ -1376,8 +1383,8 @@
           <t>PA</t>
         </is>
       </c>
-      <c r="E33">
-        <v>2021</v>
+      <c r="E33" s="2">
+        <v>44197</v>
       </c>
       <c r="F33">
         <v>594126609</v>
@@ -1407,8 +1414,8 @@
           <t>PA</t>
         </is>
       </c>
-      <c r="E34">
-        <v>2022</v>
+      <c r="E34" s="2">
+        <v>44562</v>
       </c>
       <c r="F34">
         <v>367865581</v>
@@ -1438,8 +1445,8 @@
           <t>PE</t>
         </is>
       </c>
-      <c r="E35">
-        <v>2020</v>
+      <c r="E35" s="2">
+        <v>43831</v>
       </c>
       <c r="F35">
         <v>208454462</v>
@@ -1469,8 +1476,8 @@
           <t>PE</t>
         </is>
       </c>
-      <c r="E36">
-        <v>2021</v>
+      <c r="E36" s="2">
+        <v>44197</v>
       </c>
       <c r="F36">
         <v>246543125</v>
@@ -1500,8 +1507,8 @@
           <t>PE</t>
         </is>
       </c>
-      <c r="E37">
-        <v>2022</v>
+      <c r="E37" s="2">
+        <v>44562</v>
       </c>
       <c r="F37">
         <v>367831333</v>
@@ -1531,8 +1538,8 @@
           <t>DM</t>
         </is>
       </c>
-      <c r="E38">
-        <v>2020</v>
+      <c r="E38" s="2">
+        <v>43831</v>
       </c>
       <c r="F38">
         <v>2611093</v>
@@ -1562,8 +1569,8 @@
           <t>DM</t>
         </is>
       </c>
-      <c r="E39">
-        <v>2021</v>
+      <c r="E39" s="2">
+        <v>44197</v>
       </c>
       <c r="F39">
         <v>1901231</v>
@@ -1593,8 +1600,8 @@
           <t>DM</t>
         </is>
       </c>
-      <c r="E40">
-        <v>2022</v>
+      <c r="E40" s="2">
+        <v>44562</v>
       </c>
       <c r="F40">
         <v>3209918</v>
@@ -1624,8 +1631,8 @@
           <t>1C_080</t>
         </is>
       </c>
-      <c r="E41">
-        <v>2020</v>
+      <c r="E41" s="2">
+        <v>43831</v>
       </c>
       <c r="F41">
         <v>26121348947</v>
@@ -1655,8 +1662,8 @@
           <t>1C_080</t>
         </is>
       </c>
-      <c r="E42">
-        <v>2021</v>
+      <c r="E42" s="2">
+        <v>44197</v>
       </c>
       <c r="F42">
         <v>28636004326</v>
@@ -1686,8 +1693,8 @@
           <t>1C_080</t>
         </is>
       </c>
-      <c r="E43">
-        <v>2022</v>
+      <c r="E43" s="2">
+        <v>44562</v>
       </c>
       <c r="F43">
         <v>23602183958</v>
@@ -1717,8 +1724,8 @@
           <t>KE</t>
         </is>
       </c>
-      <c r="E44">
-        <v>2020</v>
+      <c r="E44" s="2">
+        <v>43831</v>
       </c>
       <c r="F44">
         <v>171397399</v>
@@ -1748,8 +1755,8 @@
           <t>KE</t>
         </is>
       </c>
-      <c r="E45">
-        <v>2021</v>
+      <c r="E45" s="2">
+        <v>44197</v>
       </c>
       <c r="F45">
         <v>185714928</v>
@@ -1779,8 +1786,8 @@
           <t>KE</t>
         </is>
       </c>
-      <c r="E46">
-        <v>2022</v>
+      <c r="E46" s="2">
+        <v>44562</v>
       </c>
       <c r="F46">
         <v>179663133</v>
@@ -1810,8 +1817,8 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="E47">
-        <v>2020</v>
+      <c r="E47" s="2">
+        <v>43831</v>
       </c>
       <c r="F47">
         <v>317276</v>
@@ -1841,8 +1848,8 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="E48">
-        <v>2021</v>
+      <c r="E48" s="2">
+        <v>44197</v>
       </c>
       <c r="F48">
         <v>6058</v>
@@ -1872,8 +1879,8 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="E49">
-        <v>2022</v>
+      <c r="E49" s="2">
+        <v>44562</v>
       </c>
       <c r="F49">
         <v>299356</v>
@@ -1903,8 +1910,8 @@
           <t>SV</t>
         </is>
       </c>
-      <c r="E50">
-        <v>2020</v>
+      <c r="E50" s="2">
+        <v>43831</v>
       </c>
       <c r="F50">
         <v>41617640</v>
@@ -1934,8 +1941,8 @@
           <t>SV</t>
         </is>
       </c>
-      <c r="E51">
-        <v>2021</v>
+      <c r="E51" s="2">
+        <v>44197</v>
       </c>
       <c r="F51">
         <v>41552079</v>
@@ -1965,8 +1972,8 @@
           <t>SV</t>
         </is>
       </c>
-      <c r="E52">
-        <v>2022</v>
+      <c r="E52" s="2">
+        <v>44562</v>
       </c>
       <c r="F52">
         <v>36736304</v>
@@ -1996,8 +2003,8 @@
           <t>LR</t>
         </is>
       </c>
-      <c r="E53">
-        <v>2020</v>
+      <c r="E53" s="2">
+        <v>43831</v>
       </c>
       <c r="F53">
         <v>12560349</v>
@@ -2027,8 +2034,8 @@
           <t>LR</t>
         </is>
       </c>
-      <c r="E54">
-        <v>2021</v>
+      <c r="E54" s="2">
+        <v>44197</v>
       </c>
       <c r="F54">
         <v>89043677</v>
@@ -2058,8 +2065,8 @@
           <t>LR</t>
         </is>
       </c>
-      <c r="E55">
-        <v>2022</v>
+      <c r="E55" s="2">
+        <v>44562</v>
       </c>
       <c r="F55">
         <v>12382100</v>
@@ -2089,8 +2096,8 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="E56">
-        <v>2020</v>
+      <c r="E56" s="2">
+        <v>43831</v>
       </c>
       <c r="F56">
         <v>11860351</v>
@@ -2120,8 +2127,8 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="E57">
-        <v>2021</v>
+      <c r="E57" s="2">
+        <v>44197</v>
       </c>
       <c r="F57">
         <v>19855599</v>
@@ -2151,8 +2158,8 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="E58">
-        <v>2022</v>
+      <c r="E58" s="2">
+        <v>44562</v>
       </c>
       <c r="F58">
         <v>14971042</v>
@@ -2182,8 +2189,8 @@
           <t>BM</t>
         </is>
       </c>
-      <c r="E59">
-        <v>2020</v>
+      <c r="E59" s="2">
+        <v>43831</v>
       </c>
       <c r="F59">
         <v>31756893</v>
@@ -2213,8 +2220,8 @@
           <t>BM</t>
         </is>
       </c>
-      <c r="E60">
-        <v>2021</v>
+      <c r="E60" s="2">
+        <v>44197</v>
       </c>
       <c r="F60">
         <v>10789509</v>
@@ -2244,8 +2251,8 @@
           <t>BM</t>
         </is>
       </c>
-      <c r="E61">
-        <v>2022</v>
+      <c r="E61" s="2">
+        <v>44562</v>
       </c>
       <c r="F61">
         <v>21962192</v>
@@ -2275,8 +2282,8 @@
           <t>BI</t>
         </is>
       </c>
-      <c r="E62">
-        <v>2020</v>
+      <c r="E62" s="2">
+        <v>43831</v>
       </c>
       <c r="F62">
         <v>8572160</v>
@@ -2306,8 +2313,8 @@
           <t>BI</t>
         </is>
       </c>
-      <c r="E63">
-        <v>2021</v>
+      <c r="E63" s="2">
+        <v>44197</v>
       </c>
       <c r="F63">
         <v>10159470</v>
@@ -2337,8 +2344,8 @@
           <t>BI</t>
         </is>
       </c>
-      <c r="E64">
-        <v>2022</v>
+      <c r="E64" s="2">
+        <v>44562</v>
       </c>
       <c r="F64">
         <v>9712572</v>
@@ -2368,8 +2375,8 @@
           <t>MR</t>
         </is>
       </c>
-      <c r="E65">
-        <v>2020</v>
+      <c r="E65" s="2">
+        <v>43831</v>
       </c>
       <c r="F65">
         <v>272576576</v>
@@ -2399,8 +2406,8 @@
           <t>MR</t>
         </is>
       </c>
-      <c r="E66">
-        <v>2021</v>
+      <c r="E66" s="2">
+        <v>44197</v>
       </c>
       <c r="F66">
         <v>209736093</v>
@@ -2430,8 +2437,8 @@
           <t>MR</t>
         </is>
       </c>
-      <c r="E67">
-        <v>2022</v>
+      <c r="E67" s="2">
+        <v>44562</v>
       </c>
       <c r="F67">
         <v>229526945</v>
@@ -2461,8 +2468,8 @@
           <t>BN</t>
         </is>
       </c>
-      <c r="E68">
-        <v>2020</v>
+      <c r="E68" s="2">
+        <v>43831</v>
       </c>
       <c r="F68">
         <v>9382650</v>
@@ -2492,8 +2499,8 @@
           <t>BN</t>
         </is>
       </c>
-      <c r="E69">
-        <v>2021</v>
+      <c r="E69" s="2">
+        <v>44197</v>
       </c>
       <c r="F69">
         <v>8547025</v>
@@ -2523,8 +2530,8 @@
           <t>BN</t>
         </is>
       </c>
-      <c r="E70">
-        <v>2022</v>
+      <c r="E70" s="2">
+        <v>44562</v>
       </c>
       <c r="F70">
         <v>7021530</v>
@@ -2554,8 +2561,8 @@
           <t>SC</t>
         </is>
       </c>
-      <c r="E71">
-        <v>2020</v>
+      <c r="E71" s="2">
+        <v>43831</v>
       </c>
       <c r="F71">
         <v>77585597</v>
@@ -2585,8 +2592,8 @@
           <t>SC</t>
         </is>
       </c>
-      <c r="E72">
-        <v>2021</v>
+      <c r="E72" s="2">
+        <v>44197</v>
       </c>
       <c r="F72">
         <v>52993133</v>
@@ -2616,8 +2623,8 @@
           <t>SC</t>
         </is>
       </c>
-      <c r="E73">
-        <v>2022</v>
+      <c r="E73" s="2">
+        <v>44562</v>
       </c>
       <c r="F73">
         <v>50837639</v>
@@ -2647,8 +2654,8 @@
           <t>CR</t>
         </is>
       </c>
-      <c r="E74">
-        <v>2020</v>
+      <c r="E74" s="2">
+        <v>43831</v>
       </c>
       <c r="F74">
         <v>73262173</v>
@@ -2678,8 +2685,8 @@
           <t>CR</t>
         </is>
       </c>
-      <c r="E75">
-        <v>2021</v>
+      <c r="E75" s="2">
+        <v>44197</v>
       </c>
       <c r="F75">
         <v>72891740</v>
@@ -2709,8 +2716,8 @@
           <t>CR</t>
         </is>
       </c>
-      <c r="E76">
-        <v>2022</v>
+      <c r="E76" s="2">
+        <v>44562</v>
       </c>
       <c r="F76">
         <v>71676954</v>
@@ -2740,8 +2747,8 @@
           <t>KZ</t>
         </is>
       </c>
-      <c r="E77">
-        <v>2020</v>
+      <c r="E77" s="2">
+        <v>43831</v>
       </c>
       <c r="F77">
         <v>687120846</v>
@@ -2771,8 +2778,8 @@
           <t>KZ</t>
         </is>
       </c>
-      <c r="E78">
-        <v>2021</v>
+      <c r="E78" s="2">
+        <v>44197</v>
       </c>
       <c r="F78">
         <v>551293616</v>
@@ -2802,8 +2809,8 @@
           <t>KZ</t>
         </is>
       </c>
-      <c r="E79">
-        <v>2022</v>
+      <c r="E79" s="2">
+        <v>44562</v>
       </c>
       <c r="F79">
         <v>897972993</v>
@@ -2833,8 +2840,8 @@
           <t>AL</t>
         </is>
       </c>
-      <c r="E80">
-        <v>2020</v>
+      <c r="E80" s="2">
+        <v>43831</v>
       </c>
       <c r="F80">
         <v>49789348</v>
@@ -2864,8 +2871,8 @@
           <t>AL</t>
         </is>
       </c>
-      <c r="E81">
-        <v>2021</v>
+      <c r="E81" s="2">
+        <v>44197</v>
       </c>
       <c r="F81">
         <v>55818127</v>
@@ -2895,8 +2902,8 @@
           <t>AL</t>
         </is>
       </c>
-      <c r="E82">
-        <v>2022</v>
+      <c r="E82" s="2">
+        <v>44562</v>
       </c>
       <c r="F82">
         <v>90539762</v>
@@ -2926,8 +2933,8 @@
           <t>MN</t>
         </is>
       </c>
-      <c r="E83">
-        <v>2020</v>
+      <c r="E83" s="2">
+        <v>43831</v>
       </c>
       <c r="F83">
         <v>18775948</v>
@@ -2957,8 +2964,8 @@
           <t>MN</t>
         </is>
       </c>
-      <c r="E84">
-        <v>2021</v>
+      <c r="E84" s="2">
+        <v>44197</v>
       </c>
       <c r="F84">
         <v>39081301</v>
@@ -2988,8 +2995,8 @@
           <t>MN</t>
         </is>
       </c>
-      <c r="E85">
-        <v>2022</v>
+      <c r="E85" s="2">
+        <v>44562</v>
       </c>
       <c r="F85">
         <v>34953017</v>
@@ -3019,8 +3026,8 @@
           <t>NZ</t>
         </is>
       </c>
-      <c r="E86">
-        <v>2020</v>
+      <c r="E86" s="2">
+        <v>43831</v>
       </c>
       <c r="F86">
         <v>426244949</v>
@@ -3050,8 +3057,8 @@
           <t>NZ</t>
         </is>
       </c>
-      <c r="E87">
-        <v>2021</v>
+      <c r="E87" s="2">
+        <v>44197</v>
       </c>
       <c r="F87">
         <v>682429061</v>
@@ -3081,8 +3088,8 @@
           <t>NZ</t>
         </is>
       </c>
-      <c r="E88">
-        <v>2022</v>
+      <c r="E88" s="2">
+        <v>44562</v>
       </c>
       <c r="F88">
         <v>560542597</v>
@@ -3112,8 +3119,8 @@
           <t>GD</t>
         </is>
       </c>
-      <c r="E89">
-        <v>2020</v>
+      <c r="E89" s="2">
+        <v>43831</v>
       </c>
       <c r="F89">
         <v>4601582</v>
@@ -3143,8 +3150,8 @@
           <t>GD</t>
         </is>
       </c>
-      <c r="E90">
-        <v>2021</v>
+      <c r="E90" s="2">
+        <v>44197</v>
       </c>
       <c r="F90">
         <v>2178357</v>
@@ -3174,8 +3181,8 @@
           <t>GD</t>
         </is>
       </c>
-      <c r="E91">
-        <v>2022</v>
+      <c r="E91" s="2">
+        <v>44562</v>
       </c>
       <c r="F91">
         <v>8905415</v>
@@ -3205,8 +3212,8 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="E92">
-        <v>2020</v>
+      <c r="E92" s="2">
+        <v>43831</v>
       </c>
       <c r="F92">
         <v>10675158676</v>
@@ -3236,8 +3243,8 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="E93">
-        <v>2021</v>
+      <c r="E93" s="2">
+        <v>44197</v>
       </c>
       <c r="F93">
         <v>14428314812</v>
@@ -3267,8 +3274,8 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="E94">
-        <v>2022</v>
+      <c r="E94" s="2">
+        <v>44562</v>
       </c>
       <c r="F94">
         <v>14590133815</v>
@@ -3298,8 +3305,8 @@
           <t>XS25</t>
         </is>
       </c>
-      <c r="E95">
-        <v>2020</v>
+      <c r="E95" s="2">
+        <v>43831</v>
       </c>
       <c r="F95">
         <v>34003650716</v>
@@ -3329,8 +3336,8 @@
           <t>XS25</t>
         </is>
       </c>
-      <c r="E96">
-        <v>2021</v>
+      <c r="E96" s="2">
+        <v>44197</v>
       </c>
       <c r="F96">
         <v>46733592377</v>
@@ -3360,8 +3367,8 @@
           <t>XS25</t>
         </is>
       </c>
-      <c r="E97">
-        <v>2022</v>
+      <c r="E97" s="2">
+        <v>44562</v>
       </c>
       <c r="F97">
         <v>39313787887</v>
@@ -3391,8 +3398,8 @@
           <t>IQ</t>
         </is>
       </c>
-      <c r="E98">
-        <v>2020</v>
+      <c r="E98" s="2">
+        <v>43831</v>
       </c>
       <c r="F98">
         <v>382043272</v>
@@ -3422,8 +3429,8 @@
           <t>IQ</t>
         </is>
       </c>
-      <c r="E99">
-        <v>2021</v>
+      <c r="E99" s="2">
+        <v>44197</v>
       </c>
       <c r="F99">
         <v>321191172</v>
@@ -3453,8 +3460,8 @@
           <t>IQ</t>
         </is>
       </c>
-      <c r="E100">
-        <v>2022</v>
+      <c r="E100" s="2">
+        <v>44562</v>
       </c>
       <c r="F100">
         <v>412325871</v>
@@ -3484,8 +3491,8 @@
           <t>OM</t>
         </is>
       </c>
-      <c r="E101">
-        <v>2020</v>
+      <c r="E101" s="2">
+        <v>43831</v>
       </c>
       <c r="F101">
         <v>320268824</v>
@@ -3515,8 +3522,8 @@
           <t>OM</t>
         </is>
       </c>
-      <c r="E102">
-        <v>2021</v>
+      <c r="E102" s="2">
+        <v>44197</v>
       </c>
       <c r="F102">
         <v>197114934</v>
@@ -3546,8 +3553,8 @@
           <t>OM</t>
         </is>
       </c>
-      <c r="E103">
-        <v>2022</v>
+      <c r="E103" s="2">
+        <v>44562</v>
       </c>
       <c r="F103">
         <v>228454064</v>
@@ -3577,8 +3584,8 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="E104">
-        <v>2020</v>
+      <c r="E104" s="2">
+        <v>43831</v>
       </c>
       <c r="F104">
         <v>726373794</v>
@@ -3608,8 +3615,8 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="E105">
-        <v>2021</v>
+      <c r="E105" s="2">
+        <v>44197</v>
       </c>
       <c r="F105">
         <v>1159033662</v>
@@ -3639,8 +3646,8 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="E106">
-        <v>2022</v>
+      <c r="E106" s="2">
+        <v>44562</v>
       </c>
       <c r="F106">
         <v>960174642</v>
@@ -3670,8 +3677,8 @@
           <t>BS</t>
         </is>
       </c>
-      <c r="E107">
-        <v>2020</v>
+      <c r="E107" s="2">
+        <v>43831</v>
       </c>
       <c r="F107">
         <v>28415799</v>
@@ -3701,8 +3708,8 @@
           <t>BS</t>
         </is>
       </c>
-      <c r="E108">
-        <v>2021</v>
+      <c r="E108" s="2">
+        <v>44197</v>
       </c>
       <c r="F108">
         <v>32668860</v>
@@ -3732,8 +3739,8 @@
           <t>BS</t>
         </is>
       </c>
-      <c r="E109">
-        <v>2022</v>
+      <c r="E109" s="2">
+        <v>44562</v>
       </c>
       <c r="F109">
         <v>26594175</v>
@@ -3763,8 +3770,8 @@
           <t>AW</t>
         </is>
       </c>
-      <c r="E110">
-        <v>2020</v>
+      <c r="E110" s="2">
+        <v>43831</v>
       </c>
       <c r="F110">
         <v>5769604</v>
@@ -3794,8 +3801,8 @@
           <t>AW</t>
         </is>
       </c>
-      <c r="E111">
-        <v>2021</v>
+      <c r="E111" s="2">
+        <v>44197</v>
       </c>
       <c r="F111">
         <v>8424079</v>
@@ -3825,8 +3832,8 @@
           <t>AW</t>
         </is>
       </c>
-      <c r="E112">
-        <v>2022</v>
+      <c r="E112" s="2">
+        <v>44562</v>
       </c>
       <c r="F112">
         <v>11664250</v>
@@ -3856,8 +3863,8 @@
           <t>PH</t>
         </is>
       </c>
-      <c r="E113">
-        <v>2020</v>
+      <c r="E113" s="2">
+        <v>43831</v>
       </c>
       <c r="F113">
         <v>571008349</v>
@@ -3887,8 +3894,8 @@
           <t>PH</t>
         </is>
       </c>
-      <c r="E114">
-        <v>2021</v>
+      <c r="E114" s="2">
+        <v>44197</v>
       </c>
       <c r="F114">
         <v>875242881</v>
@@ -3918,8 +3925,8 @@
           <t>PH</t>
         </is>
       </c>
-      <c r="E115">
-        <v>2022</v>
+      <c r="E115" s="2">
+        <v>44562</v>
       </c>
       <c r="F115">
         <v>960326064</v>
@@ -3949,8 +3956,8 @@
           <t>HK</t>
         </is>
       </c>
-      <c r="E116">
-        <v>2020</v>
+      <c r="E116" s="2">
+        <v>43831</v>
       </c>
       <c r="F116">
         <v>5958687856</v>
@@ -3980,8 +3987,8 @@
           <t>HK</t>
         </is>
       </c>
-      <c r="E117">
-        <v>2021</v>
+      <c r="E117" s="2">
+        <v>44197</v>
       </c>
       <c r="F117">
         <v>5973646404</v>
@@ -4011,8 +4018,8 @@
           <t>HK</t>
         </is>
       </c>
-      <c r="E118">
-        <v>2022</v>
+      <c r="E118" s="2">
+        <v>44562</v>
       </c>
       <c r="F118">
         <v>5267747689</v>
@@ -4042,8 +4049,8 @@
           <t>ZM</t>
         </is>
       </c>
-      <c r="E119">
-        <v>2020</v>
+      <c r="E119" s="2">
+        <v>43831</v>
       </c>
       <c r="F119">
         <v>27279769</v>
@@ -4073,8 +4080,8 @@
           <t>ZM</t>
         </is>
       </c>
-      <c r="E120">
-        <v>2021</v>
+      <c r="E120" s="2">
+        <v>44197</v>
       </c>
       <c r="F120">
         <v>30806456</v>
@@ -4104,8 +4111,8 @@
           <t>ZM</t>
         </is>
       </c>
-      <c r="E121">
-        <v>2022</v>
+      <c r="E121" s="2">
+        <v>44562</v>
       </c>
       <c r="F121">
         <v>26350277</v>
@@ -4135,8 +4142,8 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="E122">
-        <v>2020</v>
+      <c r="E122" s="2">
+        <v>43831</v>
       </c>
       <c r="F122">
         <v>1162370893</v>
@@ -4166,8 +4173,8 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="E123">
-        <v>2021</v>
+      <c r="E123" s="2">
+        <v>44197</v>
       </c>
       <c r="F123">
         <v>1093478327</v>
@@ -4197,8 +4204,8 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="E124">
-        <v>2022</v>
+      <c r="E124" s="2">
+        <v>44562</v>
       </c>
       <c r="F124">
         <v>909316281</v>
@@ -4228,8 +4235,8 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="E125">
-        <v>2020</v>
+      <c r="E125" s="2">
+        <v>43831</v>
       </c>
       <c r="F125">
         <v>207</v>
@@ -4259,8 +4266,8 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="E126">
-        <v>2021</v>
+      <c r="E126" s="2">
+        <v>44197</v>
       </c>
       <c r="F126">
         <v>55567</v>
@@ -4290,8 +4297,8 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="E127">
-        <v>2022</v>
+      <c r="E127" s="2">
+        <v>44562</v>
       </c>
       <c r="F127">
         <v>20</v>
@@ -4321,8 +4328,8 @@
           <t>XR43</t>
         </is>
       </c>
-      <c r="E128">
-        <v>2020</v>
+      <c r="E128" s="2">
+        <v>43831</v>
       </c>
       <c r="F128">
         <v>122000923632</v>
@@ -4352,8 +4359,8 @@
           <t>XR43</t>
         </is>
       </c>
-      <c r="E129">
-        <v>2021</v>
+      <c r="E129" s="2">
+        <v>44197</v>
       </c>
       <c r="F129">
         <v>150168639560</v>
@@ -4383,8 +4390,8 @@
           <t>XR43</t>
         </is>
       </c>
-      <c r="E130">
-        <v>2022</v>
+      <c r="E130" s="2">
+        <v>44562</v>
       </c>
       <c r="F130">
         <v>140158756661</v>
@@ -4414,8 +4421,8 @@
           <t>GL</t>
         </is>
       </c>
-      <c r="E131">
-        <v>2020</v>
+      <c r="E131" s="2">
+        <v>43831</v>
       </c>
       <c r="F131">
         <v>5056507</v>
@@ -4445,8 +4452,8 @@
           <t>GL</t>
         </is>
       </c>
-      <c r="E132">
-        <v>2021</v>
+      <c r="E132" s="2">
+        <v>44197</v>
       </c>
       <c r="F132">
         <v>6844279</v>
@@ -4476,8 +4483,8 @@
           <t>GL</t>
         </is>
       </c>
-      <c r="E133">
-        <v>2022</v>
+      <c r="E133" s="2">
+        <v>44562</v>
       </c>
       <c r="F133">
         <v>100027286</v>
@@ -4507,8 +4514,8 @@
           <t>GT</t>
         </is>
       </c>
-      <c r="E134">
-        <v>2020</v>
+      <c r="E134" s="2">
+        <v>43831</v>
       </c>
       <c r="F134">
         <v>52257176</v>
@@ -4538,8 +4545,8 @@
           <t>GT</t>
         </is>
       </c>
-      <c r="E135">
-        <v>2021</v>
+      <c r="E135" s="2">
+        <v>44197</v>
       </c>
       <c r="F135">
         <v>65054381.00000001</v>
@@ -4569,8 +4576,8 @@
           <t>GT</t>
         </is>
       </c>
-      <c r="E136">
-        <v>2022</v>
+      <c r="E136" s="2">
+        <v>44562</v>
       </c>
       <c r="F136">
         <v>72366598</v>
@@ -4600,8 +4607,8 @@
           <t>LA</t>
         </is>
       </c>
-      <c r="E137">
-        <v>2020</v>
+      <c r="E137" s="2">
+        <v>43831</v>
       </c>
       <c r="F137">
         <v>11110581</v>
@@ -4631,8 +4638,8 @@
           <t>LA</t>
         </is>
       </c>
-      <c r="E138">
-        <v>2021</v>
+      <c r="E138" s="2">
+        <v>44197</v>
       </c>
       <c r="F138">
         <v>14309963</v>
@@ -4662,8 +4669,8 @@
           <t>LA</t>
         </is>
       </c>
-      <c r="E139">
-        <v>2022</v>
+      <c r="E139" s="2">
+        <v>44562</v>
       </c>
       <c r="F139">
         <v>16783263</v>
@@ -4693,8 +4700,8 @@
           <t>KN</t>
         </is>
       </c>
-      <c r="E140">
-        <v>2020</v>
+      <c r="E140" s="2">
+        <v>43831</v>
       </c>
       <c r="F140">
         <v>7517495</v>
@@ -4724,8 +4731,8 @@
           <t>KN</t>
         </is>
       </c>
-      <c r="E141">
-        <v>2021</v>
+      <c r="E141" s="2">
+        <v>44197</v>
       </c>
       <c r="F141">
         <v>3837152</v>
@@ -4755,8 +4762,8 @@
           <t>KN</t>
         </is>
       </c>
-      <c r="E142">
-        <v>2022</v>
+      <c r="E142" s="2">
+        <v>44562</v>
       </c>
       <c r="F142">
         <v>2285150</v>
@@ -4786,8 +4793,8 @@
           <t>KG</t>
         </is>
       </c>
-      <c r="E143">
-        <v>2020</v>
+      <c r="E143" s="2">
+        <v>43831</v>
       </c>
       <c r="F143">
         <v>21183448</v>
@@ -4817,8 +4824,8 @@
           <t>KG</t>
         </is>
       </c>
-      <c r="E144">
-        <v>2021</v>
+      <c r="E144" s="2">
+        <v>44197</v>
       </c>
       <c r="F144">
         <v>32665304</v>
@@ -4848,8 +4855,8 @@
           <t>KG</t>
         </is>
       </c>
-      <c r="E145">
-        <v>2022</v>
+      <c r="E145" s="2">
+        <v>44562</v>
       </c>
       <c r="F145">
         <v>41765560</v>
@@ -4879,8 +4886,8 @@
           <t>DE</t>
         </is>
       </c>
-      <c r="E146">
-        <v>2020</v>
+      <c r="E146" s="2">
+        <v>43831</v>
       </c>
       <c r="F146">
         <v>71072534519</v>
@@ -4910,8 +4917,8 @@
           <t>DE</t>
         </is>
       </c>
-      <c r="E147">
-        <v>2021</v>
+      <c r="E147" s="2">
+        <v>44197</v>
       </c>
       <c r="F147">
         <v>83482755616</v>
@@ -4941,8 +4948,8 @@
           <t>DE</t>
         </is>
       </c>
-      <c r="E148">
-        <v>2022</v>
+      <c r="E148" s="2">
+        <v>44562</v>
       </c>
       <c r="F148">
         <v>84557020142</v>
@@ -4972,8 +4979,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="E149">
-        <v>2020</v>
+      <c r="E149" s="2">
+        <v>43831</v>
       </c>
       <c r="F149">
         <v>47499434</v>
@@ -5003,8 +5010,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="E150">
-        <v>2021</v>
+      <c r="E150" s="2">
+        <v>44197</v>
       </c>
       <c r="F150">
         <v>54166527</v>
@@ -5034,8 +5041,8 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="E151">
-        <v>2022</v>
+      <c r="E151" s="2">
+        <v>44562</v>
       </c>
       <c r="F151">
         <v>31132205</v>
@@ -5065,8 +5072,8 @@
           <t>GY</t>
         </is>
       </c>
-      <c r="E152">
-        <v>2020</v>
+      <c r="E152" s="2">
+        <v>43831</v>
       </c>
       <c r="F152">
         <v>5875171</v>
@@ -5096,8 +5103,8 @@
           <t>GY</t>
         </is>
       </c>
-      <c r="E153">
-        <v>2021</v>
+      <c r="E153" s="2">
+        <v>44197</v>
       </c>
       <c r="F153">
         <v>9269708</v>
@@ -5127,8 +5134,8 @@
           <t>GY</t>
         </is>
       </c>
-      <c r="E154">
-        <v>2022</v>
+      <c r="E154" s="2">
+        <v>44562</v>
       </c>
       <c r="F154">
         <v>10248431</v>
@@ -5158,8 +5165,8 @@
           <t>CD</t>
         </is>
       </c>
-      <c r="E155">
-        <v>2020</v>
+      <c r="E155" s="2">
+        <v>43831</v>
       </c>
       <c r="F155">
         <v>164366986</v>
@@ -5189,8 +5196,8 @@
           <t>CD</t>
         </is>
       </c>
-      <c r="E156">
-        <v>2021</v>
+      <c r="E156" s="2">
+        <v>44197</v>
       </c>
       <c r="F156">
         <v>175321008</v>
@@ -5220,8 +5227,8 @@
           <t>CD</t>
         </is>
       </c>
-      <c r="E157">
-        <v>2022</v>
+      <c r="E157" s="2">
+        <v>44562</v>
       </c>
       <c r="F157">
         <v>225774158</v>
@@ -5251,8 +5258,8 @@
           <t>GH</t>
         </is>
       </c>
-      <c r="E158">
-        <v>2020</v>
+      <c r="E158" s="2">
+        <v>43831</v>
       </c>
       <c r="F158">
         <v>251008228</v>
@@ -5282,8 +5289,8 @@
           <t>GH</t>
         </is>
       </c>
-      <c r="E159">
-        <v>2021</v>
+      <c r="E159" s="2">
+        <v>44197</v>
       </c>
       <c r="F159">
         <v>241273865</v>
@@ -5313,8 +5320,8 @@
           <t>GH</t>
         </is>
       </c>
-      <c r="E160">
-        <v>2022</v>
+      <c r="E160" s="2">
+        <v>44562</v>
       </c>
       <c r="F160">
         <v>243976203</v>
@@ -5344,8 +5351,8 @@
           <t>LS</t>
         </is>
       </c>
-      <c r="E161">
-        <v>2020</v>
+      <c r="E161" s="2">
+        <v>43831</v>
       </c>
       <c r="F161">
         <v>2850359</v>
@@ -5375,8 +5382,8 @@
           <t>LS</t>
         </is>
       </c>
-      <c r="E162">
-        <v>2021</v>
+      <c r="E162" s="2">
+        <v>44197</v>
       </c>
       <c r="F162">
         <v>384035</v>
@@ -5406,8 +5413,8 @@
           <t>LS</t>
         </is>
       </c>
-      <c r="E163">
-        <v>2022</v>
+      <c r="E163" s="2">
+        <v>44562</v>
       </c>
       <c r="F163">
         <v>430722</v>
@@ -5437,8 +5444,8 @@
           <t>FJ</t>
         </is>
       </c>
-      <c r="E164">
-        <v>2020</v>
+      <c r="E164" s="2">
+        <v>43831</v>
       </c>
       <c r="F164">
         <v>6438222</v>
@@ -5468,8 +5475,8 @@
           <t>FJ</t>
         </is>
       </c>
-      <c r="E165">
-        <v>2021</v>
+      <c r="E165" s="2">
+        <v>44197</v>
       </c>
       <c r="F165">
         <v>18724065</v>
@@ -5499,8 +5506,8 @@
           <t>FJ</t>
         </is>
       </c>
-      <c r="E166">
-        <v>2022</v>
+      <c r="E166" s="2">
+        <v>44562</v>
       </c>
       <c r="F166">
         <v>4477680</v>
@@ -5530,8 +5537,8 @@
           <t>ML</t>
         </is>
       </c>
-      <c r="E167">
-        <v>2020</v>
+      <c r="E167" s="2">
+        <v>43831</v>
       </c>
       <c r="F167">
         <v>424324890</v>
@@ -5561,8 +5568,8 @@
           <t>ML</t>
         </is>
       </c>
-      <c r="E168">
-        <v>2021</v>
+      <c r="E168" s="2">
+        <v>44197</v>
       </c>
       <c r="F168">
         <v>481826718</v>
@@ -5592,8 +5599,8 @@
           <t>ML</t>
         </is>
       </c>
-      <c r="E169">
-        <v>2022</v>
+      <c r="E169" s="2">
+        <v>44562</v>
       </c>
       <c r="F169">
         <v>373708037</v>
@@ -5623,8 +5630,8 @@
           <t>BJ</t>
         </is>
       </c>
-      <c r="E170">
-        <v>2020</v>
+      <c r="E170" s="2">
+        <v>43831</v>
       </c>
       <c r="F170">
         <v>204817518</v>
@@ -5654,8 +5661,8 @@
           <t>BJ</t>
         </is>
       </c>
-      <c r="E171">
-        <v>2021</v>
+      <c r="E171" s="2">
+        <v>44197</v>
       </c>
       <c r="F171">
         <v>266794525</v>
@@ -5685,8 +5692,8 @@
           <t>BJ</t>
         </is>
       </c>
-      <c r="E172">
-        <v>2022</v>
+      <c r="E172" s="2">
+        <v>44562</v>
       </c>
       <c r="F172">
         <v>247146201</v>
@@ -5716,8 +5723,8 @@
           <t>XR29</t>
         </is>
       </c>
-      <c r="E173">
-        <v>2020</v>
+      <c r="E173" s="2">
+        <v>43831</v>
       </c>
       <c r="F173">
         <v>364624158055</v>
@@ -5747,8 +5754,8 @@
           <t>XR29</t>
         </is>
       </c>
-      <c r="E174">
-        <v>2021</v>
+      <c r="E174" s="2">
+        <v>44197</v>
       </c>
       <c r="F174">
         <v>431570496877</v>
@@ -5778,8 +5785,8 @@
           <t>XR29</t>
         </is>
       </c>
-      <c r="E175">
-        <v>2022</v>
+      <c r="E175" s="2">
+        <v>44562</v>
       </c>
       <c r="F175">
         <v>466129941841</v>
@@ -5809,8 +5816,8 @@
           <t>CO</t>
         </is>
       </c>
-      <c r="E176">
-        <v>2020</v>
+      <c r="E176" s="2">
+        <v>43831</v>
       </c>
       <c r="F176">
         <v>531386184.9999999</v>
@@ -5840,8 +5847,8 @@
           <t>CO</t>
         </is>
       </c>
-      <c r="E177">
-        <v>2021</v>
+      <c r="E177" s="2">
+        <v>44197</v>
       </c>
       <c r="F177">
         <v>736107543</v>
@@ -5871,8 +5878,8 @@
           <t>CO</t>
         </is>
       </c>
-      <c r="E178">
-        <v>2022</v>
+      <c r="E178" s="2">
+        <v>44562</v>
       </c>
       <c r="F178">
         <v>1182289290</v>
@@ -5902,8 +5909,8 @@
           <t>F19</t>
         </is>
       </c>
-      <c r="E179">
-        <v>2020</v>
+      <c r="E179" s="2">
+        <v>43831</v>
       </c>
       <c r="F179">
         <v>1661921</v>
@@ -5933,8 +5940,8 @@
           <t>F19</t>
         </is>
       </c>
-      <c r="E180">
-        <v>2021</v>
+      <c r="E180" s="2">
+        <v>44197</v>
       </c>
       <c r="F180">
         <v>519200</v>
@@ -5964,8 +5971,8 @@
           <t>F19</t>
         </is>
       </c>
-      <c r="E181">
-        <v>2022</v>
+      <c r="E181" s="2">
+        <v>44562</v>
       </c>
       <c r="F181">
         <v>256345</v>
@@ -5995,8 +6002,8 @@
           <t>SE</t>
         </is>
       </c>
-      <c r="E182">
-        <v>2020</v>
+      <c r="E182" s="2">
+        <v>43831</v>
       </c>
       <c r="F182">
         <v>5935751446</v>
@@ -6026,8 +6033,8 @@
           <t>SE</t>
         </is>
       </c>
-      <c r="E183">
-        <v>2021</v>
+      <c r="E183" s="2">
+        <v>44197</v>
       </c>
       <c r="F183">
         <v>6970305184</v>
@@ -6057,8 +6064,8 @@
           <t>SE</t>
         </is>
       </c>
-      <c r="E184">
-        <v>2022</v>
+      <c r="E184" s="2">
+        <v>44562</v>
       </c>
       <c r="F184">
         <v>6545947766</v>
@@ -6088,8 +6095,8 @@
           <t>TV</t>
         </is>
       </c>
-      <c r="E185">
-        <v>2020</v>
+      <c r="E185" s="2">
+        <v>43831</v>
       </c>
       <c r="F185">
         <v>97680</v>
@@ -6119,8 +6126,8 @@
           <t>TV</t>
         </is>
       </c>
-      <c r="E186">
-        <v>2021</v>
+      <c r="E186" s="2">
+        <v>44197</v>
       </c>
       <c r="F186">
         <v>48222</v>
@@ -6150,8 +6157,8 @@
           <t>TV</t>
         </is>
       </c>
-      <c r="E187">
-        <v>2022</v>
+      <c r="E187" s="2">
+        <v>44562</v>
       </c>
       <c r="F187">
         <v>6457</v>
@@ -6181,8 +6188,8 @@
           <t>AU</t>
         </is>
       </c>
-      <c r="E188">
-        <v>2020</v>
+      <c r="E188" s="2">
+        <v>43831</v>
       </c>
       <c r="F188">
         <v>3152228861</v>
@@ -6212,8 +6219,8 @@
           <t>AU</t>
         </is>
       </c>
-      <c r="E189">
-        <v>2021</v>
+      <c r="E189" s="2">
+        <v>44197</v>
       </c>
       <c r="F189">
         <v>3563845694</v>
@@ -6243,8 +6250,8 @@
           <t>AU</t>
         </is>
       </c>
-      <c r="E190">
-        <v>2022</v>
+      <c r="E190" s="2">
+        <v>44562</v>
       </c>
       <c r="F190">
         <v>3525215598</v>
@@ -6274,8 +6281,8 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="E191">
-        <v>2020</v>
+      <c r="E191" s="2">
+        <v>43831</v>
       </c>
       <c r="F191">
         <v>929862463</v>
@@ -6305,8 +6312,8 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="E192">
-        <v>2021</v>
+      <c r="E192" s="2">
+        <v>44197</v>
       </c>
       <c r="F192">
         <v>884645932</v>
@@ -6336,8 +6343,8 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="E193">
-        <v>2022</v>
+      <c r="E193" s="2">
+        <v>44562</v>
       </c>
       <c r="F193">
         <v>814591729</v>
@@ -6367,8 +6374,8 @@
           <t>F6</t>
         </is>
       </c>
-      <c r="E194">
-        <v>2020</v>
+      <c r="E194" s="2">
+        <v>43831</v>
       </c>
       <c r="F194">
         <v>10138416989</v>
@@ -6398,8 +6405,8 @@
           <t>F6</t>
         </is>
       </c>
-      <c r="E195">
-        <v>2021</v>
+      <c r="E195" s="2">
+        <v>44197</v>
       </c>
       <c r="F195">
         <v>11502908719</v>
@@ -6429,8 +6436,8 @@
           <t>F6</t>
         </is>
       </c>
-      <c r="E196">
-        <v>2022</v>
+      <c r="E196" s="2">
+        <v>44562</v>
       </c>
       <c r="F196">
         <v>10711478888</v>
@@ -6460,8 +6467,8 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="E197">
-        <v>2020</v>
+      <c r="E197" s="2">
+        <v>43831</v>
       </c>
       <c r="F197">
         <v>671168962</v>
@@ -6491,8 +6498,8 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="E198">
-        <v>2021</v>
+      <c r="E198" s="2">
+        <v>44197</v>
       </c>
       <c r="F198">
         <v>751001400</v>
@@ -6522,8 +6529,8 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="E199">
-        <v>2022</v>
+      <c r="E199" s="2">
+        <v>44562</v>
       </c>
       <c r="F199">
         <v>870112471</v>
@@ -6553,8 +6560,8 @@
           <t>GE</t>
         </is>
       </c>
-      <c r="E200">
-        <v>2020</v>
+      <c r="E200" s="2">
+        <v>43831</v>
       </c>
       <c r="F200">
         <v>168085829</v>
@@ -6584,8 +6591,8 @@
           <t>GE</t>
         </is>
       </c>
-      <c r="E201">
-        <v>2021</v>
+      <c r="E201" s="2">
+        <v>44197</v>
       </c>
       <c r="F201">
         <v>233894736</v>
@@ -6615,8 +6622,8 @@
           <t>GE</t>
         </is>
       </c>
-      <c r="E202">
-        <v>2022</v>
+      <c r="E202" s="2">
+        <v>44562</v>
       </c>
       <c r="F202">
         <v>234619201</v>
@@ -6646,8 +6653,8 @@
           <t>FO</t>
         </is>
       </c>
-      <c r="E203">
-        <v>2020</v>
+      <c r="E203" s="2">
+        <v>43831</v>
       </c>
       <c r="F203">
         <v>73592844</v>
@@ -6677,8 +6684,8 @@
           <t>FO</t>
         </is>
       </c>
-      <c r="E204">
-        <v>2021</v>
+      <c r="E204" s="2">
+        <v>44197</v>
       </c>
       <c r="F204">
         <v>1752393</v>
@@ -6708,8 +6715,8 @@
           <t>FO</t>
         </is>
       </c>
-      <c r="E205">
-        <v>2022</v>
+      <c r="E205" s="2">
+        <v>44562</v>
       </c>
       <c r="F205">
         <v>1271155</v>
@@ -6739,8 +6746,8 @@
           <t>BR</t>
         </is>
       </c>
-      <c r="E206">
-        <v>2020</v>
+      <c r="E206" s="2">
+        <v>43831</v>
       </c>
       <c r="F206">
         <v>3532307398</v>
@@ -6770,8 +6777,8 @@
           <t>BR</t>
         </is>
       </c>
-      <c r="E207">
-        <v>2021</v>
+      <c r="E207" s="2">
+        <v>44197</v>
       </c>
       <c r="F207">
         <v>4053206092</v>
@@ -6801,8 +6808,8 @@
           <t>BR</t>
         </is>
       </c>
-      <c r="E208">
-        <v>2022</v>
+      <c r="E208" s="2">
+        <v>44562</v>
       </c>
       <c r="F208">
         <v>4230216523</v>
@@ -6832,8 +6839,8 @@
           <t>ME</t>
         </is>
       </c>
-      <c r="E209">
-        <v>2020</v>
+      <c r="E209" s="2">
+        <v>43831</v>
       </c>
       <c r="F209">
         <v>39581459</v>
@@ -6863,8 +6870,8 @@
           <t>ME</t>
         </is>
       </c>
-      <c r="E210">
-        <v>2021</v>
+      <c r="E210" s="2">
+        <v>44197</v>
       </c>
       <c r="F210">
         <v>38609287</v>
@@ -6894,8 +6901,8 @@
           <t>ME</t>
         </is>
       </c>
-      <c r="E211">
-        <v>2022</v>
+      <c r="E211" s="2">
+        <v>44562</v>
       </c>
       <c r="F211">
         <v>50173143</v>
@@ -6925,8 +6932,8 @@
           <t>VC</t>
         </is>
       </c>
-      <c r="E212">
-        <v>2020</v>
+      <c r="E212" s="2">
+        <v>43831</v>
       </c>
       <c r="F212">
         <v>2952300</v>
@@ -6956,8 +6963,8 @@
           <t>VC</t>
         </is>
       </c>
-      <c r="E213">
-        <v>2021</v>
+      <c r="E213" s="2">
+        <v>44197</v>
       </c>
       <c r="F213">
         <v>22710719</v>
@@ -6987,8 +6994,8 @@
           <t>VC</t>
         </is>
       </c>
-      <c r="E214">
-        <v>2022</v>
+      <c r="E214" s="2">
+        <v>44562</v>
       </c>
       <c r="F214">
         <v>3398784</v>
@@ -7018,8 +7025,8 @@
           <t>RW</t>
         </is>
       </c>
-      <c r="E215">
-        <v>2020</v>
+      <c r="E215" s="2">
+        <v>43831</v>
       </c>
       <c r="F215">
         <v>22696363</v>
@@ -7049,8 +7056,8 @@
           <t>RW</t>
         </is>
       </c>
-      <c r="E216">
-        <v>2021</v>
+      <c r="E216" s="2">
+        <v>44197</v>
       </c>
       <c r="F216">
         <v>29720960</v>
@@ -7080,8 +7087,8 @@
           <t>RW</t>
         </is>
       </c>
-      <c r="E217">
-        <v>2022</v>
+      <c r="E217" s="2">
+        <v>44562</v>
       </c>
       <c r="F217">
         <v>32980259</v>
@@ -7111,8 +7118,8 @@
           <t>S19</t>
         </is>
       </c>
-      <c r="E218">
-        <v>2020</v>
+      <c r="E218" s="2">
+        <v>43831</v>
       </c>
       <c r="F218">
         <v>25142162</v>
@@ -7142,8 +7149,8 @@
           <t>S19</t>
         </is>
       </c>
-      <c r="E219">
-        <v>2021</v>
+      <c r="E219" s="2">
+        <v>44197</v>
       </c>
       <c r="F219">
         <v>38113812</v>
@@ -7173,8 +7180,8 @@
           <t>S19</t>
         </is>
       </c>
-      <c r="E220">
-        <v>2022</v>
+      <c r="E220" s="2">
+        <v>44562</v>
       </c>
       <c r="F220">
         <v>24658763</v>
@@ -7204,8 +7211,8 @@
           <t>MD</t>
         </is>
       </c>
-      <c r="E221">
-        <v>2020</v>
+      <c r="E221" s="2">
+        <v>43831</v>
       </c>
       <c r="F221">
         <v>72958530</v>
@@ -7235,8 +7242,8 @@
           <t>MD</t>
         </is>
       </c>
-      <c r="E222">
-        <v>2021</v>
+      <c r="E222" s="2">
+        <v>44197</v>
       </c>
       <c r="F222">
         <v>90917354</v>
@@ -7266,8 +7273,8 @@
           <t>MD</t>
         </is>
       </c>
-      <c r="E223">
-        <v>2022</v>
+      <c r="E223" s="2">
+        <v>44562</v>
       </c>
       <c r="F223">
         <v>109101060</v>
@@ -7297,8 +7304,8 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="E224">
-        <v>2020</v>
+      <c r="E224" s="2">
+        <v>43831</v>
       </c>
       <c r="F224">
         <v>536507</v>
@@ -7328,8 +7335,8 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="E225">
-        <v>2021</v>
+      <c r="E225" s="2">
+        <v>44197</v>
       </c>
       <c r="F225">
         <v>183355</v>
@@ -7359,8 +7366,8 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="E226">
-        <v>2022</v>
+      <c r="E226" s="2">
+        <v>44562</v>
       </c>
       <c r="F226">
         <v>44871</v>
@@ -7390,8 +7397,8 @@
           <t>E1</t>
         </is>
       </c>
-      <c r="E227">
-        <v>2020</v>
+      <c r="E227" s="2">
+        <v>43831</v>
       </c>
       <c r="F227">
         <v>36972475268</v>
@@ -7421,8 +7428,8 @@
           <t>E1</t>
         </is>
       </c>
-      <c r="E228">
-        <v>2021</v>
+      <c r="E228" s="2">
+        <v>44197</v>
       </c>
       <c r="F228">
         <v>45752729043</v>
@@ -7452,8 +7459,8 @@
           <t>E1</t>
         </is>
       </c>
-      <c r="E229">
-        <v>2022</v>
+      <c r="E229" s="2">
+        <v>44562</v>
       </c>
       <c r="F229">
         <v>42803743017</v>
@@ -7483,8 +7490,8 @@
           <t>TZ</t>
         </is>
       </c>
-      <c r="E230">
-        <v>2020</v>
+      <c r="E230" s="2">
+        <v>43831</v>
       </c>
       <c r="F230">
         <v>83298726</v>
@@ -7514,8 +7521,8 @@
           <t>TZ</t>
         </is>
       </c>
-      <c r="E231">
-        <v>2021</v>
+      <c r="E231" s="2">
+        <v>44197</v>
       </c>
       <c r="F231">
         <v>186806346</v>
@@ -7545,8 +7552,8 @@
           <t>TZ</t>
         </is>
       </c>
-      <c r="E232">
-        <v>2022</v>
+      <c r="E232" s="2">
+        <v>44562</v>
       </c>
       <c r="F232">
         <v>72073613</v>
@@ -7576,8 +7583,8 @@
           <t>AE</t>
         </is>
       </c>
-      <c r="E233">
-        <v>2020</v>
+      <c r="E233" s="2">
+        <v>43831</v>
       </c>
       <c r="F233">
         <v>3744307863</v>
@@ -7607,8 +7614,8 @@
           <t>AE</t>
         </is>
       </c>
-      <c r="E234">
-        <v>2021</v>
+      <c r="E234" s="2">
+        <v>44197</v>
       </c>
       <c r="F234">
         <v>4931892302</v>
@@ -7638,8 +7645,8 @@
           <t>AE</t>
         </is>
       </c>
-      <c r="E235">
-        <v>2022</v>
+      <c r="E235" s="2">
+        <v>44562</v>
       </c>
       <c r="F235">
         <v>4671068958</v>
@@ -7669,8 +7676,8 @@
           <t>BO</t>
         </is>
       </c>
-      <c r="E236">
-        <v>2020</v>
+      <c r="E236" s="2">
+        <v>43831</v>
       </c>
       <c r="F236">
         <v>32191808</v>
@@ -7700,8 +7707,8 @@
           <t>BO</t>
         </is>
       </c>
-      <c r="E237">
-        <v>2021</v>
+      <c r="E237" s="2">
+        <v>44197</v>
       </c>
       <c r="F237">
         <v>37469236</v>
@@ -7731,8 +7738,8 @@
           <t>BO</t>
         </is>
       </c>
-      <c r="E238">
-        <v>2022</v>
+      <c r="E238" s="2">
+        <v>44562</v>
       </c>
       <c r="F238">
         <v>41132147</v>
@@ -7762,8 +7769,8 @@
           <t>CV</t>
         </is>
       </c>
-      <c r="E239">
-        <v>2020</v>
+      <c r="E239" s="2">
+        <v>43831</v>
       </c>
       <c r="F239">
         <v>20908004</v>
@@ -7793,8 +7800,8 @@
           <t>CV</t>
         </is>
       </c>
-      <c r="E240">
-        <v>2021</v>
+      <c r="E240" s="2">
+        <v>44197</v>
       </c>
       <c r="F240">
         <v>22529425</v>
@@ -7824,8 +7831,8 @@
           <t>CV</t>
         </is>
       </c>
-      <c r="E241">
-        <v>2022</v>
+      <c r="E241" s="2">
+        <v>44562</v>
       </c>
       <c r="F241">
         <v>11292985</v>
@@ -7855,8 +7862,8 @@
           <t>ES</t>
         </is>
       </c>
-      <c r="E242">
-        <v>2020</v>
+      <c r="E242" s="2">
+        <v>43831</v>
       </c>
       <c r="F242">
         <v>35885955833</v>
@@ -7886,8 +7893,8 @@
           <t>ES</t>
         </is>
       </c>
-      <c r="E243">
-        <v>2021</v>
+      <c r="E243" s="2">
+        <v>44197</v>
       </c>
       <c r="F243">
         <v>43946876186</v>
@@ -7917,8 +7924,8 @@
           <t>ES</t>
         </is>
       </c>
-      <c r="E244">
-        <v>2022</v>
+      <c r="E244" s="2">
+        <v>44562</v>
       </c>
       <c r="F244">
         <v>46963075792</v>
@@ -7948,8 +7955,8 @@
           <t>VU</t>
         </is>
       </c>
-      <c r="E245">
-        <v>2020</v>
+      <c r="E245" s="2">
+        <v>43831</v>
       </c>
       <c r="F245">
         <v>5414170</v>
@@ -7979,8 +7986,8 @@
           <t>VU</t>
         </is>
       </c>
-      <c r="E246">
-        <v>2021</v>
+      <c r="E246" s="2">
+        <v>44197</v>
       </c>
       <c r="F246">
         <v>5722050</v>
@@ -8010,8 +8017,8 @@
           <t>VU</t>
         </is>
       </c>
-      <c r="E247">
-        <v>2022</v>
+      <c r="E247" s="2">
+        <v>44562</v>
       </c>
       <c r="F247">
         <v>9491966</v>
@@ -8041,8 +8048,8 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="E248">
-        <v>2020</v>
+      <c r="E248" s="2">
+        <v>43831</v>
       </c>
       <c r="F248">
         <v>659110873</v>
@@ -8072,8 +8079,8 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="E249">
-        <v>2021</v>
+      <c r="E249" s="2">
+        <v>44197</v>
       </c>
       <c r="F249">
         <v>731144299</v>
@@ -8103,8 +8110,8 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="E250">
-        <v>2022</v>
+      <c r="E250" s="2">
+        <v>44562</v>
       </c>
       <c r="F250">
         <v>606528206</v>
@@ -8134,8 +8141,8 @@
           <t>JP</t>
         </is>
       </c>
-      <c r="E251">
-        <v>2020</v>
+      <c r="E251" s="2">
+        <v>43831</v>
       </c>
       <c r="F251">
         <v>6528810864</v>
@@ -8165,8 +8172,8 @@
           <t>JP</t>
         </is>
       </c>
-      <c r="E252">
-        <v>2021</v>
+      <c r="E252" s="2">
+        <v>44197</v>
       </c>
       <c r="F252">
         <v>7760208149</v>
@@ -8196,8 +8203,8 @@
           <t>JP</t>
         </is>
       </c>
-      <c r="E253">
-        <v>2022</v>
+      <c r="E253" s="2">
+        <v>44562</v>
       </c>
       <c r="F253">
         <v>6703909099</v>
@@ -8227,8 +8234,8 @@
           <t>GI</t>
         </is>
       </c>
-      <c r="E254">
-        <v>2020</v>
+      <c r="E254" s="2">
+        <v>43831</v>
       </c>
       <c r="F254">
         <v>188496784</v>
@@ -8258,8 +8265,8 @@
           <t>GI</t>
         </is>
       </c>
-      <c r="E255">
-        <v>2021</v>
+      <c r="E255" s="2">
+        <v>44197</v>
       </c>
       <c r="F255">
         <v>304536842</v>
@@ -8289,8 +8296,8 @@
           <t>GI</t>
         </is>
       </c>
-      <c r="E256">
-        <v>2022</v>
+      <c r="E256" s="2">
+        <v>44562</v>
       </c>
       <c r="F256">
         <v>459234547</v>
@@ -8320,8 +8327,8 @@
           <t>HN</t>
         </is>
       </c>
-      <c r="E257">
-        <v>2020</v>
+      <c r="E257" s="2">
+        <v>43831</v>
       </c>
       <c r="F257">
         <v>17431712</v>
@@ -8351,8 +8358,8 @@
           <t>HN</t>
         </is>
       </c>
-      <c r="E258">
-        <v>2021</v>
+      <c r="E258" s="2">
+        <v>44197</v>
       </c>
       <c r="F258">
         <v>35545702</v>
@@ -8382,8 +8389,8 @@
           <t>HN</t>
         </is>
       </c>
-      <c r="E259">
-        <v>2022</v>
+      <c r="E259" s="2">
+        <v>44562</v>
       </c>
       <c r="F259">
         <v>33274776</v>
@@ -8413,8 +8420,8 @@
           <t>1C_440</t>
         </is>
       </c>
-      <c r="E260">
-        <v>2020</v>
+      <c r="E260" s="2">
+        <v>43831</v>
       </c>
       <c r="F260">
         <v>28995630523</v>
@@ -8444,8 +8451,8 @@
           <t>1C_440</t>
         </is>
       </c>
-      <c r="E261">
-        <v>2021</v>
+      <c r="E261" s="2">
+        <v>44197</v>
       </c>
       <c r="F261">
         <v>31319832121</v>
@@ -8475,8 +8482,8 @@
           <t>1C_440</t>
         </is>
       </c>
-      <c r="E262">
-        <v>2022</v>
+      <c r="E262" s="2">
+        <v>44562</v>
       </c>
       <c r="F262">
         <v>31660887042</v>
@@ -8506,8 +8513,8 @@
           <t>EE</t>
         </is>
       </c>
-      <c r="E263">
-        <v>2020</v>
+      <c r="E263" s="2">
+        <v>43831</v>
       </c>
       <c r="F263">
         <v>345609765</v>
@@ -8537,8 +8544,8 @@
           <t>EE</t>
         </is>
       </c>
-      <c r="E264">
-        <v>2021</v>
+      <c r="E264" s="2">
+        <v>44197</v>
       </c>
       <c r="F264">
         <v>529459210</v>
@@ -8568,8 +8575,8 @@
           <t>EE</t>
         </is>
       </c>
-      <c r="E265">
-        <v>2022</v>
+      <c r="E265" s="2">
+        <v>44562</v>
       </c>
       <c r="F265">
         <v>481800562</v>
@@ -8599,8 +8606,8 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E266">
-        <v>2020</v>
+      <c r="E266" s="2">
+        <v>43831</v>
       </c>
       <c r="F266">
         <v>3581214115</v>
@@ -8630,8 +8637,8 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E267">
-        <v>2021</v>
+      <c r="E267" s="2">
+        <v>44197</v>
       </c>
       <c r="F267">
         <v>4061564775</v>
@@ -8661,8 +8668,8 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="E268">
-        <v>2022</v>
+      <c r="E268" s="2">
+        <v>44562</v>
       </c>
       <c r="F268">
         <v>4302726443</v>
@@ -8692,8 +8699,8 @@
           <t>GU</t>
         </is>
       </c>
-      <c r="E269">
-        <v>2020</v>
+      <c r="E269" s="2">
+        <v>43831</v>
       </c>
       <c r="F269">
         <v>4146731</v>
@@ -8723,8 +8730,8 @@
           <t>GU</t>
         </is>
       </c>
-      <c r="E270">
-        <v>2021</v>
+      <c r="E270" s="2">
+        <v>44197</v>
       </c>
       <c r="F270">
         <v>3977446</v>
@@ -8754,8 +8761,8 @@
           <t>GU</t>
         </is>
       </c>
-      <c r="E271">
-        <v>2022</v>
+      <c r="E271" s="2">
+        <v>44562</v>
       </c>
       <c r="F271">
         <v>8494484</v>
@@ -8785,8 +8792,8 @@
           <t>SN</t>
         </is>
       </c>
-      <c r="E272">
-        <v>2020</v>
+      <c r="E272" s="2">
+        <v>43831</v>
       </c>
       <c r="F272">
         <v>918269161</v>
@@ -8816,8 +8823,8 @@
           <t>SN</t>
         </is>
       </c>
-      <c r="E273">
-        <v>2021</v>
+      <c r="E273" s="2">
+        <v>44197</v>
       </c>
       <c r="F273">
         <v>964691251</v>
@@ -8847,8 +8854,8 @@
           <t>SN</t>
         </is>
       </c>
-      <c r="E274">
-        <v>2022</v>
+      <c r="E274" s="2">
+        <v>44562</v>
       </c>
       <c r="F274">
         <v>982136301</v>
@@ -8878,8 +8885,8 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E275">
-        <v>2020</v>
+      <c r="E275" s="2">
+        <v>43831</v>
       </c>
       <c r="F275">
         <v>261326693238</v>
@@ -8909,8 +8916,8 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E276">
-        <v>2021</v>
+      <c r="E276" s="2">
+        <v>44197</v>
       </c>
       <c r="F276">
         <v>319347661916</v>
@@ -8940,8 +8947,8 @@
           <t>B0</t>
         </is>
       </c>
-      <c r="E277">
-        <v>2022</v>
+      <c r="E277" s="2">
+        <v>44562</v>
       </c>
       <c r="F277">
         <v>343041005955</v>
@@ -8971,8 +8978,8 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="E278">
-        <v>2020</v>
+      <c r="E278" s="2">
+        <v>43831</v>
       </c>
       <c r="F278">
         <v>15198458</v>
@@ -9002,8 +9009,8 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="E279">
-        <v>2021</v>
+      <c r="E279" s="2">
+        <v>44197</v>
       </c>
       <c r="F279">
         <v>12365081</v>
@@ -9033,8 +9040,8 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="E280">
-        <v>2022</v>
+      <c r="E280" s="2">
+        <v>44562</v>
       </c>
       <c r="F280">
         <v>18508873</v>
@@ -9064,8 +9071,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="E281">
-        <v>2020</v>
+      <c r="E281" s="2">
+        <v>43831</v>
       </c>
       <c r="F281">
         <v>3544087875</v>
@@ -9095,8 +9102,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="E282">
-        <v>2021</v>
+      <c r="E282" s="2">
+        <v>44197</v>
       </c>
       <c r="F282">
         <v>3996661437</v>
@@ -9126,8 +9133,8 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="E283">
-        <v>2022</v>
+      <c r="E283" s="2">
+        <v>44562</v>
       </c>
       <c r="F283">
         <v>4058614168</v>
@@ -9157,8 +9164,8 @@
           <t>TJ</t>
         </is>
       </c>
-      <c r="E284">
-        <v>2020</v>
+      <c r="E284" s="2">
+        <v>43831</v>
       </c>
       <c r="F284">
         <v>4702441</v>
@@ -9188,8 +9195,8 @@
           <t>TJ</t>
         </is>
       </c>
-      <c r="E285">
-        <v>2021</v>
+      <c r="E285" s="2">
+        <v>44197</v>
       </c>
       <c r="F285">
         <v>10584494</v>
@@ -9219,8 +9226,8 @@
           <t>TJ</t>
         </is>
       </c>
-      <c r="E286">
-        <v>2022</v>
+      <c r="E286" s="2">
+        <v>44562</v>
       </c>
       <c r="F286">
         <v>9603207</v>
@@ -9250,8 +9257,8 @@
           <t>MM</t>
         </is>
       </c>
-      <c r="E287">
-        <v>2020</v>
+      <c r="E287" s="2">
+        <v>43831</v>
       </c>
       <c r="F287">
         <v>63180323</v>
@@ -9281,8 +9288,8 @@
           <t>MM</t>
         </is>
       </c>
-      <c r="E288">
-        <v>2021</v>
+      <c r="E288" s="2">
+        <v>44197</v>
       </c>
       <c r="F288">
         <v>47474965</v>
@@ -9312,8 +9319,8 @@
           <t>MM</t>
         </is>
       </c>
-      <c r="E289">
-        <v>2022</v>
+      <c r="E289" s="2">
+        <v>44562</v>
       </c>
       <c r="F289">
         <v>54497509</v>
@@ -9343,8 +9350,8 @@
           <t>DO</t>
         </is>
       </c>
-      <c r="E290">
-        <v>2020</v>
+      <c r="E290" s="2">
+        <v>43831</v>
       </c>
       <c r="F290">
         <v>114354768</v>
@@ -9374,8 +9381,8 @@
           <t>DO</t>
         </is>
       </c>
-      <c r="E291">
-        <v>2021</v>
+      <c r="E291" s="2">
+        <v>44197</v>
       </c>
       <c r="F291">
         <v>192233269</v>
@@ -9405,8 +9412,8 @@
           <t>DO</t>
         </is>
       </c>
-      <c r="E292">
-        <v>2022</v>
+      <c r="E292" s="2">
+        <v>44562</v>
       </c>
       <c r="F292">
         <v>227189013</v>
@@ -9436,8 +9443,8 @@
           <t>DK</t>
         </is>
       </c>
-      <c r="E293">
-        <v>2020</v>
+      <c r="E293" s="2">
+        <v>43831</v>
       </c>
       <c r="F293">
         <v>3422666897</v>
@@ -9467,8 +9474,8 @@
           <t>DK</t>
         </is>
       </c>
-      <c r="E294">
-        <v>2021</v>
+      <c r="E294" s="2">
+        <v>44197</v>
       </c>
       <c r="F294">
         <v>4206737982</v>
@@ -9498,8 +9505,8 @@
           <t>DK</t>
         </is>
       </c>
-      <c r="E295">
-        <v>2022</v>
+      <c r="E295" s="2">
+        <v>44562</v>
       </c>
       <c r="F295">
         <v>4227504913</v>
@@ -9529,8 +9536,8 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="E296">
-        <v>2020</v>
+      <c r="E296" s="2">
+        <v>43831</v>
       </c>
       <c r="F296">
         <v>23388466</v>
@@ -9560,8 +9567,8 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="E297">
-        <v>2021</v>
+      <c r="E297" s="2">
+        <v>44197</v>
       </c>
       <c r="F297">
         <v>19115187</v>
@@ -9591,8 +9598,8 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="E298">
-        <v>2022</v>
+      <c r="E298" s="2">
+        <v>44562</v>
       </c>
       <c r="F298">
         <v>17028362</v>
@@ -9622,8 +9629,8 @@
           <t>LB</t>
         </is>
       </c>
-      <c r="E299">
-        <v>2020</v>
+      <c r="E299" s="2">
+        <v>43831</v>
       </c>
       <c r="F299">
         <v>438863989</v>
@@ -9653,8 +9660,8 @@
           <t>LB</t>
         </is>
       </c>
-      <c r="E300">
-        <v>2021</v>
+      <c r="E300" s="2">
+        <v>44197</v>
       </c>
       <c r="F300">
         <v>369030076</v>
@@ -9684,8 +9691,8 @@
           <t>LB</t>
         </is>
       </c>
-      <c r="E301">
-        <v>2022</v>
+      <c r="E301" s="2">
+        <v>44562</v>
       </c>
       <c r="F301">
         <v>406707869</v>
@@ -9715,8 +9722,8 @@
           <t>TT</t>
         </is>
       </c>
-      <c r="E302">
-        <v>2020</v>
+      <c r="E302" s="2">
+        <v>43831</v>
       </c>
       <c r="F302">
         <v>38259593</v>
@@ -9746,8 +9753,8 @@
           <t>TT</t>
         </is>
       </c>
-      <c r="E303">
-        <v>2021</v>
+      <c r="E303" s="2">
+        <v>44197</v>
       </c>
       <c r="F303">
         <v>48902108</v>
@@ -9777,8 +9784,8 @@
           <t>TT</t>
         </is>
       </c>
-      <c r="E304">
-        <v>2022</v>
+      <c r="E304" s="2">
+        <v>44562</v>
       </c>
       <c r="F304">
         <v>38754613</v>
@@ -9808,8 +9815,8 @@
           <t>PK</t>
         </is>
       </c>
-      <c r="E305">
-        <v>2020</v>
+      <c r="E305" s="2">
+        <v>43831</v>
       </c>
       <c r="F305">
         <v>421082979</v>
@@ -9839,8 +9846,8 @@
           <t>PK</t>
         </is>
       </c>
-      <c r="E306">
-        <v>2021</v>
+      <c r="E306" s="2">
+        <v>44197</v>
       </c>
       <c r="F306">
         <v>538771694</v>
@@ -9870,8 +9877,8 @@
           <t>PK</t>
         </is>
       </c>
-      <c r="E307">
-        <v>2022</v>
+      <c r="E307" s="2">
+        <v>44562</v>
       </c>
       <c r="F307">
         <v>510065110</v>
@@ -9901,8 +9908,8 @@
           <t>BT</t>
         </is>
       </c>
-      <c r="E308">
-        <v>2020</v>
+      <c r="E308" s="2">
+        <v>43831</v>
       </c>
       <c r="F308">
         <v>77000958</v>
@@ -9932,8 +9939,8 @@
           <t>BT</t>
         </is>
       </c>
-      <c r="E309">
-        <v>2021</v>
+      <c r="E309" s="2">
+        <v>44197</v>
       </c>
       <c r="F309">
         <v>724640</v>
@@ -9963,8 +9970,8 @@
           <t>BT</t>
         </is>
       </c>
-      <c r="E310">
-        <v>2022</v>
+      <c r="E310" s="2">
+        <v>44562</v>
       </c>
       <c r="F310">
         <v>550521</v>
@@ -9994,8 +10001,8 @@
           <t>A109</t>
         </is>
       </c>
-      <c r="E311">
-        <v>2020</v>
+      <c r="E311" s="2">
+        <v>43831</v>
       </c>
       <c r="F311">
         <v>111964573</v>
@@ -10025,8 +10032,8 @@
           <t>A109</t>
         </is>
       </c>
-      <c r="E312">
-        <v>2021</v>
+      <c r="E312" s="2">
+        <v>44197</v>
       </c>
       <c r="F312">
         <v>135788893</v>
@@ -10056,8 +10063,8 @@
           <t>A109</t>
         </is>
       </c>
-      <c r="E313">
-        <v>2022</v>
+      <c r="E313" s="2">
+        <v>44562</v>
       </c>
       <c r="F313">
         <v>138197043</v>
@@ -10087,8 +10094,8 @@
           <t>NI</t>
         </is>
       </c>
-      <c r="E314">
-        <v>2020</v>
+      <c r="E314" s="2">
+        <v>43831</v>
       </c>
       <c r="F314">
         <v>9592782</v>
@@ -10118,8 +10125,8 @@
           <t>NI</t>
         </is>
       </c>
-      <c r="E315">
-        <v>2021</v>
+      <c r="E315" s="2">
+        <v>44197</v>
       </c>
       <c r="F315">
         <v>10594400</v>
@@ -10149,8 +10156,8 @@
           <t>NI</t>
         </is>
       </c>
-      <c r="E316">
-        <v>2022</v>
+      <c r="E316" s="2">
+        <v>44562</v>
       </c>
       <c r="F316">
         <v>12899129</v>
@@ -10180,8 +10187,8 @@
           <t>MG</t>
         </is>
       </c>
-      <c r="E317">
-        <v>2020</v>
+      <c r="E317" s="2">
+        <v>43831</v>
       </c>
       <c r="F317">
         <v>357926560</v>
@@ -10211,8 +10218,8 @@
           <t>MG</t>
         </is>
       </c>
-      <c r="E318">
-        <v>2021</v>
+      <c r="E318" s="2">
+        <v>44197</v>
       </c>
       <c r="F318">
         <v>411398871</v>
@@ -10242,8 +10249,8 @@
           <t>MG</t>
         </is>
       </c>
-      <c r="E319">
-        <v>2022</v>
+      <c r="E319" s="2">
+        <v>44562</v>
       </c>
       <c r="F319">
         <v>436579681</v>
@@ -10273,8 +10280,8 @@
           <t>HT</t>
         </is>
       </c>
-      <c r="E320">
-        <v>2020</v>
+      <c r="E320" s="2">
+        <v>43831</v>
       </c>
       <c r="F320">
         <v>51857779</v>
@@ -10304,8 +10311,8 @@
           <t>HT</t>
         </is>
       </c>
-      <c r="E321">
-        <v>2021</v>
+      <c r="E321" s="2">
+        <v>44197</v>
       </c>
       <c r="F321">
         <v>49518859</v>
@@ -10335,8 +10342,8 @@
           <t>HT</t>
         </is>
       </c>
-      <c r="E322">
-        <v>2022</v>
+      <c r="E322" s="2">
+        <v>44562</v>
       </c>
       <c r="F322">
         <v>36200204</v>
@@ -10366,8 +10373,8 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="E323">
-        <v>2020</v>
+      <c r="E323" s="2">
+        <v>43831</v>
       </c>
       <c r="F323">
         <v>1978369219</v>
@@ -10397,8 +10404,8 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="E324">
-        <v>2021</v>
+      <c r="E324" s="2">
+        <v>44197</v>
       </c>
       <c r="F324">
         <v>1820156357</v>
@@ -10428,8 +10435,8 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="E325">
-        <v>2022</v>
+      <c r="E325" s="2">
+        <v>44562</v>
       </c>
       <c r="F325">
         <v>1862801567</v>
@@ -10459,8 +10466,8 @@
           <t>MW</t>
         </is>
       </c>
-      <c r="E326">
-        <v>2020</v>
+      <c r="E326" s="2">
+        <v>43831</v>
       </c>
       <c r="F326">
         <v>13129196</v>
@@ -10490,8 +10497,8 @@
           <t>MW</t>
         </is>
       </c>
-      <c r="E327">
-        <v>2021</v>
+      <c r="E327" s="2">
+        <v>44197</v>
       </c>
       <c r="F327">
         <v>4887962</v>
@@ -10521,8 +10528,8 @@
           <t>MW</t>
         </is>
       </c>
-      <c r="E328">
-        <v>2022</v>
+      <c r="E328" s="2">
+        <v>44562</v>
       </c>
       <c r="F328">
         <v>5245299</v>
@@ -10552,8 +10559,8 @@
           <t>PT</t>
         </is>
       </c>
-      <c r="E329">
-        <v>2020</v>
+      <c r="E329" s="2">
+        <v>43831</v>
       </c>
       <c r="F329">
         <v>5537764614</v>
@@ -10583,8 +10590,8 @@
           <t>PT</t>
         </is>
       </c>
-      <c r="E330">
-        <v>2021</v>
+      <c r="E330" s="2">
+        <v>44197</v>
       </c>
       <c r="F330">
         <v>6416422592</v>
@@ -10614,8 +10621,8 @@
           <t>PT</t>
         </is>
       </c>
-      <c r="E331">
-        <v>2022</v>
+      <c r="E331" s="2">
+        <v>44562</v>
       </c>
       <c r="F331">
         <v>6989673025</v>
@@ -10645,8 +10652,8 @@
           <t>SB</t>
         </is>
       </c>
-      <c r="E332">
-        <v>2020</v>
+      <c r="E332" s="2">
+        <v>43831</v>
       </c>
       <c r="F332">
         <v>215134</v>
@@ -10676,8 +10683,8 @@
           <t>SB</t>
         </is>
       </c>
-      <c r="E333">
-        <v>2021</v>
+      <c r="E333" s="2">
+        <v>44197</v>
       </c>
       <c r="F333">
         <v>398042</v>
@@ -10707,8 +10714,8 @@
           <t>SB</t>
         </is>
       </c>
-      <c r="E334">
-        <v>2022</v>
+      <c r="E334" s="2">
+        <v>44562</v>
       </c>
       <c r="F334">
         <v>571321</v>
@@ -10738,8 +10745,8 @@
           <t>DZ</t>
         </is>
       </c>
-      <c r="E335">
-        <v>2020</v>
+      <c r="E335" s="2">
+        <v>43831</v>
       </c>
       <c r="F335">
         <v>4862943557</v>
@@ -10769,8 +10776,8 @@
           <t>DZ</t>
         </is>
       </c>
-      <c r="E336">
-        <v>2021</v>
+      <c r="E336" s="2">
+        <v>44197</v>
       </c>
       <c r="F336">
         <v>4451661247</v>
@@ -10800,8 +10807,8 @@
           <t>DZ</t>
         </is>
       </c>
-      <c r="E337">
-        <v>2022</v>
+      <c r="E337" s="2">
+        <v>44562</v>
       </c>
       <c r="F337">
         <v>4693590543</v>
@@ -10831,8 +10838,8 @@
           <t>AZ</t>
         </is>
       </c>
-      <c r="E338">
-        <v>2020</v>
+      <c r="E338" s="2">
+        <v>43831</v>
       </c>
       <c r="F338">
         <v>128074376</v>
@@ -10862,8 +10869,8 @@
           <t>AZ</t>
         </is>
       </c>
-      <c r="E339">
-        <v>2021</v>
+      <c r="E339" s="2">
+        <v>44197</v>
       </c>
       <c r="F339">
         <v>125841143</v>
@@ -10893,8 +10900,8 @@
           <t>AZ</t>
         </is>
       </c>
-      <c r="E340">
-        <v>2022</v>
+      <c r="E340" s="2">
+        <v>44562</v>
       </c>
       <c r="F340">
         <v>303290364</v>
@@ -10924,8 +10931,8 @@
           <t>SI</t>
         </is>
       </c>
-      <c r="E341">
-        <v>2020</v>
+      <c r="E341" s="2">
+        <v>43831</v>
       </c>
       <c r="F341">
         <v>1216691957</v>
@@ -10955,8 +10962,8 @@
           <t>SI</t>
         </is>
       </c>
-      <c r="E342">
-        <v>2021</v>
+      <c r="E342" s="2">
+        <v>44197</v>
       </c>
       <c r="F342">
         <v>1474598892</v>
@@ -10986,8 +10993,8 @@
           <t>SI</t>
         </is>
       </c>
-      <c r="E343">
-        <v>2022</v>
+      <c r="E343" s="2">
+        <v>44562</v>
       </c>
       <c r="F343">
         <v>1466475204</v>
@@ -11017,8 +11024,8 @@
           <t>TH</t>
         </is>
       </c>
-      <c r="E344">
-        <v>2020</v>
+      <c r="E344" s="2">
+        <v>43831</v>
       </c>
       <c r="F344">
         <v>1228986348</v>
@@ -11048,8 +11055,8 @@
           <t>TH</t>
         </is>
       </c>
-      <c r="E345">
-        <v>2021</v>
+      <c r="E345" s="2">
+        <v>44197</v>
       </c>
       <c r="F345">
         <v>1783912888</v>
@@ -11079,8 +11086,8 @@
           <t>TH</t>
         </is>
       </c>
-      <c r="E346">
-        <v>2022</v>
+      <c r="E346" s="2">
+        <v>44562</v>
       </c>
       <c r="F346">
         <v>1502593599</v>
@@ -11110,8 +11117,8 @@
           <t>TG</t>
         </is>
       </c>
-      <c r="E347">
-        <v>2020</v>
+      <c r="E347" s="2">
+        <v>43831</v>
       </c>
       <c r="F347">
         <v>211411456</v>
@@ -11141,8 +11148,8 @@
           <t>TG</t>
         </is>
       </c>
-      <c r="E348">
-        <v>2021</v>
+      <c r="E348" s="2">
+        <v>44197</v>
       </c>
       <c r="F348">
         <v>240816713</v>
@@ -11172,8 +11179,8 @@
           <t>TG</t>
         </is>
       </c>
-      <c r="E349">
-        <v>2022</v>
+      <c r="E349" s="2">
+        <v>44562</v>
       </c>
       <c r="F349">
         <v>227679190</v>
@@ -11203,8 +11210,8 @@
           <t>MK</t>
         </is>
       </c>
-      <c r="E350">
-        <v>2020</v>
+      <c r="E350" s="2">
+        <v>43831</v>
       </c>
       <c r="F350">
         <v>99109419</v>
@@ -11234,8 +11241,8 @@
           <t>MK</t>
         </is>
       </c>
-      <c r="E351">
-        <v>2021</v>
+      <c r="E351" s="2">
+        <v>44197</v>
       </c>
       <c r="F351">
         <v>104924323</v>
@@ -11265,8 +11272,8 @@
           <t>MK</t>
         </is>
       </c>
-      <c r="E352">
-        <v>2022</v>
+      <c r="E352" s="2">
+        <v>44562</v>
       </c>
       <c r="F352">
         <v>99176580</v>
@@ -11296,8 +11303,8 @@
           <t>_X</t>
         </is>
       </c>
-      <c r="E353">
-        <v>2020</v>
+      <c r="E353" s="2">
+        <v>43831</v>
       </c>
       <c r="F353">
         <v>666499121</v>
@@ -11327,8 +11334,8 @@
           <t>_X</t>
         </is>
       </c>
-      <c r="E354">
-        <v>2021</v>
+      <c r="E354" s="2">
+        <v>44197</v>
       </c>
       <c r="F354">
         <v>1478948343</v>
@@ -11358,8 +11365,8 @@
           <t>_X</t>
         </is>
       </c>
-      <c r="E355">
-        <v>2022</v>
+      <c r="E355" s="2">
+        <v>44562</v>
       </c>
       <c r="F355">
         <v>1857060418</v>
@@ -11389,8 +11396,8 @@
           <t>E19</t>
         </is>
       </c>
-      <c r="E356">
-        <v>2020</v>
+      <c r="E356" s="2">
+        <v>43831</v>
       </c>
       <c r="F356">
         <v>193185927</v>
@@ -11420,8 +11427,8 @@
           <t>E19</t>
         </is>
       </c>
-      <c r="E357">
-        <v>2021</v>
+      <c r="E357" s="2">
+        <v>44197</v>
       </c>
       <c r="F357">
         <v>249480751</v>
@@ -11451,8 +11458,8 @@
           <t>E19</t>
         </is>
       </c>
-      <c r="E358">
-        <v>2022</v>
+      <c r="E358" s="2">
+        <v>44562</v>
       </c>
       <c r="F358">
         <v>289733303</v>
@@ -11482,8 +11489,8 @@
           <t>UA</t>
         </is>
       </c>
-      <c r="E359">
-        <v>2020</v>
+      <c r="E359" s="2">
+        <v>43831</v>
       </c>
       <c r="F359">
         <v>1155508298</v>
@@ -11513,8 +11520,8 @@
           <t>UA</t>
         </is>
       </c>
-      <c r="E360">
-        <v>2021</v>
+      <c r="E360" s="2">
+        <v>44197</v>
       </c>
       <c r="F360">
         <v>1426932429</v>
@@ -11544,8 +11551,8 @@
           <t>UA</t>
         </is>
       </c>
-      <c r="E361">
-        <v>2022</v>
+      <c r="E361" s="2">
+        <v>44562</v>
       </c>
       <c r="F361">
         <v>843653176</v>
@@ -11575,8 +11582,8 @@
           <t>IE</t>
         </is>
       </c>
-      <c r="E362">
-        <v>2020</v>
+      <c r="E362" s="2">
+        <v>43831</v>
       </c>
       <c r="F362">
         <v>3845497744</v>
@@ -11606,8 +11613,8 @@
           <t>IE</t>
         </is>
       </c>
-      <c r="E363">
-        <v>2021</v>
+      <c r="E363" s="2">
+        <v>44197</v>
       </c>
       <c r="F363">
         <v>5339414671</v>
@@ -11637,8 +11644,8 @@
           <t>IE</t>
         </is>
       </c>
-      <c r="E364">
-        <v>2022</v>
+      <c r="E364" s="2">
+        <v>44562</v>
       </c>
       <c r="F364">
         <v>6911296506</v>
@@ -11668,8 +11675,8 @@
           <t>TW</t>
         </is>
       </c>
-      <c r="E365">
-        <v>2020</v>
+      <c r="E365" s="2">
+        <v>43831</v>
       </c>
       <c r="F365">
         <v>1992936763</v>
@@ -11699,8 +11706,8 @@
           <t>TW</t>
         </is>
       </c>
-      <c r="E366">
-        <v>2021</v>
+      <c r="E366" s="2">
+        <v>44197</v>
       </c>
       <c r="F366">
         <v>2231341652</v>
@@ -11730,8 +11737,8 @@
           <t>TW</t>
         </is>
       </c>
-      <c r="E367">
-        <v>2022</v>
+      <c r="E367" s="2">
+        <v>44562</v>
       </c>
       <c r="F367">
         <v>3025293976</v>
@@ -11756,8 +11763,8 @@
           <t>TXG_FOB_USD</t>
         </is>
       </c>
-      <c r="E368">
-        <v>2020</v>
+      <c r="E368" s="2">
+        <v>43831</v>
       </c>
       <c r="F368">
         <v>16208929</v>
@@ -11782,8 +11789,8 @@
           <t>TXG_FOB_USD</t>
         </is>
       </c>
-      <c r="E369">
-        <v>2021</v>
+      <c r="E369" s="2">
+        <v>44197</v>
       </c>
       <c r="F369">
         <v>23058359</v>
@@ -11808,8 +11815,8 @@
           <t>TXG_FOB_USD</t>
         </is>
       </c>
-      <c r="E370">
-        <v>2022</v>
+      <c r="E370" s="2">
+        <v>44562</v>
       </c>
       <c r="F370">
         <v>20827060</v>
@@ -11839,8 +11846,8 @@
           <t>CI</t>
         </is>
       </c>
-      <c r="E371">
-        <v>2020</v>
+      <c r="E371" s="2">
+        <v>43831</v>
       </c>
       <c r="F371">
         <v>1290326823</v>
@@ -11870,8 +11877,8 @@
           <t>CI</t>
         </is>
       </c>
-      <c r="E372">
-        <v>2021</v>
+      <c r="E372" s="2">
+        <v>44197</v>
       </c>
       <c r="F372">
         <v>1635900052</v>
@@ -11901,8 +11908,8 @@
           <t>CI</t>
         </is>
       </c>
-      <c r="E373">
-        <v>2022</v>
+      <c r="E373" s="2">
+        <v>44562</v>
       </c>
       <c r="F373">
         <v>1471966237</v>
@@ -11932,8 +11939,8 @@
           <t>AO</t>
         </is>
       </c>
-      <c r="E374">
-        <v>2020</v>
+      <c r="E374" s="2">
+        <v>43831</v>
       </c>
       <c r="F374">
         <v>223402774</v>
@@ -11963,8 +11970,8 @@
           <t>AO</t>
         </is>
       </c>
-      <c r="E375">
-        <v>2021</v>
+      <c r="E375" s="2">
+        <v>44197</v>
       </c>
       <c r="F375">
         <v>287162525</v>
@@ -11994,8 +12001,8 @@
           <t>AO</t>
         </is>
       </c>
-      <c r="E376">
-        <v>2022</v>
+      <c r="E376" s="2">
+        <v>44562</v>
       </c>
       <c r="F376">
         <v>264328364</v>
@@ -12025,8 +12032,8 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="E377">
-        <v>2020</v>
+      <c r="E377" s="2">
+        <v>43831</v>
       </c>
       <c r="F377">
         <v>291238660</v>
@@ -12056,8 +12063,8 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="E378">
-        <v>2021</v>
+      <c r="E378" s="2">
+        <v>44197</v>
       </c>
       <c r="F378">
         <v>264692917</v>
@@ -12087,8 +12094,8 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="E379">
-        <v>2022</v>
+      <c r="E379" s="2">
+        <v>44562</v>
       </c>
       <c r="F379">
         <v>327845636</v>
@@ -12118,8 +12125,8 @@
           <t>LV</t>
         </is>
       </c>
-      <c r="E380">
-        <v>2020</v>
+      <c r="E380" s="2">
+        <v>43831</v>
       </c>
       <c r="F380">
         <v>370188023</v>
@@ -12149,8 +12156,8 @@
           <t>LV</t>
         </is>
       </c>
-      <c r="E381">
-        <v>2021</v>
+      <c r="E381" s="2">
+        <v>44197</v>
       </c>
       <c r="F381">
         <v>486219139</v>
@@ -12180,8 +12187,8 @@
           <t>LV</t>
         </is>
       </c>
-      <c r="E382">
-        <v>2022</v>
+      <c r="E382" s="2">
+        <v>44562</v>
       </c>
       <c r="F382">
         <v>555827823</v>
@@ -12211,8 +12218,8 @@
           <t>TD</t>
         </is>
       </c>
-      <c r="E383">
-        <v>2020</v>
+      <c r="E383" s="2">
+        <v>43831</v>
       </c>
       <c r="F383">
         <v>101147798</v>
@@ -12242,8 +12249,8 @@
           <t>TD</t>
         </is>
       </c>
-      <c r="E384">
-        <v>2021</v>
+      <c r="E384" s="2">
+        <v>44197</v>
       </c>
       <c r="F384">
         <v>83197023</v>
@@ -12273,8 +12280,8 @@
           <t>TD</t>
         </is>
       </c>
-      <c r="E385">
-        <v>2022</v>
+      <c r="E385" s="2">
+        <v>44562</v>
       </c>
       <c r="F385">
         <v>82716898</v>
@@ -12304,8 +12311,8 @@
           <t>SY</t>
         </is>
       </c>
-      <c r="E386">
-        <v>2020</v>
+      <c r="E386" s="2">
+        <v>43831</v>
       </c>
       <c r="F386">
         <v>27702055</v>
@@ -12335,8 +12342,8 @@
           <t>SY</t>
         </is>
       </c>
-      <c r="E387">
-        <v>2021</v>
+      <c r="E387" s="2">
+        <v>44197</v>
       </c>
       <c r="F387">
         <v>26972963</v>
@@ -12366,8 +12373,8 @@
           <t>SY</t>
         </is>
       </c>
-      <c r="E388">
-        <v>2022</v>
+      <c r="E388" s="2">
+        <v>44562</v>
       </c>
       <c r="F388">
         <v>24852040</v>
@@ -12397,8 +12404,8 @@
           <t>VN</t>
         </is>
       </c>
-      <c r="E389">
-        <v>2020</v>
+      <c r="E389" s="2">
+        <v>43831</v>
       </c>
       <c r="F389">
         <v>1102863557</v>
@@ -12428,8 +12435,8 @@
           <t>VN</t>
         </is>
       </c>
-      <c r="E390">
-        <v>2021</v>
+      <c r="E390" s="2">
+        <v>44197</v>
       </c>
       <c r="F390">
         <v>1469719259</v>
@@ -12459,8 +12466,8 @@
           <t>VN</t>
         </is>
       </c>
-      <c r="E391">
-        <v>2022</v>
+      <c r="E391" s="2">
+        <v>44562</v>
       </c>
       <c r="F391">
         <v>1221298880</v>
@@ -12490,8 +12497,8 @@
           <t>CN</t>
         </is>
       </c>
-      <c r="E392">
-        <v>2020</v>
+      <c r="E392" s="2">
+        <v>43831</v>
       </c>
       <c r="F392">
         <v>20137183769</v>
@@ -12521,8 +12528,8 @@
           <t>CN</t>
         </is>
       </c>
-      <c r="E393">
-        <v>2021</v>
+      <c r="E393" s="2">
+        <v>44197</v>
       </c>
       <c r="F393">
         <v>28435713994</v>
@@ -12552,8 +12559,8 @@
           <t>CN</t>
         </is>
       </c>
-      <c r="E394">
-        <v>2022</v>
+      <c r="E394" s="2">
+        <v>44562</v>
       </c>
       <c r="F394">
         <v>24902592986</v>
@@ -12583,8 +12590,8 @@
           <t>BF</t>
         </is>
       </c>
-      <c r="E395">
-        <v>2020</v>
+      <c r="E395" s="2">
+        <v>43831</v>
       </c>
       <c r="F395">
         <v>367823862</v>
@@ -12614,8 +12621,8 @@
           <t>BF</t>
         </is>
       </c>
-      <c r="E396">
-        <v>2021</v>
+      <c r="E396" s="2">
+        <v>44197</v>
       </c>
       <c r="F396">
         <v>355846505</v>
@@ -12645,8 +12652,8 @@
           <t>BF</t>
         </is>
       </c>
-      <c r="E397">
-        <v>2022</v>
+      <c r="E397" s="2">
+        <v>44562</v>
       </c>
       <c r="F397">
         <v>373314514</v>
@@ -12676,8 +12683,8 @@
           <t>UZ</t>
         </is>
       </c>
-      <c r="E398">
-        <v>2020</v>
+      <c r="E398" s="2">
+        <v>43831</v>
       </c>
       <c r="F398">
         <v>309568793</v>
@@ -12707,8 +12714,8 @@
           <t>UZ</t>
         </is>
       </c>
-      <c r="E399">
-        <v>2021</v>
+      <c r="E399" s="2">
+        <v>44197</v>
       </c>
       <c r="F399">
         <v>243252338</v>
@@ -12738,8 +12745,8 @@
           <t>UZ</t>
         </is>
       </c>
-      <c r="E400">
-        <v>2022</v>
+      <c r="E400" s="2">
+        <v>44562</v>
       </c>
       <c r="F400">
         <v>247542363</v>
@@ -12769,8 +12776,8 @@
           <t>HU</t>
         </is>
       </c>
-      <c r="E401">
-        <v>2020</v>
+      <c r="E401" s="2">
+        <v>43831</v>
       </c>
       <c r="F401">
         <v>4332187517</v>
@@ -12800,8 +12807,8 @@
           <t>HU</t>
         </is>
       </c>
-      <c r="E402">
-        <v>2021</v>
+      <c r="E402" s="2">
+        <v>44197</v>
       </c>
       <c r="F402">
         <v>4581568080</v>
@@ -12831,8 +12838,8 @@
           <t>HU</t>
         </is>
       </c>
-      <c r="E403">
-        <v>2022</v>
+      <c r="E403" s="2">
+        <v>44562</v>
       </c>
       <c r="F403">
         <v>4635009396</v>
@@ -12862,8 +12869,8 @@
           <t>GN</t>
         </is>
       </c>
-      <c r="E404">
-        <v>2020</v>
+      <c r="E404" s="2">
+        <v>43831</v>
       </c>
       <c r="F404">
         <v>170984528</v>
@@ -12893,8 +12900,8 @@
           <t>GN</t>
         </is>
       </c>
-      <c r="E405">
-        <v>2021</v>
+      <c r="E405" s="2">
+        <v>44197</v>
       </c>
       <c r="F405">
         <v>176806755</v>
@@ -12924,8 +12931,8 @@
           <t>GN</t>
         </is>
       </c>
-      <c r="E406">
-        <v>2022</v>
+      <c r="E406" s="2">
+        <v>44562</v>
       </c>
       <c r="F406">
         <v>169809900</v>
@@ -12955,8 +12962,8 @@
           <t>MY</t>
         </is>
       </c>
-      <c r="E407">
-        <v>2020</v>
+      <c r="E407" s="2">
+        <v>43831</v>
       </c>
       <c r="F407">
         <v>895734940</v>
@@ -12986,8 +12993,8 @@
           <t>MY</t>
         </is>
       </c>
-      <c r="E408">
-        <v>2021</v>
+      <c r="E408" s="2">
+        <v>44197</v>
       </c>
       <c r="F408">
         <v>894578598</v>
@@ -13017,8 +13024,8 @@
           <t>MY</t>
         </is>
       </c>
-      <c r="E409">
-        <v>2022</v>
+      <c r="E409" s="2">
+        <v>44562</v>
       </c>
       <c r="F409">
         <v>1329505181</v>
@@ -13048,8 +13055,8 @@
           <t>IS</t>
         </is>
       </c>
-      <c r="E410">
-        <v>2020</v>
+      <c r="E410" s="2">
+        <v>43831</v>
       </c>
       <c r="F410">
         <v>106794534</v>
@@ -13079,8 +13086,8 @@
           <t>IS</t>
         </is>
       </c>
-      <c r="E411">
-        <v>2021</v>
+      <c r="E411" s="2">
+        <v>44197</v>
       </c>
       <c r="F411">
         <v>102441520</v>
@@ -13110,8 +13117,8 @@
           <t>IS</t>
         </is>
       </c>
-      <c r="E412">
-        <v>2022</v>
+      <c r="E412" s="2">
+        <v>44562</v>
       </c>
       <c r="F412">
         <v>316941960</v>
@@ -13141,8 +13148,8 @@
           <t>AG</t>
         </is>
       </c>
-      <c r="E413">
-        <v>2020</v>
+      <c r="E413" s="2">
+        <v>43831</v>
       </c>
       <c r="F413">
         <v>9959119</v>
@@ -13172,8 +13179,8 @@
           <t>AG</t>
         </is>
       </c>
-      <c r="E414">
-        <v>2021</v>
+      <c r="E414" s="2">
+        <v>44197</v>
       </c>
       <c r="F414">
         <v>6230832</v>
@@ -13203,8 +13210,8 @@
           <t>AG</t>
         </is>
       </c>
-      <c r="E415">
-        <v>2022</v>
+      <c r="E415" s="2">
+        <v>44562</v>
       </c>
       <c r="F415">
         <v>7114938</v>
@@ -13234,8 +13241,8 @@
           <t>PY</t>
         </is>
       </c>
-      <c r="E416">
-        <v>2020</v>
+      <c r="E416" s="2">
+        <v>43831</v>
       </c>
       <c r="F416">
         <v>57094615</v>
@@ -13265,8 +13272,8 @@
           <t>PY</t>
         </is>
       </c>
-      <c r="E417">
-        <v>2021</v>
+      <c r="E417" s="2">
+        <v>44197</v>
       </c>
       <c r="F417">
         <v>66324288.99999999</v>
@@ -13296,8 +13303,8 @@
           <t>PY</t>
         </is>
       </c>
-      <c r="E418">
-        <v>2022</v>
+      <c r="E418" s="2">
+        <v>44562</v>
       </c>
       <c r="F418">
         <v>77768233</v>
@@ -13327,8 +13334,8 @@
           <t>CM</t>
         </is>
       </c>
-      <c r="E419">
-        <v>2020</v>
+      <c r="E419" s="2">
+        <v>43831</v>
       </c>
       <c r="F419">
         <v>591911167</v>
@@ -13358,8 +13365,8 @@
           <t>CM</t>
         </is>
       </c>
-      <c r="E420">
-        <v>2021</v>
+      <c r="E420" s="2">
+        <v>44197</v>
       </c>
       <c r="F420">
         <v>634455615</v>
@@ -13389,8 +13396,8 @@
           <t>CM</t>
         </is>
       </c>
-      <c r="E421">
-        <v>2022</v>
+      <c r="E421" s="2">
+        <v>44562</v>
       </c>
       <c r="F421">
         <v>657462847</v>
@@ -13420,8 +13427,8 @@
           <t>XK</t>
         </is>
       </c>
-      <c r="E422">
-        <v>2020</v>
+      <c r="E422" s="2">
+        <v>43831</v>
       </c>
       <c r="F422">
         <v>27208678</v>
@@ -13451,8 +13458,8 @@
           <t>XK</t>
         </is>
       </c>
-      <c r="E423">
-        <v>2021</v>
+      <c r="E423" s="2">
+        <v>44197</v>
       </c>
       <c r="F423">
         <v>60848183</v>
@@ -13482,8 +13489,8 @@
           <t>XK</t>
         </is>
       </c>
-      <c r="E424">
-        <v>2022</v>
+      <c r="E424" s="2">
+        <v>44562</v>
       </c>
       <c r="F424">
         <v>76120255</v>
@@ -13513,8 +13520,8 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="E425">
-        <v>2020</v>
+      <c r="E425" s="2">
+        <v>43831</v>
       </c>
       <c r="F425">
         <v>75931731</v>
@@ -13544,8 +13551,8 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="E426">
-        <v>2021</v>
+      <c r="E426" s="2">
+        <v>44197</v>
       </c>
       <c r="F426">
         <v>58702214</v>
@@ -13575,8 +13582,8 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="E427">
-        <v>2022</v>
+      <c r="E427" s="2">
+        <v>44562</v>
       </c>
       <c r="F427">
         <v>54482098</v>
@@ -13606,8 +13613,8 @@
           <t>LC</t>
         </is>
       </c>
-      <c r="E428">
-        <v>2020</v>
+      <c r="E428" s="2">
+        <v>43831</v>
       </c>
       <c r="F428">
         <v>6831734</v>
@@ -13637,8 +13644,8 @@
           <t>LC</t>
         </is>
       </c>
-      <c r="E429">
-        <v>2021</v>
+      <c r="E429" s="2">
+        <v>44197</v>
       </c>
       <c r="F429">
         <v>11456246</v>
@@ -13668,8 +13675,8 @@
           <t>LC</t>
         </is>
       </c>
-      <c r="E430">
-        <v>2022</v>
+      <c r="E430" s="2">
+        <v>44562</v>
       </c>
       <c r="F430">
         <v>11765670</v>
@@ -13699,8 +13706,8 @@
           <t>TO</t>
         </is>
       </c>
-      <c r="E431">
-        <v>2020</v>
+      <c r="E431" s="2">
+        <v>43831</v>
       </c>
       <c r="F431">
         <v>3707418</v>
@@ -13730,8 +13737,8 @@
           <t>TO</t>
         </is>
       </c>
-      <c r="E432">
-        <v>2021</v>
+      <c r="E432" s="2">
+        <v>44197</v>
       </c>
       <c r="F432">
         <v>109698</v>
@@ -13761,8 +13768,8 @@
           <t>TO</t>
         </is>
       </c>
-      <c r="E433">
-        <v>2022</v>
+      <c r="E433" s="2">
+        <v>44562</v>
       </c>
       <c r="F433">
         <v>157892</v>
@@ -13792,8 +13799,8 @@
           <t>BY</t>
         </is>
       </c>
-      <c r="E434">
-        <v>2020</v>
+      <c r="E434" s="2">
+        <v>43831</v>
       </c>
       <c r="F434">
         <v>171295079</v>
@@ -13823,8 +13830,8 @@
           <t>BY</t>
         </is>
       </c>
-      <c r="E435">
-        <v>2021</v>
+      <c r="E435" s="2">
+        <v>44197</v>
       </c>
       <c r="F435">
         <v>216968584</v>
@@ -13854,8 +13861,8 @@
           <t>BY</t>
         </is>
       </c>
-      <c r="E436">
-        <v>2022</v>
+      <c r="E436" s="2">
+        <v>44562</v>
       </c>
       <c r="F436">
         <v>150341645</v>
@@ -13885,8 +13892,8 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="E437">
-        <v>2020</v>
+      <c r="E437" s="2">
+        <v>43831</v>
       </c>
       <c r="F437">
         <v>765689157</v>
@@ -13916,8 +13923,8 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="E438">
-        <v>2021</v>
+      <c r="E438" s="2">
+        <v>44197</v>
       </c>
       <c r="F438">
         <v>1009492773</v>
@@ -13947,8 +13954,8 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="E439">
-        <v>2022</v>
+      <c r="E439" s="2">
+        <v>44562</v>
       </c>
       <c r="F439">
         <v>1144021594</v>
@@ -13978,8 +13985,8 @@
           <t>CZ</t>
         </is>
       </c>
-      <c r="E440">
-        <v>2020</v>
+      <c r="E440" s="2">
+        <v>43831</v>
       </c>
       <c r="F440">
         <v>4884169704</v>
@@ -14009,8 +14016,8 @@
           <t>CZ</t>
         </is>
       </c>
-      <c r="E441">
-        <v>2021</v>
+      <c r="E441" s="2">
+        <v>44197</v>
       </c>
       <c r="F441">
         <v>5949053040</v>
@@ -14040,8 +14047,8 @@
           <t>CZ</t>
         </is>
       </c>
-      <c r="E442">
-        <v>2022</v>
+      <c r="E442" s="2">
+        <v>44562</v>
       </c>
       <c r="F442">
         <v>6225674981</v>
@@ -14071,8 +14078,8 @@
           <t>TN</t>
         </is>
       </c>
-      <c r="E443">
-        <v>2020</v>
+      <c r="E443" s="2">
+        <v>43831</v>
       </c>
       <c r="F443">
         <v>2955293329</v>
@@ -14102,8 +14109,8 @@
           <t>TN</t>
         </is>
       </c>
-      <c r="E444">
-        <v>2021</v>
+      <c r="E444" s="2">
+        <v>44197</v>
       </c>
       <c r="F444">
         <v>3650836325</v>
@@ -14133,8 +14140,8 @@
           <t>TN</t>
         </is>
       </c>
-      <c r="E445">
-        <v>2022</v>
+      <c r="E445" s="2">
+        <v>44562</v>
       </c>
       <c r="F445">
         <v>3968332524</v>
@@ -14164,8 +14171,8 @@
           <t>XR99</t>
         </is>
       </c>
-      <c r="E446">
-        <v>2020</v>
+      <c r="E446" s="2">
+        <v>43831</v>
       </c>
       <c r="F446">
         <v>1213936449</v>
@@ -14195,8 +14202,8 @@
           <t>XR99</t>
         </is>
       </c>
-      <c r="E447">
-        <v>2021</v>
+      <c r="E447" s="2">
+        <v>44197</v>
       </c>
       <c r="F447">
         <v>1642390531</v>
@@ -14226,8 +14233,8 @@
           <t>XR99</t>
         </is>
       </c>
-      <c r="E448">
-        <v>2022</v>
+      <c r="E448" s="2">
+        <v>44562</v>
       </c>
       <c r="F448">
         <v>9893382847</v>
@@ -14257,8 +14264,8 @@
           <t>UY</t>
         </is>
       </c>
-      <c r="E449">
-        <v>2020</v>
+      <c r="E449" s="2">
+        <v>43831</v>
       </c>
       <c r="F449">
         <v>167827092</v>
@@ -14288,8 +14295,8 @@
           <t>UY</t>
         </is>
       </c>
-      <c r="E450">
-        <v>2021</v>
+      <c r="E450" s="2">
+        <v>44197</v>
       </c>
       <c r="F450">
         <v>225808741</v>
@@ -14319,8 +14326,8 @@
           <t>UY</t>
         </is>
       </c>
-      <c r="E451">
-        <v>2022</v>
+      <c r="E451" s="2">
+        <v>44562</v>
       </c>
       <c r="F451">
         <v>243421463</v>
@@ -14350,8 +14357,8 @@
           <t>A10</t>
         </is>
       </c>
-      <c r="E452">
-        <v>2020</v>
+      <c r="E452" s="2">
+        <v>43831</v>
       </c>
       <c r="F452">
         <v>10432248380</v>
@@ -14381,8 +14388,8 @@
           <t>A10</t>
         </is>
       </c>
-      <c r="E453">
-        <v>2021</v>
+      <c r="E453" s="2">
+        <v>44197</v>
       </c>
       <c r="F453">
         <v>13566171866</v>
@@ -14412,8 +14419,8 @@
           <t>A10</t>
         </is>
       </c>
-      <c r="E454">
-        <v>2022</v>
+      <c r="E454" s="2">
+        <v>44562</v>
       </c>
       <c r="F454">
         <v>13815079898</v>
@@ -14443,8 +14450,8 @@
           <t>GM</t>
         </is>
       </c>
-      <c r="E455">
-        <v>2020</v>
+      <c r="E455" s="2">
+        <v>43831</v>
       </c>
       <c r="F455">
         <v>20077274</v>
@@ -14474,8 +14481,8 @@
           <t>GM</t>
         </is>
       </c>
-      <c r="E456">
-        <v>2021</v>
+      <c r="E456" s="2">
+        <v>44197</v>
       </c>
       <c r="F456">
         <v>22388439</v>
@@ -14505,8 +14512,8 @@
           <t>GM</t>
         </is>
       </c>
-      <c r="E457">
-        <v>2022</v>
+      <c r="E457" s="2">
+        <v>44562</v>
       </c>
       <c r="F457">
         <v>12022837</v>
@@ -14536,8 +14543,8 @@
           <t>DJ</t>
         </is>
       </c>
-      <c r="E458">
-        <v>2020</v>
+      <c r="E458" s="2">
+        <v>43831</v>
       </c>
       <c r="F458">
         <v>83480298</v>
@@ -14567,8 +14574,8 @@
           <t>DJ</t>
         </is>
       </c>
-      <c r="E459">
-        <v>2021</v>
+      <c r="E459" s="2">
+        <v>44197</v>
       </c>
       <c r="F459">
         <v>82833301</v>
@@ -14598,8 +14605,8 @@
           <t>DJ</t>
         </is>
       </c>
-      <c r="E460">
-        <v>2022</v>
+      <c r="E460" s="2">
+        <v>44562</v>
       </c>
       <c r="F460">
         <v>88065909</v>
@@ -14629,8 +14636,8 @@
           <t>F97</t>
         </is>
       </c>
-      <c r="E461">
-        <v>2020</v>
+      <c r="E461" s="2">
+        <v>43831</v>
       </c>
       <c r="F461">
         <v>15580140127</v>
@@ -14660,8 +14667,8 @@
           <t>F97</t>
         </is>
       </c>
-      <c r="E462">
-        <v>2021</v>
+      <c r="E462" s="2">
+        <v>44197</v>
       </c>
       <c r="F462">
         <v>16794035392</v>
@@ -14691,8 +14698,8 @@
           <t>F97</t>
         </is>
       </c>
-      <c r="E463">
-        <v>2022</v>
+      <c r="E463" s="2">
+        <v>44562</v>
       </c>
       <c r="F463">
         <v>15421959518</v>
@@ -14722,8 +14729,8 @@
           <t>MZ</t>
         </is>
       </c>
-      <c r="E464">
-        <v>2020</v>
+      <c r="E464" s="2">
+        <v>43831</v>
       </c>
       <c r="F464">
         <v>24824141</v>
@@ -14753,8 +14760,8 @@
           <t>MZ</t>
         </is>
       </c>
-      <c r="E465">
-        <v>2021</v>
+      <c r="E465" s="2">
+        <v>44197</v>
       </c>
       <c r="F465">
         <v>129477127</v>
@@ -14784,8 +14791,8 @@
           <t>MZ</t>
         </is>
       </c>
-      <c r="E466">
-        <v>2022</v>
+      <c r="E466" s="2">
+        <v>44562</v>
       </c>
       <c r="F466">
         <v>46305333</v>
@@ -14815,8 +14822,8 @@
           <t>LY</t>
         </is>
       </c>
-      <c r="E467">
-        <v>2020</v>
+      <c r="E467" s="2">
+        <v>43831</v>
       </c>
       <c r="F467">
         <v>172153213</v>
@@ -14846,8 +14853,8 @@
           <t>LY</t>
         </is>
       </c>
-      <c r="E468">
-        <v>2021</v>
+      <c r="E468" s="2">
+        <v>44197</v>
       </c>
       <c r="F468">
         <v>207745732</v>
@@ -14877,8 +14884,8 @@
           <t>LY</t>
         </is>
       </c>
-      <c r="E469">
-        <v>2022</v>
+      <c r="E469" s="2">
+        <v>44562</v>
       </c>
       <c r="F469">
         <v>229562869</v>
@@ -14908,8 +14915,8 @@
           <t>EG</t>
         </is>
       </c>
-      <c r="E470">
-        <v>2020</v>
+      <c r="E470" s="2">
+        <v>43831</v>
       </c>
       <c r="F470">
         <v>2388698709</v>
@@ -14939,8 +14946,8 @@
           <t>EG</t>
         </is>
       </c>
-      <c r="E471">
-        <v>2021</v>
+      <c r="E471" s="2">
+        <v>44197</v>
       </c>
       <c r="F471">
         <v>2375682427</v>
@@ -14970,8 +14977,8 @@
           <t>EG</t>
         </is>
       </c>
-      <c r="E472">
-        <v>2022</v>
+      <c r="E472" s="2">
+        <v>44562</v>
       </c>
       <c r="F472">
         <v>2386864175</v>
@@ -15001,8 +15008,8 @@
           <t>1C_092</t>
         </is>
       </c>
-      <c r="E473">
-        <v>2020</v>
+      <c r="E473" s="2">
+        <v>43831</v>
       </c>
       <c r="F473">
         <v>95879574685</v>
@@ -15032,8 +15039,8 @@
           <t>1C_092</t>
         </is>
       </c>
-      <c r="E474">
-        <v>2021</v>
+      <c r="E474" s="2">
+        <v>44197</v>
       </c>
       <c r="F474">
         <v>121532635234</v>
@@ -15063,8 +15070,8 @@
           <t>1C_092</t>
         </is>
       </c>
-      <c r="E475">
-        <v>2022</v>
+      <c r="E475" s="2">
+        <v>44562</v>
       </c>
       <c r="F475">
         <v>116556572703</v>
@@ -15094,8 +15101,8 @@
           <t>NL</t>
         </is>
       </c>
-      <c r="E476">
-        <v>2020</v>
+      <c r="E476" s="2">
+        <v>43831</v>
       </c>
       <c r="F476">
         <v>18485053869</v>
@@ -15125,8 +15132,8 @@
           <t>NL</t>
         </is>
       </c>
-      <c r="E477">
-        <v>2021</v>
+      <c r="E477" s="2">
+        <v>44197</v>
       </c>
       <c r="F477">
         <v>23675447557</v>
@@ -15156,8 +15163,8 @@
           <t>NL</t>
         </is>
       </c>
-      <c r="E478">
-        <v>2022</v>
+      <c r="E478" s="2">
+        <v>44562</v>
       </c>
       <c r="F478">
         <v>25757382060</v>
@@ -15187,8 +15194,8 @@
           <t>IL</t>
         </is>
       </c>
-      <c r="E479">
-        <v>2020</v>
+      <c r="E479" s="2">
+        <v>43831</v>
       </c>
       <c r="F479">
         <v>1589086123</v>
@@ -15218,8 +15225,8 @@
           <t>IL</t>
         </is>
       </c>
-      <c r="E480">
-        <v>2021</v>
+      <c r="E480" s="2">
+        <v>44197</v>
       </c>
       <c r="F480">
         <v>1989164847</v>
@@ -15249,8 +15256,8 @@
           <t>IL</t>
         </is>
       </c>
-      <c r="E481">
-        <v>2022</v>
+      <c r="E481" s="2">
+        <v>44562</v>
       </c>
       <c r="F481">
         <v>2192405878</v>
@@ -15280,8 +15287,8 @@
           <t>PG</t>
         </is>
       </c>
-      <c r="E482">
-        <v>2020</v>
+      <c r="E482" s="2">
+        <v>43831</v>
       </c>
       <c r="F482">
         <v>3087676</v>
@@ -15311,8 +15318,8 @@
           <t>PG</t>
         </is>
       </c>
-      <c r="E483">
-        <v>2021</v>
+      <c r="E483" s="2">
+        <v>44197</v>
       </c>
       <c r="F483">
         <v>3126282</v>
@@ -15342,8 +15349,8 @@
           <t>PG</t>
         </is>
       </c>
-      <c r="E484">
-        <v>2022</v>
+      <c r="E484" s="2">
+        <v>44562</v>
       </c>
       <c r="F484">
         <v>5001121</v>
@@ -15373,8 +15380,8 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="E485">
-        <v>2020</v>
+      <c r="E485" s="2">
+        <v>43831</v>
       </c>
       <c r="F485">
         <v>6562106682</v>
@@ -15404,8 +15411,8 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="E486">
-        <v>2021</v>
+      <c r="E486" s="2">
+        <v>44197</v>
       </c>
       <c r="F486">
         <v>9726839785</v>
@@ -15435,8 +15442,8 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="E487">
-        <v>2022</v>
+      <c r="E487" s="2">
+        <v>44562</v>
       </c>
       <c r="F487">
         <v>6199381797</v>
@@ -15466,8 +15473,8 @@
           <t>LU</t>
         </is>
       </c>
-      <c r="E488">
-        <v>2020</v>
+      <c r="E488" s="2">
+        <v>43831</v>
       </c>
       <c r="F488">
         <v>2376305893</v>
@@ -15497,8 +15504,8 @@
           <t>LU</t>
         </is>
       </c>
-      <c r="E489">
-        <v>2021</v>
+      <c r="E489" s="2">
+        <v>44197</v>
       </c>
       <c r="F489">
         <v>3390756382</v>
@@ -15528,8 +15535,8 @@
           <t>LU</t>
         </is>
       </c>
-      <c r="E490">
-        <v>2022</v>
+      <c r="E490" s="2">
+        <v>44562</v>
       </c>
       <c r="F490">
         <v>3378658252</v>
@@ -15559,8 +15566,8 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="E491">
-        <v>2020</v>
+      <c r="E491" s="2">
+        <v>43831</v>
       </c>
       <c r="F491">
         <v>601643802</v>
@@ -15590,8 +15597,8 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="E492">
-        <v>2021</v>
+      <c r="E492" s="2">
+        <v>44197</v>
       </c>
       <c r="F492">
         <v>752901514</v>
@@ -15621,8 +15628,8 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="E493">
-        <v>2022</v>
+      <c r="E493" s="2">
+        <v>44562</v>
       </c>
       <c r="F493">
         <v>873685882</v>
@@ -15652,8 +15659,8 @@
           <t>VE</t>
         </is>
       </c>
-      <c r="E494">
-        <v>2020</v>
+      <c r="E494" s="2">
+        <v>43831</v>
       </c>
       <c r="F494">
         <v>19261818</v>
@@ -15683,8 +15690,8 @@
           <t>VE</t>
         </is>
       </c>
-      <c r="E495">
-        <v>2021</v>
+      <c r="E495" s="2">
+        <v>44197</v>
       </c>
       <c r="F495">
         <v>24547030</v>
@@ -15714,8 +15721,8 @@
           <t>VE</t>
         </is>
       </c>
-      <c r="E496">
-        <v>2022</v>
+      <c r="E496" s="2">
+        <v>44562</v>
       </c>
       <c r="F496">
         <v>40008527</v>
@@ -15745,8 +15752,8 @@
           <t>GW</t>
         </is>
       </c>
-      <c r="E497">
-        <v>2020</v>
+      <c r="E497" s="2">
+        <v>43831</v>
       </c>
       <c r="F497">
         <v>4385768</v>
@@ -15776,8 +15783,8 @@
           <t>GW</t>
         </is>
       </c>
-      <c r="E498">
-        <v>2021</v>
+      <c r="E498" s="2">
+        <v>44197</v>
       </c>
       <c r="F498">
         <v>4545773</v>
@@ -15807,8 +15814,8 @@
           <t>GW</t>
         </is>
       </c>
-      <c r="E499">
-        <v>2022</v>
+      <c r="E499" s="2">
+        <v>44562</v>
       </c>
       <c r="F499">
         <v>4859048</v>
@@ -15838,8 +15845,8 @@
           <t>ET</t>
         </is>
       </c>
-      <c r="E500">
-        <v>2020</v>
+      <c r="E500" s="2">
+        <v>43831</v>
       </c>
       <c r="F500">
         <v>536989268</v>
@@ -15869,8 +15876,8 @@
           <t>ET</t>
         </is>
       </c>
-      <c r="E501">
-        <v>2021</v>
+      <c r="E501" s="2">
+        <v>44197</v>
       </c>
       <c r="F501">
         <v>464641386</v>
@@ -15900,8 +15907,8 @@
           <t>ET</t>
         </is>
       </c>
-      <c r="E502">
-        <v>2022</v>
+      <c r="E502" s="2">
+        <v>44562</v>
       </c>
       <c r="F502">
         <v>325855018</v>
@@ -15931,8 +15938,8 @@
           <t>BG</t>
         </is>
       </c>
-      <c r="E503">
-        <v>2020</v>
+      <c r="E503" s="2">
+        <v>43831</v>
       </c>
       <c r="F503">
         <v>975018993</v>
@@ -15962,8 +15969,8 @@
           <t>BG</t>
         </is>
       </c>
-      <c r="E504">
-        <v>2021</v>
+      <c r="E504" s="2">
+        <v>44197</v>
       </c>
       <c r="F504">
         <v>1198583687</v>
@@ -15993,8 +16000,8 @@
           <t>BG</t>
         </is>
       </c>
-      <c r="E505">
-        <v>2022</v>
+      <c r="E505" s="2">
+        <v>44562</v>
       </c>
       <c r="F505">
         <v>1276592323</v>
@@ -16024,8 +16031,8 @@
           <t>MO</t>
         </is>
       </c>
-      <c r="E506">
-        <v>2020</v>
+      <c r="E506" s="2">
+        <v>43831</v>
       </c>
       <c r="F506">
         <v>240067656</v>
@@ -16055,8 +16062,8 @@
           <t>MO</t>
         </is>
       </c>
-      <c r="E507">
-        <v>2021</v>
+      <c r="E507" s="2">
+        <v>44197</v>
       </c>
       <c r="F507">
         <v>444129211</v>
@@ -16086,8 +16093,8 @@
           <t>MO</t>
         </is>
       </c>
-      <c r="E508">
-        <v>2022</v>
+      <c r="E508" s="2">
+        <v>44562</v>
       </c>
       <c r="F508">
         <v>461766319</v>
@@ -16117,8 +16124,8 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="E509">
-        <v>2020</v>
+      <c r="E509" s="2">
+        <v>43831</v>
       </c>
       <c r="F509">
         <v>4218320666</v>
@@ -16148,8 +16155,8 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="E510">
-        <v>2021</v>
+      <c r="E510" s="2">
+        <v>44197</v>
       </c>
       <c r="F510">
         <v>5391280699</v>
@@ -16179,8 +16186,8 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="E511">
-        <v>2022</v>
+      <c r="E511" s="2">
+        <v>44562</v>
       </c>
       <c r="F511">
         <v>5679938239</v>
@@ -16210,8 +16217,8 @@
           <t>PF</t>
         </is>
       </c>
-      <c r="E512">
-        <v>2020</v>
+      <c r="E512" s="2">
+        <v>43831</v>
       </c>
       <c r="F512">
         <v>666331801</v>
@@ -16241,8 +16248,8 @@
           <t>PF</t>
         </is>
       </c>
-      <c r="E513">
-        <v>2021</v>
+      <c r="E513" s="2">
+        <v>44197</v>
       </c>
       <c r="F513">
         <v>733451471</v>
@@ -16272,8 +16279,8 @@
           <t>PF</t>
         </is>
       </c>
-      <c r="E514">
-        <v>2022</v>
+      <c r="E514" s="2">
+        <v>44562</v>
       </c>
       <c r="F514">
         <v>698427870</v>
@@ -16303,8 +16310,8 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="E515">
-        <v>2020</v>
+      <c r="E515" s="2">
+        <v>43831</v>
       </c>
       <c r="F515">
         <v>8062630435</v>
@@ -16334,8 +16341,8 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="E516">
-        <v>2021</v>
+      <c r="E516" s="2">
+        <v>44197</v>
       </c>
       <c r="F516">
         <v>8613612578</v>
@@ -16365,8 +16372,8 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="E517">
-        <v>2022</v>
+      <c r="E517" s="2">
+        <v>44562</v>
       </c>
       <c r="F517">
         <v>9319408206</v>
@@ -16396,8 +16403,8 @@
           <t>EC</t>
         </is>
       </c>
-      <c r="E518">
-        <v>2020</v>
+      <c r="E518" s="2">
+        <v>43831</v>
       </c>
       <c r="F518">
         <v>124496424</v>
@@ -16427,8 +16434,8 @@
           <t>EC</t>
         </is>
       </c>
-      <c r="E519">
-        <v>2021</v>
+      <c r="E519" s="2">
+        <v>44197</v>
       </c>
       <c r="F519">
         <v>149506680</v>
@@ -16458,8 +16465,8 @@
           <t>EC</t>
         </is>
       </c>
-      <c r="E520">
-        <v>2022</v>
+      <c r="E520" s="2">
+        <v>44562</v>
       </c>
       <c r="F520">
         <v>158056125</v>
@@ -16489,8 +16496,8 @@
           <t>X88</t>
         </is>
       </c>
-      <c r="E521">
-        <v>2020</v>
+      <c r="E521" s="2">
+        <v>43831</v>
       </c>
       <c r="F521">
         <v>131256877</v>
@@ -16520,8 +16527,8 @@
           <t>X88</t>
         </is>
       </c>
-      <c r="E522">
-        <v>2021</v>
+      <c r="E522" s="2">
+        <v>44197</v>
       </c>
       <c r="F522">
         <v>160378850</v>
@@ -16551,8 +16558,8 @@
           <t>X88</t>
         </is>
       </c>
-      <c r="E523">
-        <v>2022</v>
+      <c r="E523" s="2">
+        <v>44562</v>
       </c>
       <c r="F523">
         <v>113543344</v>
@@ -16582,8 +16589,8 @@
           <t>KW</t>
         </is>
       </c>
-      <c r="E524">
-        <v>2020</v>
+      <c r="E524" s="2">
+        <v>43831</v>
       </c>
       <c r="F524">
         <v>1207044671</v>
@@ -16613,8 +16620,8 @@
           <t>KW</t>
         </is>
       </c>
-      <c r="E525">
-        <v>2021</v>
+      <c r="E525" s="2">
+        <v>44197</v>
       </c>
       <c r="F525">
         <v>1378208274</v>
@@ -16644,8 +16651,8 @@
           <t>KW</t>
         </is>
       </c>
-      <c r="E526">
-        <v>2022</v>
+      <c r="E526" s="2">
+        <v>44562</v>
       </c>
       <c r="F526">
         <v>961766567</v>
@@ -16675,8 +16682,8 @@
           <t>FI</t>
         </is>
       </c>
-      <c r="E527">
-        <v>2020</v>
+      <c r="E527" s="2">
+        <v>43831</v>
       </c>
       <c r="F527">
         <v>1933122836</v>
@@ -16706,8 +16713,8 @@
           <t>FI</t>
         </is>
       </c>
-      <c r="E528">
-        <v>2021</v>
+      <c r="E528" s="2">
+        <v>44197</v>
       </c>
       <c r="F528">
         <v>2101879017</v>
@@ -16737,8 +16744,8 @@
           <t>FI</t>
         </is>
       </c>
-      <c r="E529">
-        <v>2022</v>
+      <c r="E529" s="2">
+        <v>44562</v>
       </c>
       <c r="F529">
         <v>1916235623</v>
@@ -16768,8 +16775,8 @@
           <t>CY</t>
         </is>
       </c>
-      <c r="E530">
-        <v>2020</v>
+      <c r="E530" s="2">
+        <v>43831</v>
       </c>
       <c r="F530">
         <v>242834881</v>
@@ -16799,8 +16806,8 @@
           <t>CY</t>
         </is>
       </c>
-      <c r="E531">
-        <v>2021</v>
+      <c r="E531" s="2">
+        <v>44197</v>
       </c>
       <c r="F531">
         <v>267935953</v>
@@ -16830,8 +16837,8 @@
           <t>CY</t>
         </is>
       </c>
-      <c r="E532">
-        <v>2022</v>
+      <c r="E532" s="2">
+        <v>44562</v>
       </c>
       <c r="F532">
         <v>277665887</v>
@@ -16861,8 +16868,8 @@
           <t>QA</t>
         </is>
       </c>
-      <c r="E533">
-        <v>2020</v>
+      <c r="E533" s="2">
+        <v>43831</v>
       </c>
       <c r="F533">
         <v>2562933580</v>
@@ -16892,8 +16899,8 @@
           <t>QA</t>
         </is>
       </c>
-      <c r="E534">
-        <v>2021</v>
+      <c r="E534" s="2">
+        <v>44197</v>
       </c>
       <c r="F534">
         <v>2179830748</v>
@@ -16923,8 +16930,8 @@
           <t>QA</t>
         </is>
       </c>
-      <c r="E535">
-        <v>2022</v>
+      <c r="E535" s="2">
+        <v>44562</v>
       </c>
       <c r="F535">
         <v>914986489</v>
@@ -16954,8 +16961,8 @@
           <t>JM</t>
         </is>
       </c>
-      <c r="E536">
-        <v>2020</v>
+      <c r="E536" s="2">
+        <v>43831</v>
       </c>
       <c r="F536">
         <v>42995799</v>
@@ -16985,8 +16992,8 @@
           <t>JM</t>
         </is>
       </c>
-      <c r="E537">
-        <v>2021</v>
+      <c r="E537" s="2">
+        <v>44197</v>
       </c>
       <c r="F537">
         <v>27127995</v>
@@ -17016,8 +17023,8 @@
           <t>JM</t>
         </is>
       </c>
-      <c r="E538">
-        <v>2022</v>
+      <c r="E538" s="2">
+        <v>44562</v>
       </c>
       <c r="F538">
         <v>26816072</v>
@@ -17047,8 +17054,8 @@
           <t>ST</t>
         </is>
       </c>
-      <c r="E539">
-        <v>2020</v>
+      <c r="E539" s="2">
+        <v>43831</v>
       </c>
       <c r="F539">
         <v>3065273</v>
@@ -17078,8 +17085,8 @@
           <t>ST</t>
         </is>
       </c>
-      <c r="E540">
-        <v>2021</v>
+      <c r="E540" s="2">
+        <v>44197</v>
       </c>
       <c r="F540">
         <v>1624957</v>
@@ -17109,8 +17116,8 @@
           <t>ST</t>
         </is>
       </c>
-      <c r="E541">
-        <v>2022</v>
+      <c r="E541" s="2">
+        <v>44562</v>
       </c>
       <c r="F541">
         <v>1127195</v>
@@ -17140,8 +17147,8 @@
           <t>WS</t>
         </is>
       </c>
-      <c r="E542">
-        <v>2020</v>
+      <c r="E542" s="2">
+        <v>43831</v>
       </c>
       <c r="F542">
         <v>198880</v>
@@ -17171,8 +17178,8 @@
           <t>WS</t>
         </is>
       </c>
-      <c r="E543">
-        <v>2021</v>
+      <c r="E543" s="2">
+        <v>44197</v>
       </c>
       <c r="F543">
         <v>3744773</v>
@@ -17202,8 +17209,8 @@
           <t>WS</t>
         </is>
       </c>
-      <c r="E544">
-        <v>2022</v>
+      <c r="E544" s="2">
+        <v>44562</v>
       </c>
       <c r="F544">
         <v>2030715</v>
@@ -17233,8 +17240,8 @@
           <t>YE</t>
         </is>
       </c>
-      <c r="E545">
-        <v>2020</v>
+      <c r="E545" s="2">
+        <v>43831</v>
       </c>
       <c r="F545">
         <v>139379933</v>
@@ -17264,8 +17271,8 @@
           <t>YE</t>
         </is>
       </c>
-      <c r="E546">
-        <v>2021</v>
+      <c r="E546" s="2">
+        <v>44197</v>
       </c>
       <c r="F546">
         <v>132641097</v>
@@ -17295,8 +17302,8 @@
           <t>YE</t>
         </is>
       </c>
-      <c r="E547">
-        <v>2022</v>
+      <c r="E547" s="2">
+        <v>44562</v>
       </c>
       <c r="F547">
         <v>246698149</v>
@@ -17326,8 +17333,8 @@
           <t>F1</t>
         </is>
       </c>
-      <c r="E548">
-        <v>2020</v>
+      <c r="E548" s="2">
+        <v>43831</v>
       </c>
       <c r="F548">
         <v>23102426526</v>
@@ -17357,8 +17364,8 @@
           <t>F1</t>
         </is>
       </c>
-      <c r="E549">
-        <v>2021</v>
+      <c r="E549" s="2">
+        <v>44197</v>
       </c>
       <c r="F549">
         <v>25459126771</v>
@@ -17388,8 +17395,8 @@
           <t>F1</t>
         </is>
       </c>
-      <c r="E550">
-        <v>2022</v>
+      <c r="E550" s="2">
+        <v>44562</v>
       </c>
       <c r="F550">
         <v>26407571909</v>
@@ -17419,8 +17426,8 @@
           <t>CG</t>
         </is>
       </c>
-      <c r="E551">
-        <v>2020</v>
+      <c r="E551" s="2">
+        <v>43831</v>
       </c>
       <c r="F551">
         <v>292208421</v>
@@ -17450,8 +17457,8 @@
           <t>CG</t>
         </is>
       </c>
-      <c r="E552">
-        <v>2021</v>
+      <c r="E552" s="2">
+        <v>44197</v>
       </c>
       <c r="F552">
         <v>297454310</v>
@@ -17481,8 +17488,8 @@
           <t>CG</t>
         </is>
       </c>
-      <c r="E553">
-        <v>2022</v>
+      <c r="E553" s="2">
+        <v>44562</v>
       </c>
       <c r="F553">
         <v>338705130</v>
@@ -17512,8 +17519,8 @@
           <t>GR</t>
         </is>
       </c>
-      <c r="E554">
-        <v>2020</v>
+      <c r="E554" s="2">
+        <v>43831</v>
       </c>
       <c r="F554">
         <v>2818515985</v>
@@ -17543,8 +17550,8 @@
           <t>GR</t>
         </is>
       </c>
-      <c r="E555">
-        <v>2021</v>
+      <c r="E555" s="2">
+        <v>44197</v>
       </c>
       <c r="F555">
         <v>3194912570</v>
@@ -17574,8 +17581,8 @@
           <t>GR</t>
         </is>
       </c>
-      <c r="E556">
-        <v>2022</v>
+      <c r="E556" s="2">
+        <v>44562</v>
       </c>
       <c r="F556">
         <v>3918040083</v>
@@ -17605,8 +17612,8 @@
           <t>BD</t>
         </is>
       </c>
-      <c r="E557">
-        <v>2020</v>
+      <c r="E557" s="2">
+        <v>43831</v>
       </c>
       <c r="F557">
         <v>273380521</v>
@@ -17636,8 +17643,8 @@
           <t>BD</t>
         </is>
       </c>
-      <c r="E558">
-        <v>2021</v>
+      <c r="E558" s="2">
+        <v>44197</v>
       </c>
       <c r="F558">
         <v>225039612</v>
@@ -17667,8 +17674,8 @@
           <t>BD</t>
         </is>
       </c>
-      <c r="E559">
-        <v>2022</v>
+      <c r="E559" s="2">
+        <v>44562</v>
       </c>
       <c r="F559">
         <v>251432648</v>
@@ -17698,8 +17705,8 @@
           <t>UG</t>
         </is>
       </c>
-      <c r="E560">
-        <v>2020</v>
+      <c r="E560" s="2">
+        <v>43831</v>
       </c>
       <c r="F560">
         <v>150544278</v>
@@ -17729,8 +17736,8 @@
           <t>UG</t>
         </is>
       </c>
-      <c r="E561">
-        <v>2021</v>
+      <c r="E561" s="2">
+        <v>44197</v>
       </c>
       <c r="F561">
         <v>129049693</v>
@@ -17760,8 +17767,8 @@
           <t>UG</t>
         </is>
       </c>
-      <c r="E562">
-        <v>2022</v>
+      <c r="E562" s="2">
+        <v>44562</v>
       </c>
       <c r="F562">
         <v>61021646</v>
@@ -17791,8 +17798,8 @@
           <t>AF</t>
         </is>
       </c>
-      <c r="E563">
-        <v>2020</v>
+      <c r="E563" s="2">
+        <v>43831</v>
       </c>
       <c r="F563">
         <v>21523526</v>
@@ -17822,8 +17829,8 @@
           <t>AF</t>
         </is>
       </c>
-      <c r="E564">
-        <v>2021</v>
+      <c r="E564" s="2">
+        <v>44197</v>
       </c>
       <c r="F564">
         <v>29167368</v>
@@ -17853,8 +17860,8 @@
           <t>AF</t>
         </is>
       </c>
-      <c r="E565">
-        <v>2022</v>
+      <c r="E565" s="2">
+        <v>44562</v>
       </c>
       <c r="F565">
         <v>29228876</v>
@@ -17884,8 +17891,8 @@
           <t>ZW</t>
         </is>
       </c>
-      <c r="E566">
-        <v>2020</v>
+      <c r="E566" s="2">
+        <v>43831</v>
       </c>
       <c r="F566">
         <v>24091284</v>
@@ -17915,8 +17922,8 @@
           <t>ZW</t>
         </is>
       </c>
-      <c r="E567">
-        <v>2021</v>
+      <c r="E567" s="2">
+        <v>44197</v>
       </c>
       <c r="F567">
         <v>28179402</v>
@@ -17946,8 +17953,8 @@
           <t>ZW</t>
         </is>
       </c>
-      <c r="E568">
-        <v>2022</v>
+      <c r="E568" s="2">
+        <v>44562</v>
       </c>
       <c r="F568">
         <v>20350355</v>
@@ -17977,8 +17984,8 @@
           <t>NP</t>
         </is>
       </c>
-      <c r="E569">
-        <v>2020</v>
+      <c r="E569" s="2">
+        <v>43831</v>
       </c>
       <c r="F569">
         <v>12909170</v>
@@ -18008,8 +18015,8 @@
           <t>NP</t>
         </is>
       </c>
-      <c r="E570">
-        <v>2021</v>
+      <c r="E570" s="2">
+        <v>44197</v>
       </c>
       <c r="F570">
         <v>23531051</v>
@@ -18039,8 +18046,8 @@
           <t>NP</t>
         </is>
       </c>
-      <c r="E571">
-        <v>2022</v>
+      <c r="E571" s="2">
+        <v>44562</v>
       </c>
       <c r="F571">
         <v>36398791</v>
@@ -18070,8 +18077,8 @@
           <t>RO</t>
         </is>
       </c>
-      <c r="E572">
-        <v>2020</v>
+      <c r="E572" s="2">
+        <v>43831</v>
       </c>
       <c r="F572">
         <v>4397503434</v>
@@ -18101,8 +18108,8 @@
           <t>RO</t>
         </is>
       </c>
-      <c r="E573">
-        <v>2021</v>
+      <c r="E573" s="2">
+        <v>44197</v>
       </c>
       <c r="F573">
         <v>5034799501</v>
@@ -18132,8 +18139,8 @@
           <t>RO</t>
         </is>
       </c>
-      <c r="E574">
-        <v>2022</v>
+      <c r="E574" s="2">
+        <v>44562</v>
       </c>
       <c r="F574">
         <v>5247428693</v>
@@ -18163,8 +18170,8 @@
           <t>MT</t>
         </is>
       </c>
-      <c r="E575">
-        <v>2020</v>
+      <c r="E575" s="2">
+        <v>43831</v>
       </c>
       <c r="F575">
         <v>420987096</v>
@@ -18194,8 +18201,8 @@
           <t>MT</t>
         </is>
       </c>
-      <c r="E576">
-        <v>2021</v>
+      <c r="E576" s="2">
+        <v>44197</v>
       </c>
       <c r="F576">
         <v>513277103</v>
@@ -18225,8 +18232,8 @@
           <t>MT</t>
         </is>
       </c>
-      <c r="E577">
-        <v>2022</v>
+      <c r="E577" s="2">
+        <v>44562</v>
       </c>
       <c r="F577">
         <v>691993330</v>
@@ -18256,8 +18263,8 @@
           <t>MX</t>
         </is>
       </c>
-      <c r="E578">
-        <v>2020</v>
+      <c r="E578" s="2">
+        <v>43831</v>
       </c>
       <c r="F578">
         <v>2996259801</v>
@@ -18287,8 +18294,8 @@
           <t>MX</t>
         </is>
       </c>
-      <c r="E579">
-        <v>2021</v>
+      <c r="E579" s="2">
+        <v>44197</v>
       </c>
       <c r="F579">
         <v>3954142043</v>
@@ -18318,8 +18325,8 @@
           <t>MX</t>
         </is>
       </c>
-      <c r="E580">
-        <v>2022</v>
+      <c r="E580" s="2">
+        <v>44562</v>
       </c>
       <c r="F580">
         <v>3772722451</v>
@@ -18349,8 +18356,8 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="E581">
-        <v>2020</v>
+      <c r="E581" s="2">
+        <v>43831</v>
       </c>
       <c r="F581">
         <v>871369270</v>
@@ -18380,8 +18387,8 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="E582">
-        <v>2021</v>
+      <c r="E582" s="2">
+        <v>44197</v>
       </c>
       <c r="F582">
         <v>1441205549</v>
@@ -18411,8 +18418,8 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="E583">
-        <v>2022</v>
+      <c r="E583" s="2">
+        <v>44562</v>
       </c>
       <c r="F583">
         <v>1379538018</v>
@@ -18442,8 +18449,8 @@
           <t>RU</t>
         </is>
       </c>
-      <c r="E584">
-        <v>2020</v>
+      <c r="E584" s="2">
+        <v>43831</v>
       </c>
       <c r="F584">
         <v>5893652636</v>
@@ -18473,8 +18480,8 @@
           <t>RU</t>
         </is>
       </c>
-      <c r="E585">
-        <v>2021</v>
+      <c r="E585" s="2">
+        <v>44197</v>
       </c>
       <c r="F585">
         <v>7596463801</v>
@@ -18504,8 +18511,8 @@
           <t>RU</t>
         </is>
       </c>
-      <c r="E586">
-        <v>2022</v>
+      <c r="E586" s="2">
+        <v>44562</v>
       </c>
       <c r="F586">
         <v>3304689513</v>
@@ -18535,8 +18542,8 @@
           <t>KH</t>
         </is>
       </c>
-      <c r="E587">
-        <v>2020</v>
+      <c r="E587" s="2">
+        <v>43831</v>
       </c>
       <c r="F587">
         <v>131654514</v>
@@ -18566,8 +18573,8 @@
           <t>KH</t>
         </is>
       </c>
-      <c r="E588">
-        <v>2021</v>
+      <c r="E588" s="2">
+        <v>44197</v>
       </c>
       <c r="F588">
         <v>257592901</v>
@@ -18597,8 +18604,8 @@
           <t>KH</t>
         </is>
       </c>
-      <c r="E589">
-        <v>2022</v>
+      <c r="E589" s="2">
+        <v>44562</v>
       </c>
       <c r="F589">
         <v>131623821</v>
@@ -18628,8 +18635,8 @@
           <t>MA</t>
         </is>
       </c>
-      <c r="E590">
-        <v>2020</v>
+      <c r="E590" s="2">
+        <v>43831</v>
       </c>
       <c r="F590">
         <v>4708209571</v>
@@ -18659,8 +18666,8 @@
           <t>MA</t>
         </is>
       </c>
-      <c r="E591">
-        <v>2021</v>
+      <c r="E591" s="2">
+        <v>44197</v>
       </c>
       <c r="F591">
         <v>5490843135</v>
@@ -18690,8 +18697,8 @@
           <t>MA</t>
         </is>
       </c>
-      <c r="E592">
-        <v>2022</v>
+      <c r="E592" s="2">
+        <v>44562</v>
       </c>
       <c r="F592">
         <v>6649372195</v>
@@ -18721,8 +18728,8 @@
           <t>BW</t>
         </is>
       </c>
-      <c r="E593">
-        <v>2020</v>
+      <c r="E593" s="2">
+        <v>43831</v>
       </c>
       <c r="F593">
         <v>47666400</v>
@@ -18752,8 +18759,8 @@
           <t>BW</t>
         </is>
       </c>
-      <c r="E594">
-        <v>2021</v>
+      <c r="E594" s="2">
+        <v>44197</v>
       </c>
       <c r="F594">
         <v>69640406</v>
@@ -18783,8 +18790,8 @@
           <t>BW</t>
         </is>
       </c>
-      <c r="E595">
-        <v>2022</v>
+      <c r="E595" s="2">
+        <v>44562</v>
       </c>
       <c r="F595">
         <v>6214595</v>
@@ -18814,8 +18821,8 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="E596">
-        <v>2020</v>
+      <c r="E596" s="2">
+        <v>43831</v>
       </c>
       <c r="F596">
         <v>37276862996</v>
@@ -18845,8 +18852,8 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="E597">
-        <v>2021</v>
+      <c r="E597" s="2">
+        <v>44197</v>
       </c>
       <c r="F597">
         <v>46699228381</v>
@@ -18876,8 +18883,8 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="E598">
-        <v>2022</v>
+      <c r="E598" s="2">
+        <v>44562</v>
       </c>
       <c r="F598">
         <v>56580636236</v>
@@ -18907,8 +18914,8 @@
           <t>BH</t>
         </is>
       </c>
-      <c r="E599">
-        <v>2020</v>
+      <c r="E599" s="2">
+        <v>43831</v>
       </c>
       <c r="F599">
         <v>143491426</v>
@@ -18938,8 +18945,8 @@
           <t>BH</t>
         </is>
       </c>
-      <c r="E600">
-        <v>2021</v>
+      <c r="E600" s="2">
+        <v>44197</v>
       </c>
       <c r="F600">
         <v>134429462</v>
@@ -18969,8 +18976,8 @@
           <t>BH</t>
         </is>
       </c>
-      <c r="E601">
-        <v>2022</v>
+      <c r="E601" s="2">
+        <v>44562</v>
       </c>
       <c r="F601">
         <v>196333893</v>
@@ -19000,8 +19007,8 @@
           <t>BE</t>
         </is>
       </c>
-      <c r="E602">
-        <v>2020</v>
+      <c r="E602" s="2">
+        <v>43831</v>
       </c>
       <c r="F602">
         <v>36218106821</v>
@@ -19031,8 +19038,8 @@
           <t>BE</t>
         </is>
       </c>
-      <c r="E603">
-        <v>2021</v>
+      <c r="E603" s="2">
+        <v>44197</v>
       </c>
       <c r="F603">
         <v>44763394859</v>
@@ -19062,8 +19069,8 @@
           <t>BE</t>
         </is>
       </c>
-      <c r="E604">
-        <v>2022</v>
+      <c r="E604" s="2">
+        <v>44562</v>
       </c>
       <c r="F604">
         <v>48727344041</v>
@@ -19093,8 +19100,8 @@
           <t>TR</t>
         </is>
       </c>
-      <c r="E605">
-        <v>2020</v>
+      <c r="E605" s="2">
+        <v>43831</v>
       </c>
       <c r="F605">
         <v>7277647186</v>
@@ -19124,8 +19131,8 @@
           <t>TR</t>
         </is>
       </c>
-      <c r="E606">
-        <v>2021</v>
+      <c r="E606" s="2">
+        <v>44197</v>
       </c>
       <c r="F606">
         <v>8763870291</v>
@@ -19155,8 +19162,8 @@
           <t>TR</t>
         </is>
       </c>
-      <c r="E607">
-        <v>2022</v>
+      <c r="E607" s="2">
+        <v>44562</v>
       </c>
       <c r="F607">
         <v>9713890635</v>
@@ -19186,8 +19193,8 @@
           <t>NE</t>
         </is>
       </c>
-      <c r="E608">
-        <v>2020</v>
+      <c r="E608" s="2">
+        <v>43831</v>
       </c>
       <c r="F608">
         <v>136127950</v>
@@ -19217,8 +19224,8 @@
           <t>NE</t>
         </is>
       </c>
-      <c r="E609">
-        <v>2021</v>
+      <c r="E609" s="2">
+        <v>44197</v>
       </c>
       <c r="F609">
         <v>128797898</v>
@@ -19248,8 +19255,8 @@
           <t>NE</t>
         </is>
       </c>
-      <c r="E610">
-        <v>2022</v>
+      <c r="E610" s="2">
+        <v>44562</v>
       </c>
       <c r="F610">
         <v>116213048</v>
@@ -19279,8 +19286,8 @@
           <t>1C_903</t>
         </is>
       </c>
-      <c r="E611">
-        <v>2020</v>
+      <c r="E611" s="2">
+        <v>43831</v>
       </c>
       <c r="F611">
         <v>36972475268</v>
@@ -19310,8 +19317,8 @@
           <t>1C_903</t>
         </is>
       </c>
-      <c r="E612">
-        <v>2021</v>
+      <c r="E612" s="2">
+        <v>44197</v>
       </c>
       <c r="F612">
         <v>45752729043</v>
@@ -19341,8 +19348,8 @@
           <t>1C_903</t>
         </is>
       </c>
-      <c r="E613">
-        <v>2022</v>
+      <c r="E613" s="2">
+        <v>44562</v>
       </c>
       <c r="F613">
         <v>42803743017</v>
@@ -19372,8 +19379,8 @@
           <t>BZ</t>
         </is>
       </c>
-      <c r="E614">
-        <v>2020</v>
+      <c r="E614" s="2">
+        <v>43831</v>
       </c>
       <c r="F614">
         <v>678198</v>
@@ -19403,8 +19410,8 @@
           <t>BZ</t>
         </is>
       </c>
-      <c r="E615">
-        <v>2021</v>
+      <c r="E615" s="2">
+        <v>44197</v>
       </c>
       <c r="F615">
         <v>3368804</v>
@@ -19434,8 +19441,8 @@
           <t>BZ</t>
         </is>
       </c>
-      <c r="E616">
-        <v>2022</v>
+      <c r="E616" s="2">
+        <v>44562</v>
       </c>
       <c r="F616">
         <v>5286133</v>
@@ -19465,8 +19472,8 @@
           <t>MV</t>
         </is>
       </c>
-      <c r="E617">
-        <v>2020</v>
+      <c r="E617" s="2">
+        <v>43831</v>
       </c>
       <c r="F617">
         <v>13270246</v>
@@ -19496,8 +19503,8 @@
           <t>MV</t>
         </is>
       </c>
-      <c r="E618">
-        <v>2021</v>
+      <c r="E618" s="2">
+        <v>44197</v>
       </c>
       <c r="F618">
         <v>26690028</v>
@@ -19527,8 +19534,8 @@
           <t>MV</t>
         </is>
       </c>
-      <c r="E619">
-        <v>2022</v>
+      <c r="E619" s="2">
+        <v>44562</v>
       </c>
       <c r="F619">
         <v>73706106</v>
@@ -19558,8 +19565,8 @@
           <t>JO</t>
         </is>
       </c>
-      <c r="E620">
-        <v>2020</v>
+      <c r="E620" s="2">
+        <v>43831</v>
       </c>
       <c r="F620">
         <v>206065706</v>
@@ -19589,8 +19596,8 @@
           <t>JO</t>
         </is>
       </c>
-      <c r="E621">
-        <v>2021</v>
+      <c r="E621" s="2">
+        <v>44197</v>
       </c>
       <c r="F621">
         <v>258086252</v>
@@ -19620,8 +19627,8 @@
           <t>JO</t>
         </is>
       </c>
-      <c r="E622">
-        <v>2022</v>
+      <c r="E622" s="2">
+        <v>44562</v>
       </c>
       <c r="F622">
         <v>340907728</v>
@@ -19651,8 +19658,8 @@
           <t>R14</t>
         </is>
       </c>
-      <c r="E623">
-        <v>2020</v>
+      <c r="E623" s="2">
+        <v>43831</v>
       </c>
       <c r="F623">
         <v>8751916299</v>
@@ -19682,8 +19689,8 @@
           <t>R14</t>
         </is>
       </c>
-      <c r="E624">
-        <v>2021</v>
+      <c r="E624" s="2">
+        <v>44197</v>
       </c>
       <c r="F624">
         <v>10624687602</v>
@@ -19713,8 +19720,8 @@
           <t>R14</t>
         </is>
       </c>
-      <c r="E625">
-        <v>2022</v>
+      <c r="E625" s="2">
+        <v>44562</v>
       </c>
       <c r="F625">
         <v>6261565323</v>
@@ -19744,8 +19751,8 @@
           <t>ZA</t>
         </is>
       </c>
-      <c r="E626">
-        <v>2020</v>
+      <c r="E626" s="2">
+        <v>43831</v>
       </c>
       <c r="F626">
         <v>1519996463</v>
@@ -19775,8 +19782,8 @@
           <t>ZA</t>
         </is>
       </c>
-      <c r="E627">
-        <v>2021</v>
+      <c r="E627" s="2">
+        <v>44197</v>
       </c>
       <c r="F627">
         <v>1888851225</v>
@@ -19806,8 +19813,8 @@
           <t>ZA</t>
         </is>
       </c>
-      <c r="E628">
-        <v>2022</v>
+      <c r="E628" s="2">
+        <v>44562</v>
       </c>
       <c r="F628">
         <v>1889168962</v>
@@ -19837,8 +19844,8 @@
           <t>FK</t>
         </is>
       </c>
-      <c r="E629">
-        <v>2022</v>
+      <c r="E629" s="2">
+        <v>44562</v>
       </c>
       <c r="F629">
         <v>25115</v>
@@ -19868,8 +19875,8 @@
           <t>GQ</t>
         </is>
       </c>
-      <c r="E630">
-        <v>2020</v>
+      <c r="E630" s="2">
+        <v>43831</v>
       </c>
       <c r="F630">
         <v>25214312</v>
@@ -19899,8 +19906,8 @@
           <t>GQ</t>
         </is>
       </c>
-      <c r="E631">
-        <v>2021</v>
+      <c r="E631" s="2">
+        <v>44197</v>
       </c>
       <c r="F631">
         <v>20695113</v>
@@ -19930,8 +19937,8 @@
           <t>GQ</t>
         </is>
       </c>
-      <c r="E632">
-        <v>2022</v>
+      <c r="E632" s="2">
+        <v>44562</v>
       </c>
       <c r="F632">
         <v>23318623</v>
@@ -19961,8 +19968,8 @@
           <t>BA</t>
         </is>
       </c>
-      <c r="E633">
-        <v>2020</v>
+      <c r="E633" s="2">
+        <v>43831</v>
       </c>
       <c r="F633">
         <v>77767696</v>
@@ -19992,8 +19999,8 @@
           <t>BA</t>
         </is>
       </c>
-      <c r="E634">
-        <v>2021</v>
+      <c r="E634" s="2">
+        <v>44197</v>
       </c>
       <c r="F634">
         <v>94437684</v>
@@ -20023,8 +20030,8 @@
           <t>BA</t>
         </is>
       </c>
-      <c r="E635">
-        <v>2022</v>
+      <c r="E635" s="2">
+        <v>44562</v>
       </c>
       <c r="F635">
         <v>122855663</v>
@@ -20054,8 +20061,8 @@
           <t>CU</t>
         </is>
       </c>
-      <c r="E636">
-        <v>2020</v>
+      <c r="E636" s="2">
+        <v>43831</v>
       </c>
       <c r="F636">
         <v>131256877</v>
@@ -20085,8 +20092,8 @@
           <t>CU</t>
         </is>
       </c>
-      <c r="E637">
-        <v>2021</v>
+      <c r="E637" s="2">
+        <v>44197</v>
       </c>
       <c r="F637">
         <v>160378850</v>
@@ -20116,8 +20123,8 @@
           <t>CU</t>
         </is>
       </c>
-      <c r="E638">
-        <v>2022</v>
+      <c r="E638" s="2">
+        <v>44562</v>
       </c>
       <c r="F638">
         <v>113543344</v>
@@ -20147,8 +20154,8 @@
           <t>SK</t>
         </is>
       </c>
-      <c r="E639">
-        <v>2020</v>
+      <c r="E639" s="2">
+        <v>43831</v>
       </c>
       <c r="F639">
         <v>3072550114</v>
@@ -20178,8 +20185,8 @@
           <t>SK</t>
         </is>
       </c>
-      <c r="E640">
-        <v>2021</v>
+      <c r="E640" s="2">
+        <v>44197</v>
       </c>
       <c r="F640">
         <v>3542046516</v>
@@ -20209,8 +20216,8 @@
           <t>SK</t>
         </is>
       </c>
-      <c r="E641">
-        <v>2022</v>
+      <c r="E641" s="2">
+        <v>44562</v>
       </c>
       <c r="F641">
         <v>3421943787</v>
@@ -20240,8 +20247,8 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="E642">
-        <v>2020</v>
+      <c r="E642" s="2">
+        <v>43831</v>
       </c>
       <c r="F642">
         <v>455619506</v>
@@ -20271,8 +20278,8 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="E643">
-        <v>2021</v>
+      <c r="E643" s="2">
+        <v>44197</v>
       </c>
       <c r="F643">
         <v>475649445</v>
@@ -20302,8 +20309,8 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="E644">
-        <v>2022</v>
+      <c r="E644" s="2">
+        <v>44562</v>
       </c>
       <c r="F644">
         <v>554885418</v>
@@ -20333,8 +20340,8 @@
           <t>KM</t>
         </is>
       </c>
-      <c r="E645">
-        <v>2020</v>
+      <c r="E645" s="2">
+        <v>43831</v>
       </c>
       <c r="F645">
         <v>43394085</v>
@@ -20364,8 +20371,8 @@
           <t>KM</t>
         </is>
       </c>
-      <c r="E646">
-        <v>2021</v>
+      <c r="E646" s="2">
+        <v>44197</v>
       </c>
       <c r="F646">
         <v>55402728</v>
@@ -20395,8 +20402,8 @@
           <t>KM</t>
         </is>
       </c>
-      <c r="E647">
-        <v>2022</v>
+      <c r="E647" s="2">
+        <v>44562</v>
       </c>
       <c r="F647">
         <v>28010519</v>
@@ -20426,8 +20433,8 @@
           <t>AM</t>
         </is>
       </c>
-      <c r="E648">
-        <v>2020</v>
+      <c r="E648" s="2">
+        <v>43831</v>
       </c>
       <c r="F648">
         <v>54691041</v>
@@ -20457,8 +20464,8 @@
           <t>AM</t>
         </is>
       </c>
-      <c r="E649">
-        <v>2021</v>
+      <c r="E649" s="2">
+        <v>44197</v>
       </c>
       <c r="F649">
         <v>58183106</v>
@@ -20488,8 +20495,8 @@
           <t>AM</t>
         </is>
       </c>
-      <c r="E650">
-        <v>2022</v>
+      <c r="E650" s="2">
+        <v>44562</v>
       </c>
       <c r="F650">
         <v>82856907</v>
@@ -20519,8 +20526,8 @@
           <t>SO</t>
         </is>
       </c>
-      <c r="E651">
-        <v>2020</v>
+      <c r="E651" s="2">
+        <v>43831</v>
       </c>
       <c r="F651">
         <v>14448829</v>
@@ -20550,8 +20557,8 @@
           <t>SO</t>
         </is>
       </c>
-      <c r="E652">
-        <v>2021</v>
+      <c r="E652" s="2">
+        <v>44197</v>
       </c>
       <c r="F652">
         <v>13245352</v>
@@ -20581,8 +20588,8 @@
           <t>SO</t>
         </is>
       </c>
-      <c r="E653">
-        <v>2022</v>
+      <c r="E653" s="2">
+        <v>44562</v>
       </c>
       <c r="F653">
         <v>16263324</v>
@@ -20612,8 +20619,8 @@
           <t>KR</t>
         </is>
       </c>
-      <c r="E654">
-        <v>2020</v>
+      <c r="E654" s="2">
+        <v>43831</v>
       </c>
       <c r="F654">
         <v>5510786929</v>
@@ -20643,8 +20650,8 @@
           <t>KR</t>
         </is>
       </c>
-      <c r="E655">
-        <v>2021</v>
+      <c r="E655" s="2">
+        <v>44197</v>
       </c>
       <c r="F655">
         <v>5671590941</v>
@@ -20674,8 +20681,8 @@
           <t>KR</t>
         </is>
       </c>
-      <c r="E656">
-        <v>2022</v>
+      <c r="E656" s="2">
+        <v>44562</v>
       </c>
       <c r="F656">
         <v>6166583328</v>
@@ -20705,8 +20712,8 @@
           <t>PW</t>
         </is>
       </c>
-      <c r="E657">
-        <v>2020</v>
+      <c r="E657" s="2">
+        <v>43831</v>
       </c>
       <c r="F657">
         <v>58391</v>
@@ -20736,8 +20743,8 @@
           <t>PW</t>
         </is>
       </c>
-      <c r="E658">
-        <v>2021</v>
+      <c r="E658" s="2">
+        <v>44197</v>
       </c>
       <c r="F658">
         <v>2981086</v>
@@ -20767,8 +20774,8 @@
           <t>PW</t>
         </is>
       </c>
-      <c r="E659">
-        <v>2022</v>
+      <c r="E659" s="2">
+        <v>44562</v>
       </c>
       <c r="F659">
         <v>12894</v>
@@ -20798,8 +20805,8 @@
           <t>TL</t>
         </is>
       </c>
-      <c r="E660">
-        <v>2020</v>
+      <c r="E660" s="2">
+        <v>43831</v>
       </c>
       <c r="F660">
         <v>554710</v>
@@ -20829,8 +20836,8 @@
           <t>TL</t>
         </is>
       </c>
-      <c r="E661">
-        <v>2021</v>
+      <c r="E661" s="2">
+        <v>44197</v>
       </c>
       <c r="F661">
         <v>200574</v>
@@ -20860,8 +20867,8 @@
           <t>TL</t>
         </is>
       </c>
-      <c r="E662">
-        <v>2022</v>
+      <c r="E662" s="2">
+        <v>44562</v>
       </c>
       <c r="F662">
         <v>990596</v>
@@ -20891,8 +20898,8 @@
           <t>SX</t>
         </is>
       </c>
-      <c r="E663">
-        <v>2020</v>
+      <c r="E663" s="2">
+        <v>43831</v>
       </c>
       <c r="F663">
         <v>24916534</v>
@@ -20922,8 +20929,8 @@
           <t>SX</t>
         </is>
       </c>
-      <c r="E664">
-        <v>2021</v>
+      <c r="E664" s="2">
+        <v>44197</v>
       </c>
       <c r="F664">
         <v>35278693</v>
@@ -20953,8 +20960,8 @@
           <t>SX</t>
         </is>
       </c>
-      <c r="E665">
-        <v>2022</v>
+      <c r="E665" s="2">
+        <v>44562</v>
       </c>
       <c r="F665">
         <v>38223845</v>
@@ -20984,8 +20991,8 @@
           <t>CW</t>
         </is>
       </c>
-      <c r="E666">
-        <v>2020</v>
+      <c r="E666" s="2">
+        <v>43831</v>
       </c>
       <c r="F666">
         <v>12268367</v>
@@ -21015,8 +21022,8 @@
           <t>CW</t>
         </is>
       </c>
-      <c r="E667">
-        <v>2021</v>
+      <c r="E667" s="2">
+        <v>44197</v>
       </c>
       <c r="F667">
         <v>10862113</v>
@@ -21046,8 +21053,8 @@
           <t>CW</t>
         </is>
       </c>
-      <c r="E668">
-        <v>2022</v>
+      <c r="E668" s="2">
+        <v>44562</v>
       </c>
       <c r="F668">
         <v>13355792</v>
@@ -21077,8 +21084,8 @@
           <t>FM</t>
         </is>
       </c>
-      <c r="E669">
-        <v>2020</v>
+      <c r="E669" s="2">
+        <v>43831</v>
       </c>
       <c r="F669">
         <v>7766</v>
@@ -21108,8 +21115,8 @@
           <t>FM</t>
         </is>
       </c>
-      <c r="E670">
-        <v>2021</v>
+      <c r="E670" s="2">
+        <v>44197</v>
       </c>
       <c r="F670">
         <v>217510</v>
@@ -21139,8 +21146,8 @@
           <t>FM</t>
         </is>
       </c>
-      <c r="E671">
-        <v>2022</v>
+      <c r="E671" s="2">
+        <v>44562</v>
       </c>
       <c r="F671">
         <v>43137</v>
@@ -21170,8 +21177,8 @@
           <t>MS</t>
         </is>
       </c>
-      <c r="E672">
-        <v>2020</v>
+      <c r="E672" s="2">
+        <v>43831</v>
       </c>
       <c r="F672">
         <v>116380</v>
@@ -21201,8 +21208,8 @@
           <t>MS</t>
         </is>
       </c>
-      <c r="E673">
-        <v>2021</v>
+      <c r="E673" s="2">
+        <v>44197</v>
       </c>
       <c r="F673">
         <v>53003</v>
@@ -21232,8 +21239,8 @@
           <t>MS</t>
         </is>
       </c>
-      <c r="E674">
-        <v>2022</v>
+      <c r="E674" s="2">
+        <v>44562</v>
       </c>
       <c r="F674">
         <v>61204</v>
@@ -21263,8 +21270,8 @@
           <t>VA</t>
         </is>
       </c>
-      <c r="E675">
-        <v>2020</v>
+      <c r="E675" s="2">
+        <v>43831</v>
       </c>
       <c r="F675">
         <v>295778</v>
@@ -21294,8 +21301,8 @@
           <t>VA</t>
         </is>
       </c>
-      <c r="E676">
-        <v>2021</v>
+      <c r="E676" s="2">
+        <v>44197</v>
       </c>
       <c r="F676">
         <v>362305</v>
@@ -21325,8 +21332,8 @@
           <t>VA</t>
         </is>
       </c>
-      <c r="E677">
-        <v>2022</v>
+      <c r="E677" s="2">
+        <v>44562</v>
       </c>
       <c r="F677">
         <v>357844</v>
@@ -21356,8 +21363,8 @@
           <t>SS</t>
         </is>
       </c>
-      <c r="E678">
-        <v>2020</v>
+      <c r="E678" s="2">
+        <v>43831</v>
       </c>
       <c r="F678">
         <v>8874354</v>
@@ -21387,8 +21394,8 @@
           <t>SS</t>
         </is>
       </c>
-      <c r="E679">
-        <v>2021</v>
+      <c r="E679" s="2">
+        <v>44197</v>
       </c>
       <c r="F679">
         <v>1639615</v>
@@ -21418,8 +21425,8 @@
           <t>SS</t>
         </is>
       </c>
-      <c r="E680">
-        <v>2022</v>
+      <c r="E680" s="2">
+        <v>44562</v>
       </c>
       <c r="F680">
         <v>3540517</v>
@@ -21449,8 +21456,8 @@
           <t>U2</t>
         </is>
       </c>
-      <c r="E681">
-        <v>2020</v>
+      <c r="E681" s="2">
+        <v>43831</v>
       </c>
       <c r="F681">
         <v>226102592769</v>
@@ -21480,8 +21487,8 @@
           <t>U2</t>
         </is>
       </c>
-      <c r="E682">
-        <v>2021</v>
+      <c r="E682" s="2">
+        <v>44197</v>
       </c>
       <c r="F682">
         <v>276225398116</v>
@@ -21511,8 +21518,8 @@
           <t>U2</t>
         </is>
       </c>
-      <c r="E683">
-        <v>2022</v>
+      <c r="E683" s="2">
+        <v>44562</v>
       </c>
       <c r="F683">
         <v>299419028186</v>
@@ -21542,8 +21549,8 @@
           <t>MH</t>
         </is>
       </c>
-      <c r="E684">
-        <v>2020</v>
+      <c r="E684" s="2">
+        <v>43831</v>
       </c>
       <c r="F684">
         <v>16018491</v>
@@ -21573,8 +21580,8 @@
           <t>MH</t>
         </is>
       </c>
-      <c r="E685">
-        <v>2021</v>
+      <c r="E685" s="2">
+        <v>44197</v>
       </c>
       <c r="F685">
         <v>12469260</v>
@@ -21604,8 +21611,8 @@
           <t>MH</t>
         </is>
       </c>
-      <c r="E686">
-        <v>2022</v>
+      <c r="E686" s="2">
+        <v>44562</v>
       </c>
       <c r="F686">
         <v>30022836</v>
@@ -21635,8 +21642,8 @@
           <t>AI</t>
         </is>
       </c>
-      <c r="E687">
-        <v>2020</v>
+      <c r="E687" s="2">
+        <v>43831</v>
       </c>
       <c r="F687">
         <v>1031633</v>
@@ -21666,8 +21673,8 @@
           <t>AI</t>
         </is>
       </c>
-      <c r="E688">
-        <v>2021</v>
+      <c r="E688" s="2">
+        <v>44197</v>
       </c>
       <c r="F688">
         <v>1587988</v>
@@ -21697,8 +21704,8 @@
           <t>AI</t>
         </is>
       </c>
-      <c r="E689">
-        <v>2022</v>
+      <c r="E689" s="2">
+        <v>44562</v>
       </c>
       <c r="F689">
         <v>279326</v>
@@ -21728,8 +21735,8 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="E690">
-        <v>2020</v>
+      <c r="E690" s="2">
+        <v>43831</v>
       </c>
       <c r="F690">
         <v>26766127</v>
@@ -21759,8 +21766,8 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="E691">
-        <v>2021</v>
+      <c r="E691" s="2">
+        <v>44197</v>
       </c>
       <c r="F691">
         <v>33497651</v>
@@ -21790,8 +21797,8 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="E692">
-        <v>2022</v>
+      <c r="E692" s="2">
+        <v>44562</v>
       </c>
       <c r="F692">
         <v>29989939</v>
@@ -21821,8 +21828,8 @@
           <t>XS5</t>
         </is>
       </c>
-      <c r="E693">
-        <v>2020</v>
+      <c r="E693" s="2">
+        <v>43831</v>
       </c>
       <c r="F693">
         <v>30454132279</v>
@@ -21852,8 +21859,8 @@
           <t>XS5</t>
         </is>
       </c>
-      <c r="E694">
-        <v>2021</v>
+      <c r="E694" s="2">
+        <v>44197</v>
       </c>
       <c r="F694">
         <v>32613237555</v>
@@ -21883,8 +21890,8 @@
           <t>XS5</t>
         </is>
       </c>
-      <c r="E695">
-        <v>2022</v>
+      <c r="E695" s="2">
+        <v>44562</v>
       </c>
       <c r="F695">
         <v>33514666971</v>
